--- a/01_基本設計書/01_基本設計書/チーム2/基本設計書_基本情報管理.xlsx
+++ b/01_基本設計書/01_基本設計書/チーム2/基本設計書_基本情報管理.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\まとめる\6月の課題\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFCAD061-8FE2-42C7-AFC6-23E4B4EDD384}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90891B7F-1083-467D-9275-B8AA54FCE940}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-15810" yWindow="705" windowWidth="15120" windowHeight="9495" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1920" yWindow="1920" windowWidth="13152" windowHeight="8952" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="2" r:id="rId1"/>
@@ -20,9 +20,6 @@
     <sheet name="画面レイアウト（社員情報更新）" sheetId="4" r:id="rId5"/>
     <sheet name="書式文字" sheetId="5" r:id="rId6"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId7"/>
-  </externalReferences>
   <definedNames>
     <definedName name="A">#REF!</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">IO関連図!$A$1:$AG$35</definedName>
@@ -47,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="130">
   <si>
     <t>基本設計書</t>
     <rPh sb="0" eb="2">
@@ -1394,6 +1391,10 @@
       <t>カブシキガイシャ</t>
     </rPh>
     <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>尚科</t>
+    <phoneticPr fontId="3"/>
   </si>
 </sst>
 </file>
@@ -1842,6 +1843,50 @@
     <xf numFmtId="182" fontId="1" fillId="0" borderId="12" xfId="6" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="7" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="8" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="8" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="8" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="8" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="7" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="7" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="7" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="7" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="7" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="7" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="8" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="9" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10" applyFont="1"/>
+    <xf numFmtId="177" fontId="15" fillId="0" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" xfId="7" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="7" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="7" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="7" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="15" fillId="0" borderId="4" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="15" fillId="0" borderId="5" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="7" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="7" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="15" fillId="0" borderId="11" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="7" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="15" fillId="0" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="8" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="8" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="8" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="8" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1849,15 +1894,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
@@ -1902,65 +1938,29 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="6" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="6" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="7" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="8" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="8" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="8" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="8" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="7" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="7" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="7" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="7" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="7" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="7" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="8" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="7" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="9" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10" applyFont="1"/>
-    <xf numFmtId="177" fontId="15" fillId="0" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="7" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="7" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" xfId="7" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="7" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -1979,8 +1979,6 @@
     <xf numFmtId="177" fontId="15" fillId="0" borderId="3" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="7" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="7" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1991,24 +1989,27 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="177" fontId="15" fillId="0" borderId="1" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="7" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="177" fontId="15" fillId="0" borderId="4" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="15" fillId="0" borderId="5" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="7" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="7" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="15" fillId="0" borderId="11" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="7" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="15" fillId="0" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="8" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="8" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="8" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="8" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="11">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -2060,7 +2061,7 @@
         <xdr:cNvPr id="13" name="Line 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{43A77BAB-6933-44F1-8E46-5B14323816BA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2128,7 +2129,7 @@
         <xdr:cNvPr id="14" name="AutoShape 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{62405F41-97A8-4E34-B34E-028AD8FE9B14}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2221,7 +2222,7 @@
         <xdr:cNvPr id="15" name="Line 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0F7E856-D90C-4FE6-AA66-607A121834DC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2289,7 +2290,7 @@
         <xdr:cNvPr id="16" name="AutoShape 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C6C20F21-5BDB-4D19-88B7-AB188CE0CF93}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000010000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2375,7 +2376,7 @@
         <xdr:cNvPr id="17" name="AutoShape 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BDDCE5BE-5F10-44CA-A82B-71D82DCE312A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000011000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2476,7 +2477,7 @@
         <xdr:cNvPr id="18" name="Line 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{47D00015-BF73-4EBA-A2E0-EFC82EC500EE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000012000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2544,7 +2545,7 @@
         <xdr:cNvPr id="19" name="AutoShape 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4F2F249C-ADEC-4468-965D-E996DB1AECA7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000013000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2660,7 +2661,7 @@
         <xdr:cNvPr id="21" name="Line 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{27C8BE94-EF57-4E10-A0D5-50ABFE8F4D03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000015000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2728,7 +2729,7 @@
         <xdr:cNvPr id="22" name="Line 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6926D3EF-F7AB-499F-BB5A-EC7FA16DD1B7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000016000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2801,7 +2802,7 @@
         <xdr:cNvPr id="2" name="Text Box 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4303D63A-5424-485A-9783-815B87527D7E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2869,7 +2870,7 @@
         <xdr:cNvPr id="3" name="Text Box 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0531A0C1-DD3D-43A8-AB3B-EBD57D0489DC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2937,7 +2938,7 @@
         <xdr:cNvPr id="4" name="Text Box 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B70ACF57-998F-4B45-8F79-E7723B41C05B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2998,9 +2999,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>125730</xdr:colOff>
+          <xdr:colOff>121920</xdr:colOff>
           <xdr:row>14</xdr:row>
-          <xdr:rowOff>17145</xdr:rowOff>
+          <xdr:rowOff>15240</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3010,7 +3011,7 @@
                   <a14:compatExt spid="_x0000_s4097"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1E153E53-1F53-463D-BCA6-90C7E59E1611}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000001100000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3072,7 +3073,7 @@
         <xdr:cNvPr id="5" name="Text Box 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{22F6D11E-FB45-4652-8C81-F94DE3C5A446}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3145,7 +3146,7 @@
         <xdr:cNvPr id="2" name="Text Box 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5B57EF10-32E2-49FE-B89C-14FEDA28B9EF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3213,7 +3214,7 @@
         <xdr:cNvPr id="4" name="Text Box 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C5BB8D6A-8B98-4671-B676-2B46716314E5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3293,7 +3294,7 @@
         <xdr:cNvPr id="4" name="Text Box 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6901F521-A65B-4144-829F-4C72926F4BB4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3368,7 +3369,7 @@
         <xdr:cNvPr id="5" name="Text Box 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6FA691AE-A3B8-4697-BDD0-0E4145880D92}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3448,7 +3449,7 @@
         <xdr:cNvPr id="2" name="Text Box 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AEEC45A4-86BA-477A-BB5A-0808EC7C0000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3516,7 +3517,7 @@
         <xdr:cNvPr id="3" name="Text Box 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{09B070D0-C3D4-4A04-8D9C-5DBEABC7C397}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3584,7 +3585,7 @@
         <xdr:cNvPr id="4" name="Text Box 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0ED7CC9C-92E0-4444-886A-494F2F492394}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3652,7 +3653,7 @@
         <xdr:cNvPr id="5" name="Text Box 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E39F477E-E7C6-4365-819E-052B3179BB19}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3720,7 +3721,7 @@
         <xdr:cNvPr id="6" name="Text Box 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EB25FED5-AA0E-45BF-97BA-E25108049779}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3788,7 +3789,7 @@
         <xdr:cNvPr id="7" name="Text Box 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A54AB4E1-4DB9-446C-B92F-41BE724F3506}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3856,7 +3857,7 @@
         <xdr:cNvPr id="8" name="Text Box 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{01D17519-37EE-4470-994B-3E953459F2A7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3924,7 +3925,7 @@
         <xdr:cNvPr id="9" name="Text Box 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3CDF8072-72B1-4F27-8AF8-B7BD00CFA336}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000009000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3992,7 +3993,7 @@
         <xdr:cNvPr id="10" name="Text Box 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{72302834-8B68-460B-BE41-62CDAE7B4223}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00000A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4043,57 +4044,6 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="表紙"/>
-      <sheetName val="IO関連図"/>
-      <sheetName val="社員マスタ"/>
-      <sheetName val="日付マスタ"/>
-      <sheetName val="画面レイアウト（ログイン画面）"/>
-      <sheetName val="画面レイアウト（社員情報一覧）"/>
-      <sheetName val="画面レイアウト（社員情報登録・更新）"/>
-      <sheetName val="勤怠情報一覧（月別）"/>
-      <sheetName val="勤怠管理日別"/>
-      <sheetName val="画面レイアウト（勤怠情報登録（日別））"/>
-      <sheetName val="画面レイアウト（勤怠情報修正（日別))"/>
-      <sheetName val="画面レイアウト（勤怠承認一覧）"/>
-      <sheetName val="勤怠承認詳細"/>
-      <sheetName val="書式文字"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="12">
-          <cell r="B12" t="str">
-            <v>勤怠管理システム</v>
-          </cell>
-          <cell r="AB12" t="str">
-            <v>TPC</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6" refreshError="1"/>
-      <sheetData sheetId="7" refreshError="1"/>
-      <sheetData sheetId="8" refreshError="1"/>
-      <sheetData sheetId="9" refreshError="1"/>
-      <sheetData sheetId="10" refreshError="1"/>
-      <sheetData sheetId="11" refreshError="1"/>
-      <sheetData sheetId="12" refreshError="1"/>
-      <sheetData sheetId="13" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4808,72 +4758,72 @@
     </row>
     <row r="4" spans="1:176" ht="12.75" customHeight="1">
       <c r="A4" s="12"/>
-      <c r="B4" s="57" t="s">
+      <c r="B4" s="88" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="57"/>
-      <c r="D4" s="57"/>
-      <c r="E4" s="57"/>
-      <c r="F4" s="57"/>
-      <c r="G4" s="57"/>
-      <c r="H4" s="57"/>
-      <c r="I4" s="57"/>
-      <c r="J4" s="57"/>
-      <c r="K4" s="57"/>
-      <c r="L4" s="57"/>
-      <c r="M4" s="57"/>
-      <c r="N4" s="57"/>
-      <c r="O4" s="57"/>
-      <c r="P4" s="57"/>
-      <c r="Q4" s="57"/>
-      <c r="R4" s="57"/>
-      <c r="S4" s="57"/>
-      <c r="T4" s="57"/>
-      <c r="U4" s="57"/>
-      <c r="V4" s="57"/>
-      <c r="W4" s="57"/>
-      <c r="X4" s="57"/>
-      <c r="Y4" s="57"/>
-      <c r="Z4" s="57"/>
-      <c r="AA4" s="57"/>
-      <c r="AB4" s="57"/>
-      <c r="AC4" s="57"/>
-      <c r="AD4" s="57"/>
-      <c r="AE4" s="57"/>
+      <c r="C4" s="88"/>
+      <c r="D4" s="88"/>
+      <c r="E4" s="88"/>
+      <c r="F4" s="88"/>
+      <c r="G4" s="88"/>
+      <c r="H4" s="88"/>
+      <c r="I4" s="88"/>
+      <c r="J4" s="88"/>
+      <c r="K4" s="88"/>
+      <c r="L4" s="88"/>
+      <c r="M4" s="88"/>
+      <c r="N4" s="88"/>
+      <c r="O4" s="88"/>
+      <c r="P4" s="88"/>
+      <c r="Q4" s="88"/>
+      <c r="R4" s="88"/>
+      <c r="S4" s="88"/>
+      <c r="T4" s="88"/>
+      <c r="U4" s="88"/>
+      <c r="V4" s="88"/>
+      <c r="W4" s="88"/>
+      <c r="X4" s="88"/>
+      <c r="Y4" s="88"/>
+      <c r="Z4" s="88"/>
+      <c r="AA4" s="88"/>
+      <c r="AB4" s="88"/>
+      <c r="AC4" s="88"/>
+      <c r="AD4" s="88"/>
+      <c r="AE4" s="88"/>
       <c r="AF4" s="13"/>
     </row>
     <row r="5" spans="1:176" ht="12.75" customHeight="1">
       <c r="A5" s="12"/>
-      <c r="B5" s="57"/>
-      <c r="C5" s="57"/>
-      <c r="D5" s="57"/>
-      <c r="E5" s="57"/>
-      <c r="F5" s="57"/>
-      <c r="G5" s="57"/>
-      <c r="H5" s="57"/>
-      <c r="I5" s="57"/>
-      <c r="J5" s="57"/>
-      <c r="K5" s="57"/>
-      <c r="L5" s="57"/>
-      <c r="M5" s="57"/>
-      <c r="N5" s="57"/>
-      <c r="O5" s="57"/>
-      <c r="P5" s="57"/>
-      <c r="Q5" s="57"/>
-      <c r="R5" s="57"/>
-      <c r="S5" s="57"/>
-      <c r="T5" s="57"/>
-      <c r="U5" s="57"/>
-      <c r="V5" s="57"/>
-      <c r="W5" s="57"/>
-      <c r="X5" s="57"/>
-      <c r="Y5" s="57"/>
-      <c r="Z5" s="57"/>
-      <c r="AA5" s="57"/>
-      <c r="AB5" s="57"/>
-      <c r="AC5" s="57"/>
-      <c r="AD5" s="57"/>
-      <c r="AE5" s="57"/>
+      <c r="B5" s="88"/>
+      <c r="C5" s="88"/>
+      <c r="D5" s="88"/>
+      <c r="E5" s="88"/>
+      <c r="F5" s="88"/>
+      <c r="G5" s="88"/>
+      <c r="H5" s="88"/>
+      <c r="I5" s="88"/>
+      <c r="J5" s="88"/>
+      <c r="K5" s="88"/>
+      <c r="L5" s="88"/>
+      <c r="M5" s="88"/>
+      <c r="N5" s="88"/>
+      <c r="O5" s="88"/>
+      <c r="P5" s="88"/>
+      <c r="Q5" s="88"/>
+      <c r="R5" s="88"/>
+      <c r="S5" s="88"/>
+      <c r="T5" s="88"/>
+      <c r="U5" s="88"/>
+      <c r="V5" s="88"/>
+      <c r="W5" s="88"/>
+      <c r="X5" s="88"/>
+      <c r="Y5" s="88"/>
+      <c r="Z5" s="88"/>
+      <c r="AA5" s="88"/>
+      <c r="AB5" s="88"/>
+      <c r="AC5" s="88"/>
+      <c r="AD5" s="88"/>
+      <c r="AE5" s="88"/>
       <c r="AF5" s="13"/>
     </row>
     <row r="6" spans="1:176" ht="12.75" customHeight="1">
@@ -5045,122 +4995,122 @@
     </row>
     <row r="11" spans="1:176" ht="12">
       <c r="A11" s="12"/>
-      <c r="B11" s="58" t="s">
+      <c r="B11" s="89" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="59"/>
-      <c r="D11" s="59"/>
-      <c r="E11" s="59"/>
-      <c r="F11" s="60"/>
-      <c r="G11" s="58" t="s">
+      <c r="C11" s="90"/>
+      <c r="D11" s="90"/>
+      <c r="E11" s="90"/>
+      <c r="F11" s="91"/>
+      <c r="G11" s="89" t="s">
         <v>2</v>
       </c>
-      <c r="H11" s="59"/>
-      <c r="I11" s="59"/>
-      <c r="J11" s="59"/>
-      <c r="K11" s="59"/>
-      <c r="L11" s="60"/>
-      <c r="M11" s="58" t="s">
+      <c r="H11" s="90"/>
+      <c r="I11" s="90"/>
+      <c r="J11" s="90"/>
+      <c r="K11" s="90"/>
+      <c r="L11" s="91"/>
+      <c r="M11" s="89" t="s">
         <v>3</v>
       </c>
-      <c r="N11" s="59"/>
-      <c r="O11" s="59"/>
-      <c r="P11" s="59"/>
-      <c r="Q11" s="59"/>
-      <c r="R11" s="59"/>
-      <c r="S11" s="59"/>
-      <c r="T11" s="59"/>
-      <c r="U11" s="59"/>
-      <c r="V11" s="59"/>
-      <c r="W11" s="59"/>
-      <c r="X11" s="59"/>
-      <c r="Y11" s="59"/>
-      <c r="Z11" s="59"/>
-      <c r="AA11" s="60"/>
-      <c r="AB11" s="58" t="s">
+      <c r="N11" s="90"/>
+      <c r="O11" s="90"/>
+      <c r="P11" s="90"/>
+      <c r="Q11" s="90"/>
+      <c r="R11" s="90"/>
+      <c r="S11" s="90"/>
+      <c r="T11" s="90"/>
+      <c r="U11" s="90"/>
+      <c r="V11" s="90"/>
+      <c r="W11" s="90"/>
+      <c r="X11" s="90"/>
+      <c r="Y11" s="90"/>
+      <c r="Z11" s="90"/>
+      <c r="AA11" s="91"/>
+      <c r="AB11" s="89" t="s">
         <v>4</v>
       </c>
-      <c r="AC11" s="60"/>
-      <c r="AD11" s="58" t="s">
+      <c r="AC11" s="91"/>
+      <c r="AD11" s="89" t="s">
         <v>5</v>
       </c>
-      <c r="AE11" s="60"/>
+      <c r="AE11" s="91"/>
     </row>
     <row r="12" spans="1:176" ht="12">
       <c r="A12" s="12"/>
-      <c r="B12" s="61" t="s">
+      <c r="B12" s="92" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="62"/>
-      <c r="D12" s="62"/>
-      <c r="E12" s="62"/>
-      <c r="F12" s="63"/>
-      <c r="G12" s="61" t="s">
+      <c r="C12" s="93"/>
+      <c r="D12" s="93"/>
+      <c r="E12" s="93"/>
+      <c r="F12" s="94"/>
+      <c r="G12" s="92" t="s">
         <v>7</v>
       </c>
-      <c r="H12" s="62"/>
-      <c r="I12" s="62"/>
-      <c r="J12" s="62"/>
-      <c r="K12" s="62"/>
-      <c r="L12" s="63"/>
-      <c r="M12" s="67" t="s">
+      <c r="H12" s="93"/>
+      <c r="I12" s="93"/>
+      <c r="J12" s="93"/>
+      <c r="K12" s="93"/>
+      <c r="L12" s="94"/>
+      <c r="M12" s="98" t="s">
         <v>8</v>
       </c>
-      <c r="N12" s="62"/>
-      <c r="O12" s="62"/>
-      <c r="P12" s="62"/>
-      <c r="Q12" s="62"/>
-      <c r="R12" s="62"/>
-      <c r="S12" s="62"/>
-      <c r="T12" s="62"/>
-      <c r="U12" s="62"/>
-      <c r="V12" s="62"/>
-      <c r="W12" s="62"/>
-      <c r="X12" s="62"/>
-      <c r="Y12" s="62"/>
-      <c r="Z12" s="62"/>
-      <c r="AA12" s="63"/>
-      <c r="AB12" s="67" t="s">
+      <c r="N12" s="93"/>
+      <c r="O12" s="93"/>
+      <c r="P12" s="93"/>
+      <c r="Q12" s="93"/>
+      <c r="R12" s="93"/>
+      <c r="S12" s="93"/>
+      <c r="T12" s="93"/>
+      <c r="U12" s="93"/>
+      <c r="V12" s="93"/>
+      <c r="W12" s="93"/>
+      <c r="X12" s="93"/>
+      <c r="Y12" s="93"/>
+      <c r="Z12" s="93"/>
+      <c r="AA12" s="94"/>
+      <c r="AB12" s="98" t="s">
         <v>128</v>
       </c>
-      <c r="AC12" s="68"/>
-      <c r="AD12" s="61" t="s">
+      <c r="AC12" s="99"/>
+      <c r="AD12" s="92" t="s">
         <v>9</v>
       </c>
-      <c r="AE12" s="63"/>
+      <c r="AE12" s="94"/>
     </row>
     <row r="13" spans="1:176" ht="12">
       <c r="A13" s="12"/>
-      <c r="B13" s="64"/>
-      <c r="C13" s="65"/>
-      <c r="D13" s="65"/>
-      <c r="E13" s="65"/>
-      <c r="F13" s="66"/>
-      <c r="G13" s="64"/>
-      <c r="H13" s="65"/>
-      <c r="I13" s="65"/>
-      <c r="J13" s="65"/>
-      <c r="K13" s="65"/>
-      <c r="L13" s="66"/>
-      <c r="M13" s="64"/>
-      <c r="N13" s="65"/>
-      <c r="O13" s="65"/>
-      <c r="P13" s="65"/>
-      <c r="Q13" s="65"/>
-      <c r="R13" s="65"/>
-      <c r="S13" s="65"/>
-      <c r="T13" s="65"/>
-      <c r="U13" s="65"/>
-      <c r="V13" s="65"/>
-      <c r="W13" s="65"/>
-      <c r="X13" s="65"/>
-      <c r="Y13" s="65"/>
-      <c r="Z13" s="65"/>
-      <c r="AA13" s="66"/>
-      <c r="AB13" s="69"/>
-      <c r="AC13" s="70"/>
-      <c r="AD13" s="64"/>
-      <c r="AE13" s="66"/>
+      <c r="B13" s="95"/>
+      <c r="C13" s="96"/>
+      <c r="D13" s="96"/>
+      <c r="E13" s="96"/>
+      <c r="F13" s="97"/>
+      <c r="G13" s="95"/>
+      <c r="H13" s="96"/>
+      <c r="I13" s="96"/>
+      <c r="J13" s="96"/>
+      <c r="K13" s="96"/>
+      <c r="L13" s="97"/>
+      <c r="M13" s="95"/>
+      <c r="N13" s="96"/>
+      <c r="O13" s="96"/>
+      <c r="P13" s="96"/>
+      <c r="Q13" s="96"/>
+      <c r="R13" s="96"/>
+      <c r="S13" s="96"/>
+      <c r="T13" s="96"/>
+      <c r="U13" s="96"/>
+      <c r="V13" s="96"/>
+      <c r="W13" s="96"/>
+      <c r="X13" s="96"/>
+      <c r="Y13" s="96"/>
+      <c r="Z13" s="96"/>
+      <c r="AA13" s="97"/>
+      <c r="AB13" s="100"/>
+      <c r="AC13" s="101"/>
+      <c r="AD13" s="95"/>
+      <c r="AE13" s="97"/>
     </row>
     <row r="14" spans="1:176" ht="12.75" customHeight="1">
       <c r="A14" s="12"/>
@@ -5460,630 +5410,630 @@
     </row>
     <row r="23" spans="1:32" ht="12.75" customHeight="1">
       <c r="A23" s="12"/>
-      <c r="B23" s="51" t="s">
+      <c r="B23" s="85" t="s">
         <v>11</v>
       </c>
-      <c r="C23" s="52"/>
-      <c r="D23" s="52"/>
-      <c r="E23" s="53"/>
-      <c r="F23" s="51" t="s">
+      <c r="C23" s="86"/>
+      <c r="D23" s="86"/>
+      <c r="E23" s="87"/>
+      <c r="F23" s="85" t="s">
         <v>12</v>
       </c>
-      <c r="G23" s="52"/>
-      <c r="H23" s="52"/>
-      <c r="I23" s="53"/>
-      <c r="J23" s="51" t="s">
+      <c r="G23" s="86"/>
+      <c r="H23" s="86"/>
+      <c r="I23" s="87"/>
+      <c r="J23" s="85" t="s">
         <v>13</v>
       </c>
-      <c r="K23" s="52"/>
-      <c r="L23" s="52"/>
-      <c r="M23" s="52"/>
-      <c r="N23" s="52"/>
-      <c r="O23" s="52"/>
-      <c r="P23" s="52"/>
-      <c r="Q23" s="52"/>
-      <c r="R23" s="52"/>
-      <c r="S23" s="52"/>
-      <c r="T23" s="52"/>
-      <c r="U23" s="52"/>
-      <c r="V23" s="52"/>
-      <c r="W23" s="52"/>
-      <c r="X23" s="52"/>
-      <c r="Y23" s="52"/>
-      <c r="Z23" s="52"/>
-      <c r="AA23" s="52"/>
-      <c r="AB23" s="53"/>
-      <c r="AC23" s="51" t="s">
+      <c r="K23" s="86"/>
+      <c r="L23" s="86"/>
+      <c r="M23" s="86"/>
+      <c r="N23" s="86"/>
+      <c r="O23" s="86"/>
+      <c r="P23" s="86"/>
+      <c r="Q23" s="86"/>
+      <c r="R23" s="86"/>
+      <c r="S23" s="86"/>
+      <c r="T23" s="86"/>
+      <c r="U23" s="86"/>
+      <c r="V23" s="86"/>
+      <c r="W23" s="86"/>
+      <c r="X23" s="86"/>
+      <c r="Y23" s="86"/>
+      <c r="Z23" s="86"/>
+      <c r="AA23" s="86"/>
+      <c r="AB23" s="87"/>
+      <c r="AC23" s="85" t="s">
         <v>14</v>
       </c>
-      <c r="AD23" s="52"/>
-      <c r="AE23" s="53"/>
+      <c r="AD23" s="86"/>
+      <c r="AE23" s="87"/>
       <c r="AF23" s="13"/>
     </row>
     <row r="24" spans="1:32" ht="12.75" customHeight="1">
       <c r="A24" s="12"/>
-      <c r="B24" s="51">
+      <c r="B24" s="85">
         <v>1</v>
       </c>
-      <c r="C24" s="52"/>
-      <c r="D24" s="52"/>
-      <c r="E24" s="53"/>
-      <c r="F24" s="54">
+      <c r="C24" s="86"/>
+      <c r="D24" s="86"/>
+      <c r="E24" s="87"/>
+      <c r="F24" s="102">
         <v>45083</v>
       </c>
-      <c r="G24" s="55"/>
-      <c r="H24" s="55"/>
-      <c r="I24" s="56"/>
-      <c r="J24" s="51" t="s">
+      <c r="G24" s="103"/>
+      <c r="H24" s="103"/>
+      <c r="I24" s="104"/>
+      <c r="J24" s="85" t="s">
         <v>80</v>
       </c>
-      <c r="K24" s="52"/>
-      <c r="L24" s="52"/>
-      <c r="M24" s="52"/>
-      <c r="N24" s="52"/>
-      <c r="O24" s="52"/>
-      <c r="P24" s="52"/>
-      <c r="Q24" s="52"/>
-      <c r="R24" s="52"/>
-      <c r="S24" s="52"/>
-      <c r="T24" s="52"/>
-      <c r="U24" s="52"/>
-      <c r="V24" s="52"/>
-      <c r="W24" s="52"/>
-      <c r="X24" s="52"/>
-      <c r="Y24" s="52"/>
-      <c r="Z24" s="52"/>
-      <c r="AA24" s="52"/>
-      <c r="AB24" s="53"/>
-      <c r="AC24" s="51" t="s">
+      <c r="K24" s="86"/>
+      <c r="L24" s="86"/>
+      <c r="M24" s="86"/>
+      <c r="N24" s="86"/>
+      <c r="O24" s="86"/>
+      <c r="P24" s="86"/>
+      <c r="Q24" s="86"/>
+      <c r="R24" s="86"/>
+      <c r="S24" s="86"/>
+      <c r="T24" s="86"/>
+      <c r="U24" s="86"/>
+      <c r="V24" s="86"/>
+      <c r="W24" s="86"/>
+      <c r="X24" s="86"/>
+      <c r="Y24" s="86"/>
+      <c r="Z24" s="86"/>
+      <c r="AA24" s="86"/>
+      <c r="AB24" s="87"/>
+      <c r="AC24" s="85" t="s">
         <v>81</v>
       </c>
-      <c r="AD24" s="52"/>
-      <c r="AE24" s="53"/>
+      <c r="AD24" s="86"/>
+      <c r="AE24" s="87"/>
       <c r="AF24" s="13"/>
     </row>
     <row r="25" spans="1:32" ht="12.75" customHeight="1">
       <c r="A25" s="12"/>
-      <c r="B25" s="51"/>
-      <c r="C25" s="52"/>
-      <c r="D25" s="52"/>
-      <c r="E25" s="53"/>
-      <c r="F25" s="54"/>
-      <c r="G25" s="55"/>
-      <c r="H25" s="55"/>
-      <c r="I25" s="56"/>
-      <c r="J25" s="51"/>
-      <c r="K25" s="52"/>
-      <c r="L25" s="52"/>
-      <c r="M25" s="52"/>
-      <c r="N25" s="52"/>
-      <c r="O25" s="52"/>
-      <c r="P25" s="52"/>
-      <c r="Q25" s="52"/>
-      <c r="R25" s="52"/>
-      <c r="S25" s="52"/>
-      <c r="T25" s="52"/>
-      <c r="U25" s="52"/>
-      <c r="V25" s="52"/>
-      <c r="W25" s="52"/>
-      <c r="X25" s="52"/>
-      <c r="Y25" s="52"/>
-      <c r="Z25" s="52"/>
-      <c r="AA25" s="52"/>
-      <c r="AB25" s="53"/>
-      <c r="AC25" s="51"/>
-      <c r="AD25" s="52"/>
-      <c r="AE25" s="53"/>
+      <c r="B25" s="85"/>
+      <c r="C25" s="86"/>
+      <c r="D25" s="86"/>
+      <c r="E25" s="87"/>
+      <c r="F25" s="102"/>
+      <c r="G25" s="103"/>
+      <c r="H25" s="103"/>
+      <c r="I25" s="104"/>
+      <c r="J25" s="85"/>
+      <c r="K25" s="86"/>
+      <c r="L25" s="86"/>
+      <c r="M25" s="86"/>
+      <c r="N25" s="86"/>
+      <c r="O25" s="86"/>
+      <c r="P25" s="86"/>
+      <c r="Q25" s="86"/>
+      <c r="R25" s="86"/>
+      <c r="S25" s="86"/>
+      <c r="T25" s="86"/>
+      <c r="U25" s="86"/>
+      <c r="V25" s="86"/>
+      <c r="W25" s="86"/>
+      <c r="X25" s="86"/>
+      <c r="Y25" s="86"/>
+      <c r="Z25" s="86"/>
+      <c r="AA25" s="86"/>
+      <c r="AB25" s="87"/>
+      <c r="AC25" s="85"/>
+      <c r="AD25" s="86"/>
+      <c r="AE25" s="87"/>
       <c r="AF25" s="13"/>
     </row>
     <row r="26" spans="1:32" ht="12.75" customHeight="1">
       <c r="A26" s="12"/>
-      <c r="B26" s="51"/>
-      <c r="C26" s="52"/>
-      <c r="D26" s="52"/>
-      <c r="E26" s="53"/>
-      <c r="F26" s="54"/>
-      <c r="G26" s="55"/>
-      <c r="H26" s="55"/>
-      <c r="I26" s="56"/>
-      <c r="J26" s="51"/>
-      <c r="K26" s="52"/>
-      <c r="L26" s="52"/>
-      <c r="M26" s="52"/>
-      <c r="N26" s="52"/>
-      <c r="O26" s="52"/>
-      <c r="P26" s="52"/>
-      <c r="Q26" s="52"/>
-      <c r="R26" s="52"/>
-      <c r="S26" s="52"/>
-      <c r="T26" s="52"/>
-      <c r="U26" s="52"/>
-      <c r="V26" s="52"/>
-      <c r="W26" s="52"/>
-      <c r="X26" s="52"/>
-      <c r="Y26" s="52"/>
-      <c r="Z26" s="52"/>
-      <c r="AA26" s="52"/>
-      <c r="AB26" s="53"/>
-      <c r="AC26" s="51"/>
-      <c r="AD26" s="52"/>
-      <c r="AE26" s="53"/>
+      <c r="B26" s="85"/>
+      <c r="C26" s="86"/>
+      <c r="D26" s="86"/>
+      <c r="E26" s="87"/>
+      <c r="F26" s="102"/>
+      <c r="G26" s="103"/>
+      <c r="H26" s="103"/>
+      <c r="I26" s="104"/>
+      <c r="J26" s="85"/>
+      <c r="K26" s="86"/>
+      <c r="L26" s="86"/>
+      <c r="M26" s="86"/>
+      <c r="N26" s="86"/>
+      <c r="O26" s="86"/>
+      <c r="P26" s="86"/>
+      <c r="Q26" s="86"/>
+      <c r="R26" s="86"/>
+      <c r="S26" s="86"/>
+      <c r="T26" s="86"/>
+      <c r="U26" s="86"/>
+      <c r="V26" s="86"/>
+      <c r="W26" s="86"/>
+      <c r="X26" s="86"/>
+      <c r="Y26" s="86"/>
+      <c r="Z26" s="86"/>
+      <c r="AA26" s="86"/>
+      <c r="AB26" s="87"/>
+      <c r="AC26" s="85"/>
+      <c r="AD26" s="86"/>
+      <c r="AE26" s="87"/>
       <c r="AF26" s="13"/>
     </row>
     <row r="27" spans="1:32" ht="12.75" customHeight="1">
       <c r="A27" s="12"/>
-      <c r="B27" s="51"/>
-      <c r="C27" s="52"/>
-      <c r="D27" s="52"/>
-      <c r="E27" s="53"/>
-      <c r="F27" s="54"/>
-      <c r="G27" s="55"/>
-      <c r="H27" s="55"/>
-      <c r="I27" s="56"/>
-      <c r="J27" s="51"/>
-      <c r="K27" s="52"/>
-      <c r="L27" s="52"/>
-      <c r="M27" s="52"/>
-      <c r="N27" s="52"/>
-      <c r="O27" s="52"/>
-      <c r="P27" s="52"/>
-      <c r="Q27" s="52"/>
-      <c r="R27" s="52"/>
-      <c r="S27" s="52"/>
-      <c r="T27" s="52"/>
-      <c r="U27" s="52"/>
-      <c r="V27" s="52"/>
-      <c r="W27" s="52"/>
-      <c r="X27" s="52"/>
-      <c r="Y27" s="52"/>
-      <c r="Z27" s="52"/>
-      <c r="AA27" s="52"/>
-      <c r="AB27" s="53"/>
-      <c r="AC27" s="51"/>
-      <c r="AD27" s="52"/>
-      <c r="AE27" s="53"/>
+      <c r="B27" s="85"/>
+      <c r="C27" s="86"/>
+      <c r="D27" s="86"/>
+      <c r="E27" s="87"/>
+      <c r="F27" s="102"/>
+      <c r="G27" s="103"/>
+      <c r="H27" s="103"/>
+      <c r="I27" s="104"/>
+      <c r="J27" s="85"/>
+      <c r="K27" s="86"/>
+      <c r="L27" s="86"/>
+      <c r="M27" s="86"/>
+      <c r="N27" s="86"/>
+      <c r="O27" s="86"/>
+      <c r="P27" s="86"/>
+      <c r="Q27" s="86"/>
+      <c r="R27" s="86"/>
+      <c r="S27" s="86"/>
+      <c r="T27" s="86"/>
+      <c r="U27" s="86"/>
+      <c r="V27" s="86"/>
+      <c r="W27" s="86"/>
+      <c r="X27" s="86"/>
+      <c r="Y27" s="86"/>
+      <c r="Z27" s="86"/>
+      <c r="AA27" s="86"/>
+      <c r="AB27" s="87"/>
+      <c r="AC27" s="85"/>
+      <c r="AD27" s="86"/>
+      <c r="AE27" s="87"/>
       <c r="AF27" s="13"/>
     </row>
     <row r="28" spans="1:32" ht="12.75" customHeight="1">
       <c r="A28" s="12"/>
-      <c r="B28" s="51"/>
-      <c r="C28" s="52"/>
-      <c r="D28" s="52"/>
-      <c r="E28" s="53"/>
-      <c r="F28" s="54"/>
-      <c r="G28" s="55"/>
-      <c r="H28" s="55"/>
-      <c r="I28" s="56"/>
-      <c r="J28" s="51"/>
-      <c r="K28" s="52"/>
-      <c r="L28" s="52"/>
-      <c r="M28" s="52"/>
-      <c r="N28" s="52"/>
-      <c r="O28" s="52"/>
-      <c r="P28" s="52"/>
-      <c r="Q28" s="52"/>
-      <c r="R28" s="52"/>
-      <c r="S28" s="52"/>
-      <c r="T28" s="52"/>
-      <c r="U28" s="52"/>
-      <c r="V28" s="52"/>
-      <c r="W28" s="52"/>
-      <c r="X28" s="52"/>
-      <c r="Y28" s="52"/>
-      <c r="Z28" s="52"/>
-      <c r="AA28" s="52"/>
-      <c r="AB28" s="53"/>
-      <c r="AC28" s="51"/>
-      <c r="AD28" s="52"/>
-      <c r="AE28" s="53"/>
+      <c r="B28" s="85"/>
+      <c r="C28" s="86"/>
+      <c r="D28" s="86"/>
+      <c r="E28" s="87"/>
+      <c r="F28" s="102"/>
+      <c r="G28" s="103"/>
+      <c r="H28" s="103"/>
+      <c r="I28" s="104"/>
+      <c r="J28" s="85"/>
+      <c r="K28" s="86"/>
+      <c r="L28" s="86"/>
+      <c r="M28" s="86"/>
+      <c r="N28" s="86"/>
+      <c r="O28" s="86"/>
+      <c r="P28" s="86"/>
+      <c r="Q28" s="86"/>
+      <c r="R28" s="86"/>
+      <c r="S28" s="86"/>
+      <c r="T28" s="86"/>
+      <c r="U28" s="86"/>
+      <c r="V28" s="86"/>
+      <c r="W28" s="86"/>
+      <c r="X28" s="86"/>
+      <c r="Y28" s="86"/>
+      <c r="Z28" s="86"/>
+      <c r="AA28" s="86"/>
+      <c r="AB28" s="87"/>
+      <c r="AC28" s="85"/>
+      <c r="AD28" s="86"/>
+      <c r="AE28" s="87"/>
       <c r="AF28" s="13"/>
     </row>
     <row r="29" spans="1:32" ht="12.75" customHeight="1">
       <c r="A29" s="12"/>
-      <c r="B29" s="51"/>
-      <c r="C29" s="52"/>
-      <c r="D29" s="52"/>
-      <c r="E29" s="53"/>
-      <c r="F29" s="54"/>
-      <c r="G29" s="55"/>
-      <c r="H29" s="55"/>
-      <c r="I29" s="56"/>
-      <c r="J29" s="51"/>
-      <c r="K29" s="52"/>
-      <c r="L29" s="52"/>
-      <c r="M29" s="52"/>
-      <c r="N29" s="52"/>
-      <c r="O29" s="52"/>
-      <c r="P29" s="52"/>
-      <c r="Q29" s="52"/>
-      <c r="R29" s="52"/>
-      <c r="S29" s="52"/>
-      <c r="T29" s="52"/>
-      <c r="U29" s="52"/>
-      <c r="V29" s="52"/>
-      <c r="W29" s="52"/>
-      <c r="X29" s="52"/>
-      <c r="Y29" s="52"/>
-      <c r="Z29" s="52"/>
-      <c r="AA29" s="52"/>
-      <c r="AB29" s="53"/>
-      <c r="AC29" s="51"/>
-      <c r="AD29" s="52"/>
-      <c r="AE29" s="53"/>
+      <c r="B29" s="85"/>
+      <c r="C29" s="86"/>
+      <c r="D29" s="86"/>
+      <c r="E29" s="87"/>
+      <c r="F29" s="102"/>
+      <c r="G29" s="103"/>
+      <c r="H29" s="103"/>
+      <c r="I29" s="104"/>
+      <c r="J29" s="85"/>
+      <c r="K29" s="86"/>
+      <c r="L29" s="86"/>
+      <c r="M29" s="86"/>
+      <c r="N29" s="86"/>
+      <c r="O29" s="86"/>
+      <c r="P29" s="86"/>
+      <c r="Q29" s="86"/>
+      <c r="R29" s="86"/>
+      <c r="S29" s="86"/>
+      <c r="T29" s="86"/>
+      <c r="U29" s="86"/>
+      <c r="V29" s="86"/>
+      <c r="W29" s="86"/>
+      <c r="X29" s="86"/>
+      <c r="Y29" s="86"/>
+      <c r="Z29" s="86"/>
+      <c r="AA29" s="86"/>
+      <c r="AB29" s="87"/>
+      <c r="AC29" s="85"/>
+      <c r="AD29" s="86"/>
+      <c r="AE29" s="87"/>
       <c r="AF29" s="13"/>
     </row>
     <row r="30" spans="1:32" ht="12.75" customHeight="1">
       <c r="A30" s="12"/>
-      <c r="B30" s="51"/>
-      <c r="C30" s="52"/>
-      <c r="D30" s="52"/>
-      <c r="E30" s="53"/>
-      <c r="F30" s="54"/>
-      <c r="G30" s="55"/>
-      <c r="H30" s="55"/>
-      <c r="I30" s="56"/>
-      <c r="J30" s="51"/>
-      <c r="K30" s="52"/>
-      <c r="L30" s="52"/>
-      <c r="M30" s="52"/>
-      <c r="N30" s="52"/>
-      <c r="O30" s="52"/>
-      <c r="P30" s="52"/>
-      <c r="Q30" s="52"/>
-      <c r="R30" s="52"/>
-      <c r="S30" s="52"/>
-      <c r="T30" s="52"/>
-      <c r="U30" s="52"/>
-      <c r="V30" s="52"/>
-      <c r="W30" s="52"/>
-      <c r="X30" s="52"/>
-      <c r="Y30" s="52"/>
-      <c r="Z30" s="52"/>
-      <c r="AA30" s="52"/>
-      <c r="AB30" s="53"/>
-      <c r="AC30" s="51"/>
-      <c r="AD30" s="52"/>
-      <c r="AE30" s="53"/>
+      <c r="B30" s="85"/>
+      <c r="C30" s="86"/>
+      <c r="D30" s="86"/>
+      <c r="E30" s="87"/>
+      <c r="F30" s="102"/>
+      <c r="G30" s="103"/>
+      <c r="H30" s="103"/>
+      <c r="I30" s="104"/>
+      <c r="J30" s="85"/>
+      <c r="K30" s="86"/>
+      <c r="L30" s="86"/>
+      <c r="M30" s="86"/>
+      <c r="N30" s="86"/>
+      <c r="O30" s="86"/>
+      <c r="P30" s="86"/>
+      <c r="Q30" s="86"/>
+      <c r="R30" s="86"/>
+      <c r="S30" s="86"/>
+      <c r="T30" s="86"/>
+      <c r="U30" s="86"/>
+      <c r="V30" s="86"/>
+      <c r="W30" s="86"/>
+      <c r="X30" s="86"/>
+      <c r="Y30" s="86"/>
+      <c r="Z30" s="86"/>
+      <c r="AA30" s="86"/>
+      <c r="AB30" s="87"/>
+      <c r="AC30" s="85"/>
+      <c r="AD30" s="86"/>
+      <c r="AE30" s="87"/>
       <c r="AF30" s="13"/>
     </row>
     <row r="31" spans="1:32" ht="12.75" customHeight="1">
       <c r="A31" s="12"/>
-      <c r="B31" s="51"/>
-      <c r="C31" s="52"/>
-      <c r="D31" s="52"/>
-      <c r="E31" s="53"/>
-      <c r="F31" s="54"/>
-      <c r="G31" s="55"/>
-      <c r="H31" s="55"/>
-      <c r="I31" s="56"/>
-      <c r="J31" s="51"/>
-      <c r="K31" s="52"/>
-      <c r="L31" s="52"/>
-      <c r="M31" s="52"/>
-      <c r="N31" s="52"/>
-      <c r="O31" s="52"/>
-      <c r="P31" s="52"/>
-      <c r="Q31" s="52"/>
-      <c r="R31" s="52"/>
-      <c r="S31" s="52"/>
-      <c r="T31" s="52"/>
-      <c r="U31" s="52"/>
-      <c r="V31" s="52"/>
-      <c r="W31" s="52"/>
-      <c r="X31" s="52"/>
-      <c r="Y31" s="52"/>
-      <c r="Z31" s="52"/>
-      <c r="AA31" s="52"/>
-      <c r="AB31" s="53"/>
-      <c r="AC31" s="51"/>
-      <c r="AD31" s="52"/>
-      <c r="AE31" s="53"/>
+      <c r="B31" s="85"/>
+      <c r="C31" s="86"/>
+      <c r="D31" s="86"/>
+      <c r="E31" s="87"/>
+      <c r="F31" s="102"/>
+      <c r="G31" s="103"/>
+      <c r="H31" s="103"/>
+      <c r="I31" s="104"/>
+      <c r="J31" s="85"/>
+      <c r="K31" s="86"/>
+      <c r="L31" s="86"/>
+      <c r="M31" s="86"/>
+      <c r="N31" s="86"/>
+      <c r="O31" s="86"/>
+      <c r="P31" s="86"/>
+      <c r="Q31" s="86"/>
+      <c r="R31" s="86"/>
+      <c r="S31" s="86"/>
+      <c r="T31" s="86"/>
+      <c r="U31" s="86"/>
+      <c r="V31" s="86"/>
+      <c r="W31" s="86"/>
+      <c r="X31" s="86"/>
+      <c r="Y31" s="86"/>
+      <c r="Z31" s="86"/>
+      <c r="AA31" s="86"/>
+      <c r="AB31" s="87"/>
+      <c r="AC31" s="85"/>
+      <c r="AD31" s="86"/>
+      <c r="AE31" s="87"/>
       <c r="AF31" s="13"/>
     </row>
     <row r="32" spans="1:32" ht="12.75" customHeight="1">
       <c r="A32" s="12"/>
-      <c r="B32" s="51"/>
-      <c r="C32" s="52"/>
-      <c r="D32" s="52"/>
-      <c r="E32" s="53"/>
-      <c r="F32" s="54"/>
-      <c r="G32" s="55"/>
-      <c r="H32" s="55"/>
-      <c r="I32" s="56"/>
-      <c r="J32" s="51"/>
-      <c r="K32" s="52"/>
-      <c r="L32" s="52"/>
-      <c r="M32" s="52"/>
-      <c r="N32" s="52"/>
-      <c r="O32" s="52"/>
-      <c r="P32" s="52"/>
-      <c r="Q32" s="52"/>
-      <c r="R32" s="52"/>
-      <c r="S32" s="52"/>
-      <c r="T32" s="52"/>
-      <c r="U32" s="52"/>
-      <c r="V32" s="52"/>
-      <c r="W32" s="52"/>
-      <c r="X32" s="52"/>
-      <c r="Y32" s="52"/>
-      <c r="Z32" s="52"/>
-      <c r="AA32" s="52"/>
-      <c r="AB32" s="53"/>
-      <c r="AC32" s="51"/>
-      <c r="AD32" s="52"/>
-      <c r="AE32" s="53"/>
+      <c r="B32" s="85"/>
+      <c r="C32" s="86"/>
+      <c r="D32" s="86"/>
+      <c r="E32" s="87"/>
+      <c r="F32" s="102"/>
+      <c r="G32" s="103"/>
+      <c r="H32" s="103"/>
+      <c r="I32" s="104"/>
+      <c r="J32" s="85"/>
+      <c r="K32" s="86"/>
+      <c r="L32" s="86"/>
+      <c r="M32" s="86"/>
+      <c r="N32" s="86"/>
+      <c r="O32" s="86"/>
+      <c r="P32" s="86"/>
+      <c r="Q32" s="86"/>
+      <c r="R32" s="86"/>
+      <c r="S32" s="86"/>
+      <c r="T32" s="86"/>
+      <c r="U32" s="86"/>
+      <c r="V32" s="86"/>
+      <c r="W32" s="86"/>
+      <c r="X32" s="86"/>
+      <c r="Y32" s="86"/>
+      <c r="Z32" s="86"/>
+      <c r="AA32" s="86"/>
+      <c r="AB32" s="87"/>
+      <c r="AC32" s="85"/>
+      <c r="AD32" s="86"/>
+      <c r="AE32" s="87"/>
       <c r="AF32" s="13"/>
     </row>
     <row r="33" spans="1:32" ht="12.75" customHeight="1">
       <c r="A33" s="12"/>
-      <c r="B33" s="51"/>
-      <c r="C33" s="52"/>
-      <c r="D33" s="52"/>
-      <c r="E33" s="53"/>
-      <c r="F33" s="54"/>
-      <c r="G33" s="55"/>
-      <c r="H33" s="55"/>
-      <c r="I33" s="56"/>
-      <c r="J33" s="51"/>
-      <c r="K33" s="52"/>
-      <c r="L33" s="52"/>
-      <c r="M33" s="52"/>
-      <c r="N33" s="52"/>
-      <c r="O33" s="52"/>
-      <c r="P33" s="52"/>
-      <c r="Q33" s="52"/>
-      <c r="R33" s="52"/>
-      <c r="S33" s="52"/>
-      <c r="T33" s="52"/>
-      <c r="U33" s="52"/>
-      <c r="V33" s="52"/>
-      <c r="W33" s="52"/>
-      <c r="X33" s="52"/>
-      <c r="Y33" s="52"/>
-      <c r="Z33" s="52"/>
-      <c r="AA33" s="52"/>
-      <c r="AB33" s="53"/>
-      <c r="AC33" s="51"/>
-      <c r="AD33" s="52"/>
-      <c r="AE33" s="53"/>
+      <c r="B33" s="85"/>
+      <c r="C33" s="86"/>
+      <c r="D33" s="86"/>
+      <c r="E33" s="87"/>
+      <c r="F33" s="102"/>
+      <c r="G33" s="103"/>
+      <c r="H33" s="103"/>
+      <c r="I33" s="104"/>
+      <c r="J33" s="85"/>
+      <c r="K33" s="86"/>
+      <c r="L33" s="86"/>
+      <c r="M33" s="86"/>
+      <c r="N33" s="86"/>
+      <c r="O33" s="86"/>
+      <c r="P33" s="86"/>
+      <c r="Q33" s="86"/>
+      <c r="R33" s="86"/>
+      <c r="S33" s="86"/>
+      <c r="T33" s="86"/>
+      <c r="U33" s="86"/>
+      <c r="V33" s="86"/>
+      <c r="W33" s="86"/>
+      <c r="X33" s="86"/>
+      <c r="Y33" s="86"/>
+      <c r="Z33" s="86"/>
+      <c r="AA33" s="86"/>
+      <c r="AB33" s="87"/>
+      <c r="AC33" s="85"/>
+      <c r="AD33" s="86"/>
+      <c r="AE33" s="87"/>
       <c r="AF33" s="13"/>
     </row>
     <row r="34" spans="1:32" ht="12.75" customHeight="1">
       <c r="A34" s="12"/>
-      <c r="B34" s="51"/>
-      <c r="C34" s="52"/>
-      <c r="D34" s="52"/>
-      <c r="E34" s="53"/>
-      <c r="F34" s="54"/>
-      <c r="G34" s="55"/>
-      <c r="H34" s="55"/>
-      <c r="I34" s="56"/>
-      <c r="J34" s="51"/>
-      <c r="K34" s="52"/>
-      <c r="L34" s="52"/>
-      <c r="M34" s="52"/>
-      <c r="N34" s="52"/>
-      <c r="O34" s="52"/>
-      <c r="P34" s="52"/>
-      <c r="Q34" s="52"/>
-      <c r="R34" s="52"/>
-      <c r="S34" s="52"/>
-      <c r="T34" s="52"/>
-      <c r="U34" s="52"/>
-      <c r="V34" s="52"/>
-      <c r="W34" s="52"/>
-      <c r="X34" s="52"/>
-      <c r="Y34" s="52"/>
-      <c r="Z34" s="52"/>
-      <c r="AA34" s="52"/>
-      <c r="AB34" s="53"/>
-      <c r="AC34" s="51"/>
-      <c r="AD34" s="52"/>
-      <c r="AE34" s="53"/>
+      <c r="B34" s="85"/>
+      <c r="C34" s="86"/>
+      <c r="D34" s="86"/>
+      <c r="E34" s="87"/>
+      <c r="F34" s="102"/>
+      <c r="G34" s="103"/>
+      <c r="H34" s="103"/>
+      <c r="I34" s="104"/>
+      <c r="J34" s="85"/>
+      <c r="K34" s="86"/>
+      <c r="L34" s="86"/>
+      <c r="M34" s="86"/>
+      <c r="N34" s="86"/>
+      <c r="O34" s="86"/>
+      <c r="P34" s="86"/>
+      <c r="Q34" s="86"/>
+      <c r="R34" s="86"/>
+      <c r="S34" s="86"/>
+      <c r="T34" s="86"/>
+      <c r="U34" s="86"/>
+      <c r="V34" s="86"/>
+      <c r="W34" s="86"/>
+      <c r="X34" s="86"/>
+      <c r="Y34" s="86"/>
+      <c r="Z34" s="86"/>
+      <c r="AA34" s="86"/>
+      <c r="AB34" s="87"/>
+      <c r="AC34" s="85"/>
+      <c r="AD34" s="86"/>
+      <c r="AE34" s="87"/>
       <c r="AF34" s="13"/>
     </row>
     <row r="35" spans="1:32" ht="12.75" customHeight="1">
       <c r="A35" s="12"/>
-      <c r="B35" s="51"/>
-      <c r="C35" s="52"/>
-      <c r="D35" s="52"/>
-      <c r="E35" s="53"/>
-      <c r="F35" s="54"/>
-      <c r="G35" s="55"/>
-      <c r="H35" s="55"/>
-      <c r="I35" s="56"/>
-      <c r="J35" s="51"/>
-      <c r="K35" s="52"/>
-      <c r="L35" s="52"/>
-      <c r="M35" s="52"/>
-      <c r="N35" s="52"/>
-      <c r="O35" s="52"/>
-      <c r="P35" s="52"/>
-      <c r="Q35" s="52"/>
-      <c r="R35" s="52"/>
-      <c r="S35" s="52"/>
-      <c r="T35" s="52"/>
-      <c r="U35" s="52"/>
-      <c r="V35" s="52"/>
-      <c r="W35" s="52"/>
-      <c r="X35" s="52"/>
-      <c r="Y35" s="52"/>
-      <c r="Z35" s="52"/>
-      <c r="AA35" s="52"/>
-      <c r="AB35" s="53"/>
-      <c r="AC35" s="51"/>
-      <c r="AD35" s="52"/>
-      <c r="AE35" s="53"/>
+      <c r="B35" s="85"/>
+      <c r="C35" s="86"/>
+      <c r="D35" s="86"/>
+      <c r="E35" s="87"/>
+      <c r="F35" s="102"/>
+      <c r="G35" s="103"/>
+      <c r="H35" s="103"/>
+      <c r="I35" s="104"/>
+      <c r="J35" s="85"/>
+      <c r="K35" s="86"/>
+      <c r="L35" s="86"/>
+      <c r="M35" s="86"/>
+      <c r="N35" s="86"/>
+      <c r="O35" s="86"/>
+      <c r="P35" s="86"/>
+      <c r="Q35" s="86"/>
+      <c r="R35" s="86"/>
+      <c r="S35" s="86"/>
+      <c r="T35" s="86"/>
+      <c r="U35" s="86"/>
+      <c r="V35" s="86"/>
+      <c r="W35" s="86"/>
+      <c r="X35" s="86"/>
+      <c r="Y35" s="86"/>
+      <c r="Z35" s="86"/>
+      <c r="AA35" s="86"/>
+      <c r="AB35" s="87"/>
+      <c r="AC35" s="85"/>
+      <c r="AD35" s="86"/>
+      <c r="AE35" s="87"/>
       <c r="AF35" s="13"/>
     </row>
     <row r="36" spans="1:32" ht="12.75" customHeight="1">
       <c r="A36" s="12"/>
-      <c r="B36" s="51"/>
-      <c r="C36" s="52"/>
-      <c r="D36" s="52"/>
-      <c r="E36" s="53"/>
-      <c r="F36" s="54"/>
-      <c r="G36" s="55"/>
-      <c r="H36" s="55"/>
-      <c r="I36" s="56"/>
-      <c r="J36" s="51"/>
-      <c r="K36" s="52"/>
-      <c r="L36" s="52"/>
-      <c r="M36" s="52"/>
-      <c r="N36" s="52"/>
-      <c r="O36" s="52"/>
-      <c r="P36" s="52"/>
-      <c r="Q36" s="52"/>
-      <c r="R36" s="52"/>
-      <c r="S36" s="52"/>
-      <c r="T36" s="52"/>
-      <c r="U36" s="52"/>
-      <c r="V36" s="52"/>
-      <c r="W36" s="52"/>
-      <c r="X36" s="52"/>
-      <c r="Y36" s="52"/>
-      <c r="Z36" s="52"/>
-      <c r="AA36" s="52"/>
-      <c r="AB36" s="53"/>
-      <c r="AC36" s="51"/>
-      <c r="AD36" s="52"/>
-      <c r="AE36" s="53"/>
+      <c r="B36" s="85"/>
+      <c r="C36" s="86"/>
+      <c r="D36" s="86"/>
+      <c r="E36" s="87"/>
+      <c r="F36" s="102"/>
+      <c r="G36" s="103"/>
+      <c r="H36" s="103"/>
+      <c r="I36" s="104"/>
+      <c r="J36" s="85"/>
+      <c r="K36" s="86"/>
+      <c r="L36" s="86"/>
+      <c r="M36" s="86"/>
+      <c r="N36" s="86"/>
+      <c r="O36" s="86"/>
+      <c r="P36" s="86"/>
+      <c r="Q36" s="86"/>
+      <c r="R36" s="86"/>
+      <c r="S36" s="86"/>
+      <c r="T36" s="86"/>
+      <c r="U36" s="86"/>
+      <c r="V36" s="86"/>
+      <c r="W36" s="86"/>
+      <c r="X36" s="86"/>
+      <c r="Y36" s="86"/>
+      <c r="Z36" s="86"/>
+      <c r="AA36" s="86"/>
+      <c r="AB36" s="87"/>
+      <c r="AC36" s="85"/>
+      <c r="AD36" s="86"/>
+      <c r="AE36" s="87"/>
       <c r="AF36" s="13"/>
     </row>
     <row r="37" spans="1:32" ht="12.75" customHeight="1">
       <c r="A37" s="12"/>
-      <c r="B37" s="51"/>
-      <c r="C37" s="52"/>
-      <c r="D37" s="52"/>
-      <c r="E37" s="53"/>
-      <c r="F37" s="54"/>
-      <c r="G37" s="55"/>
-      <c r="H37" s="55"/>
-      <c r="I37" s="56"/>
-      <c r="J37" s="51"/>
-      <c r="K37" s="52"/>
-      <c r="L37" s="52"/>
-      <c r="M37" s="52"/>
-      <c r="N37" s="52"/>
-      <c r="O37" s="52"/>
-      <c r="P37" s="52"/>
-      <c r="Q37" s="52"/>
-      <c r="R37" s="52"/>
-      <c r="S37" s="52"/>
-      <c r="T37" s="52"/>
-      <c r="U37" s="52"/>
-      <c r="V37" s="52"/>
-      <c r="W37" s="52"/>
-      <c r="X37" s="52"/>
-      <c r="Y37" s="52"/>
-      <c r="Z37" s="52"/>
-      <c r="AA37" s="52"/>
-      <c r="AB37" s="53"/>
-      <c r="AC37" s="51"/>
-      <c r="AD37" s="52"/>
-      <c r="AE37" s="53"/>
+      <c r="B37" s="85"/>
+      <c r="C37" s="86"/>
+      <c r="D37" s="86"/>
+      <c r="E37" s="87"/>
+      <c r="F37" s="102"/>
+      <c r="G37" s="103"/>
+      <c r="H37" s="103"/>
+      <c r="I37" s="104"/>
+      <c r="J37" s="85"/>
+      <c r="K37" s="86"/>
+      <c r="L37" s="86"/>
+      <c r="M37" s="86"/>
+      <c r="N37" s="86"/>
+      <c r="O37" s="86"/>
+      <c r="P37" s="86"/>
+      <c r="Q37" s="86"/>
+      <c r="R37" s="86"/>
+      <c r="S37" s="86"/>
+      <c r="T37" s="86"/>
+      <c r="U37" s="86"/>
+      <c r="V37" s="86"/>
+      <c r="W37" s="86"/>
+      <c r="X37" s="86"/>
+      <c r="Y37" s="86"/>
+      <c r="Z37" s="86"/>
+      <c r="AA37" s="86"/>
+      <c r="AB37" s="87"/>
+      <c r="AC37" s="85"/>
+      <c r="AD37" s="86"/>
+      <c r="AE37" s="87"/>
       <c r="AF37" s="13"/>
     </row>
     <row r="38" spans="1:32" ht="12.75" customHeight="1">
       <c r="A38" s="12"/>
-      <c r="B38" s="51"/>
-      <c r="C38" s="52"/>
-      <c r="D38" s="52"/>
-      <c r="E38" s="53"/>
-      <c r="F38" s="54"/>
-      <c r="G38" s="55"/>
-      <c r="H38" s="55"/>
-      <c r="I38" s="56"/>
-      <c r="J38" s="51"/>
-      <c r="K38" s="52"/>
-      <c r="L38" s="52"/>
-      <c r="M38" s="52"/>
-      <c r="N38" s="52"/>
-      <c r="O38" s="52"/>
-      <c r="P38" s="52"/>
-      <c r="Q38" s="52"/>
-      <c r="R38" s="52"/>
-      <c r="S38" s="52"/>
-      <c r="T38" s="52"/>
-      <c r="U38" s="52"/>
-      <c r="V38" s="52"/>
-      <c r="W38" s="52"/>
-      <c r="X38" s="52"/>
-      <c r="Y38" s="52"/>
-      <c r="Z38" s="52"/>
-      <c r="AA38" s="52"/>
-      <c r="AB38" s="53"/>
-      <c r="AC38" s="51"/>
-      <c r="AD38" s="52"/>
-      <c r="AE38" s="53"/>
+      <c r="B38" s="85"/>
+      <c r="C38" s="86"/>
+      <c r="D38" s="86"/>
+      <c r="E38" s="87"/>
+      <c r="F38" s="102"/>
+      <c r="G38" s="103"/>
+      <c r="H38" s="103"/>
+      <c r="I38" s="104"/>
+      <c r="J38" s="85"/>
+      <c r="K38" s="86"/>
+      <c r="L38" s="86"/>
+      <c r="M38" s="86"/>
+      <c r="N38" s="86"/>
+      <c r="O38" s="86"/>
+      <c r="P38" s="86"/>
+      <c r="Q38" s="86"/>
+      <c r="R38" s="86"/>
+      <c r="S38" s="86"/>
+      <c r="T38" s="86"/>
+      <c r="U38" s="86"/>
+      <c r="V38" s="86"/>
+      <c r="W38" s="86"/>
+      <c r="X38" s="86"/>
+      <c r="Y38" s="86"/>
+      <c r="Z38" s="86"/>
+      <c r="AA38" s="86"/>
+      <c r="AB38" s="87"/>
+      <c r="AC38" s="85"/>
+      <c r="AD38" s="86"/>
+      <c r="AE38" s="87"/>
       <c r="AF38" s="13"/>
     </row>
     <row r="39" spans="1:32" ht="12.75" customHeight="1">
       <c r="A39" s="12"/>
-      <c r="B39" s="51"/>
-      <c r="C39" s="52"/>
-      <c r="D39" s="52"/>
-      <c r="E39" s="53"/>
-      <c r="F39" s="54"/>
-      <c r="G39" s="55"/>
-      <c r="H39" s="55"/>
-      <c r="I39" s="56"/>
-      <c r="J39" s="51"/>
-      <c r="K39" s="52"/>
-      <c r="L39" s="52"/>
-      <c r="M39" s="52"/>
-      <c r="N39" s="52"/>
-      <c r="O39" s="52"/>
-      <c r="P39" s="52"/>
-      <c r="Q39" s="52"/>
-      <c r="R39" s="52"/>
-      <c r="S39" s="52"/>
-      <c r="T39" s="52"/>
-      <c r="U39" s="52"/>
-      <c r="V39" s="52"/>
-      <c r="W39" s="52"/>
-      <c r="X39" s="52"/>
-      <c r="Y39" s="52"/>
-      <c r="Z39" s="52"/>
-      <c r="AA39" s="52"/>
-      <c r="AB39" s="53"/>
-      <c r="AC39" s="51"/>
-      <c r="AD39" s="52"/>
-      <c r="AE39" s="53"/>
+      <c r="B39" s="85"/>
+      <c r="C39" s="86"/>
+      <c r="D39" s="86"/>
+      <c r="E39" s="87"/>
+      <c r="F39" s="102"/>
+      <c r="G39" s="103"/>
+      <c r="H39" s="103"/>
+      <c r="I39" s="104"/>
+      <c r="J39" s="85"/>
+      <c r="K39" s="86"/>
+      <c r="L39" s="86"/>
+      <c r="M39" s="86"/>
+      <c r="N39" s="86"/>
+      <c r="O39" s="86"/>
+      <c r="P39" s="86"/>
+      <c r="Q39" s="86"/>
+      <c r="R39" s="86"/>
+      <c r="S39" s="86"/>
+      <c r="T39" s="86"/>
+      <c r="U39" s="86"/>
+      <c r="V39" s="86"/>
+      <c r="W39" s="86"/>
+      <c r="X39" s="86"/>
+      <c r="Y39" s="86"/>
+      <c r="Z39" s="86"/>
+      <c r="AA39" s="86"/>
+      <c r="AB39" s="87"/>
+      <c r="AC39" s="85"/>
+      <c r="AD39" s="86"/>
+      <c r="AE39" s="87"/>
       <c r="AF39" s="13"/>
     </row>
     <row r="40" spans="1:32" ht="12.75" customHeight="1">
       <c r="A40" s="12"/>
-      <c r="B40" s="51"/>
-      <c r="C40" s="52"/>
-      <c r="D40" s="52"/>
-      <c r="E40" s="53"/>
-      <c r="F40" s="54"/>
-      <c r="G40" s="55"/>
-      <c r="H40" s="55"/>
-      <c r="I40" s="56"/>
-      <c r="J40" s="51"/>
-      <c r="K40" s="52"/>
-      <c r="L40" s="52"/>
-      <c r="M40" s="52"/>
-      <c r="N40" s="52"/>
-      <c r="O40" s="52"/>
-      <c r="P40" s="52"/>
-      <c r="Q40" s="52"/>
-      <c r="R40" s="52"/>
-      <c r="S40" s="52"/>
-      <c r="T40" s="52"/>
-      <c r="U40" s="52"/>
-      <c r="V40" s="52"/>
-      <c r="W40" s="52"/>
-      <c r="X40" s="52"/>
-      <c r="Y40" s="52"/>
-      <c r="Z40" s="52"/>
-      <c r="AA40" s="52"/>
-      <c r="AB40" s="53"/>
-      <c r="AC40" s="51"/>
-      <c r="AD40" s="52"/>
-      <c r="AE40" s="53"/>
+      <c r="B40" s="85"/>
+      <c r="C40" s="86"/>
+      <c r="D40" s="86"/>
+      <c r="E40" s="87"/>
+      <c r="F40" s="102"/>
+      <c r="G40" s="103"/>
+      <c r="H40" s="103"/>
+      <c r="I40" s="104"/>
+      <c r="J40" s="85"/>
+      <c r="K40" s="86"/>
+      <c r="L40" s="86"/>
+      <c r="M40" s="86"/>
+      <c r="N40" s="86"/>
+      <c r="O40" s="86"/>
+      <c r="P40" s="86"/>
+      <c r="Q40" s="86"/>
+      <c r="R40" s="86"/>
+      <c r="S40" s="86"/>
+      <c r="T40" s="86"/>
+      <c r="U40" s="86"/>
+      <c r="V40" s="86"/>
+      <c r="W40" s="86"/>
+      <c r="X40" s="86"/>
+      <c r="Y40" s="86"/>
+      <c r="Z40" s="86"/>
+      <c r="AA40" s="86"/>
+      <c r="AB40" s="87"/>
+      <c r="AC40" s="85"/>
+      <c r="AD40" s="86"/>
+      <c r="AE40" s="87"/>
       <c r="AF40" s="13"/>
     </row>
     <row r="41" spans="1:32" ht="12.75" customHeight="1">
@@ -6122,6 +6072,74 @@
     </row>
   </sheetData>
   <mergeCells count="83">
+    <mergeCell ref="B40:E40"/>
+    <mergeCell ref="F40:I40"/>
+    <mergeCell ref="J40:AB40"/>
+    <mergeCell ref="AC40:AE40"/>
+    <mergeCell ref="B38:E38"/>
+    <mergeCell ref="F38:I38"/>
+    <mergeCell ref="J38:AB38"/>
+    <mergeCell ref="AC38:AE38"/>
+    <mergeCell ref="B39:E39"/>
+    <mergeCell ref="F39:I39"/>
+    <mergeCell ref="J39:AB39"/>
+    <mergeCell ref="AC39:AE39"/>
+    <mergeCell ref="B36:E36"/>
+    <mergeCell ref="F36:I36"/>
+    <mergeCell ref="J36:AB36"/>
+    <mergeCell ref="AC36:AE36"/>
+    <mergeCell ref="B37:E37"/>
+    <mergeCell ref="F37:I37"/>
+    <mergeCell ref="J37:AB37"/>
+    <mergeCell ref="AC37:AE37"/>
+    <mergeCell ref="B34:E34"/>
+    <mergeCell ref="F34:I34"/>
+    <mergeCell ref="J34:AB34"/>
+    <mergeCell ref="AC34:AE34"/>
+    <mergeCell ref="B35:E35"/>
+    <mergeCell ref="F35:I35"/>
+    <mergeCell ref="J35:AB35"/>
+    <mergeCell ref="AC35:AE35"/>
+    <mergeCell ref="B32:E32"/>
+    <mergeCell ref="F32:I32"/>
+    <mergeCell ref="J32:AB32"/>
+    <mergeCell ref="AC32:AE32"/>
+    <mergeCell ref="B33:E33"/>
+    <mergeCell ref="F33:I33"/>
+    <mergeCell ref="J33:AB33"/>
+    <mergeCell ref="AC33:AE33"/>
+    <mergeCell ref="B30:E30"/>
+    <mergeCell ref="F30:I30"/>
+    <mergeCell ref="J30:AB30"/>
+    <mergeCell ref="AC30:AE30"/>
+    <mergeCell ref="B31:E31"/>
+    <mergeCell ref="F31:I31"/>
+    <mergeCell ref="J31:AB31"/>
+    <mergeCell ref="AC31:AE31"/>
+    <mergeCell ref="B28:E28"/>
+    <mergeCell ref="F28:I28"/>
+    <mergeCell ref="J28:AB28"/>
+    <mergeCell ref="AC28:AE28"/>
+    <mergeCell ref="B29:E29"/>
+    <mergeCell ref="F29:I29"/>
+    <mergeCell ref="J29:AB29"/>
+    <mergeCell ref="AC29:AE29"/>
+    <mergeCell ref="B26:E26"/>
+    <mergeCell ref="F26:I26"/>
+    <mergeCell ref="J26:AB26"/>
+    <mergeCell ref="AC26:AE26"/>
+    <mergeCell ref="B27:E27"/>
+    <mergeCell ref="F27:I27"/>
+    <mergeCell ref="J27:AB27"/>
+    <mergeCell ref="AC27:AE27"/>
+    <mergeCell ref="B24:E24"/>
+    <mergeCell ref="F24:I24"/>
+    <mergeCell ref="J24:AB24"/>
+    <mergeCell ref="AC24:AE24"/>
+    <mergeCell ref="B25:E25"/>
+    <mergeCell ref="F25:I25"/>
+    <mergeCell ref="J25:AB25"/>
+    <mergeCell ref="AC25:AE25"/>
     <mergeCell ref="B23:E23"/>
     <mergeCell ref="F23:I23"/>
     <mergeCell ref="J23:AB23"/>
@@ -6137,74 +6155,6 @@
     <mergeCell ref="M12:AA13"/>
     <mergeCell ref="AB12:AC13"/>
     <mergeCell ref="AD12:AE13"/>
-    <mergeCell ref="B24:E24"/>
-    <mergeCell ref="F24:I24"/>
-    <mergeCell ref="J24:AB24"/>
-    <mergeCell ref="AC24:AE24"/>
-    <mergeCell ref="B25:E25"/>
-    <mergeCell ref="F25:I25"/>
-    <mergeCell ref="J25:AB25"/>
-    <mergeCell ref="AC25:AE25"/>
-    <mergeCell ref="B26:E26"/>
-    <mergeCell ref="F26:I26"/>
-    <mergeCell ref="J26:AB26"/>
-    <mergeCell ref="AC26:AE26"/>
-    <mergeCell ref="B27:E27"/>
-    <mergeCell ref="F27:I27"/>
-    <mergeCell ref="J27:AB27"/>
-    <mergeCell ref="AC27:AE27"/>
-    <mergeCell ref="B28:E28"/>
-    <mergeCell ref="F28:I28"/>
-    <mergeCell ref="J28:AB28"/>
-    <mergeCell ref="AC28:AE28"/>
-    <mergeCell ref="B29:E29"/>
-    <mergeCell ref="F29:I29"/>
-    <mergeCell ref="J29:AB29"/>
-    <mergeCell ref="AC29:AE29"/>
-    <mergeCell ref="B30:E30"/>
-    <mergeCell ref="F30:I30"/>
-    <mergeCell ref="J30:AB30"/>
-    <mergeCell ref="AC30:AE30"/>
-    <mergeCell ref="B31:E31"/>
-    <mergeCell ref="F31:I31"/>
-    <mergeCell ref="J31:AB31"/>
-    <mergeCell ref="AC31:AE31"/>
-    <mergeCell ref="B32:E32"/>
-    <mergeCell ref="F32:I32"/>
-    <mergeCell ref="J32:AB32"/>
-    <mergeCell ref="AC32:AE32"/>
-    <mergeCell ref="B33:E33"/>
-    <mergeCell ref="F33:I33"/>
-    <mergeCell ref="J33:AB33"/>
-    <mergeCell ref="AC33:AE33"/>
-    <mergeCell ref="B34:E34"/>
-    <mergeCell ref="F34:I34"/>
-    <mergeCell ref="J34:AB34"/>
-    <mergeCell ref="AC34:AE34"/>
-    <mergeCell ref="B35:E35"/>
-    <mergeCell ref="F35:I35"/>
-    <mergeCell ref="J35:AB35"/>
-    <mergeCell ref="AC35:AE35"/>
-    <mergeCell ref="B36:E36"/>
-    <mergeCell ref="F36:I36"/>
-    <mergeCell ref="J36:AB36"/>
-    <mergeCell ref="AC36:AE36"/>
-    <mergeCell ref="B37:E37"/>
-    <mergeCell ref="F37:I37"/>
-    <mergeCell ref="J37:AB37"/>
-    <mergeCell ref="AC37:AE37"/>
-    <mergeCell ref="B40:E40"/>
-    <mergeCell ref="F40:I40"/>
-    <mergeCell ref="J40:AB40"/>
-    <mergeCell ref="AC40:AE40"/>
-    <mergeCell ref="B38:E38"/>
-    <mergeCell ref="F38:I38"/>
-    <mergeCell ref="J38:AB38"/>
-    <mergeCell ref="AC38:AE38"/>
-    <mergeCell ref="B39:E39"/>
-    <mergeCell ref="F39:I39"/>
-    <mergeCell ref="J39:AB39"/>
-    <mergeCell ref="AC39:AE39"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <printOptions horizontalCentered="1"/>
@@ -6425,168 +6375,168 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:177" ht="12.75" customHeight="1">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="105" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
-      <c r="G1" s="71"/>
-      <c r="H1" s="71"/>
-      <c r="I1" s="71"/>
-      <c r="J1" s="71"/>
-      <c r="K1" s="71"/>
-      <c r="L1" s="71"/>
-      <c r="M1" s="71"/>
-      <c r="N1" s="71"/>
-      <c r="O1" s="71"/>
-      <c r="P1" s="71"/>
-      <c r="Q1" s="71"/>
-      <c r="R1" s="71"/>
-      <c r="S1" s="71"/>
-      <c r="T1" s="71"/>
-      <c r="U1" s="71"/>
-      <c r="V1" s="71"/>
-      <c r="W1" s="71"/>
-      <c r="X1" s="71"/>
-      <c r="Y1" s="71"/>
-      <c r="Z1" s="71"/>
-      <c r="AA1" s="71"/>
-      <c r="AB1" s="71"/>
-      <c r="AC1" s="71"/>
-      <c r="AD1" s="71"/>
-      <c r="AE1" s="71"/>
-      <c r="AF1" s="71"/>
-      <c r="AG1" s="71"/>
+      <c r="B1" s="105"/>
+      <c r="C1" s="105"/>
+      <c r="D1" s="105"/>
+      <c r="E1" s="105"/>
+      <c r="F1" s="105"/>
+      <c r="G1" s="105"/>
+      <c r="H1" s="105"/>
+      <c r="I1" s="105"/>
+      <c r="J1" s="105"/>
+      <c r="K1" s="105"/>
+      <c r="L1" s="105"/>
+      <c r="M1" s="105"/>
+      <c r="N1" s="105"/>
+      <c r="O1" s="105"/>
+      <c r="P1" s="105"/>
+      <c r="Q1" s="105"/>
+      <c r="R1" s="105"/>
+      <c r="S1" s="105"/>
+      <c r="T1" s="105"/>
+      <c r="U1" s="105"/>
+      <c r="V1" s="105"/>
+      <c r="W1" s="105"/>
+      <c r="X1" s="105"/>
+      <c r="Y1" s="105"/>
+      <c r="Z1" s="105"/>
+      <c r="AA1" s="105"/>
+      <c r="AB1" s="105"/>
+      <c r="AC1" s="105"/>
+      <c r="AD1" s="105"/>
+      <c r="AE1" s="105"/>
+      <c r="AF1" s="105"/>
+      <c r="AG1" s="105"/>
     </row>
     <row r="2" spans="1:177" ht="12">
-      <c r="A2" s="58" t="s">
+      <c r="A2" s="89" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="59"/>
-      <c r="C2" s="59"/>
-      <c r="D2" s="59"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="60"/>
-      <c r="G2" s="58" t="s">
+      <c r="B2" s="90"/>
+      <c r="C2" s="90"/>
+      <c r="D2" s="90"/>
+      <c r="E2" s="90"/>
+      <c r="F2" s="91"/>
+      <c r="G2" s="89" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="59"/>
-      <c r="I2" s="59"/>
-      <c r="J2" s="59"/>
-      <c r="K2" s="59"/>
-      <c r="L2" s="60"/>
-      <c r="M2" s="58" t="s">
+      <c r="H2" s="90"/>
+      <c r="I2" s="90"/>
+      <c r="J2" s="90"/>
+      <c r="K2" s="90"/>
+      <c r="L2" s="91"/>
+      <c r="M2" s="89" t="s">
         <v>3</v>
       </c>
-      <c r="N2" s="59"/>
-      <c r="O2" s="59"/>
-      <c r="P2" s="59"/>
-      <c r="Q2" s="59"/>
-      <c r="R2" s="59"/>
-      <c r="S2" s="59"/>
-      <c r="T2" s="59"/>
-      <c r="U2" s="59"/>
-      <c r="V2" s="59"/>
-      <c r="W2" s="59"/>
-      <c r="X2" s="59"/>
-      <c r="Y2" s="59"/>
-      <c r="Z2" s="59"/>
-      <c r="AA2" s="59"/>
-      <c r="AB2" s="59"/>
-      <c r="AC2" s="60"/>
+      <c r="N2" s="90"/>
+      <c r="O2" s="90"/>
+      <c r="P2" s="90"/>
+      <c r="Q2" s="90"/>
+      <c r="R2" s="90"/>
+      <c r="S2" s="90"/>
+      <c r="T2" s="90"/>
+      <c r="U2" s="90"/>
+      <c r="V2" s="90"/>
+      <c r="W2" s="90"/>
+      <c r="X2" s="90"/>
+      <c r="Y2" s="90"/>
+      <c r="Z2" s="90"/>
+      <c r="AA2" s="90"/>
+      <c r="AB2" s="90"/>
+      <c r="AC2" s="91"/>
       <c r="AD2" s="20" t="s">
         <v>4</v>
       </c>
       <c r="AE2" s="21"/>
-      <c r="AF2" s="58" t="s">
+      <c r="AF2" s="89" t="s">
         <v>5</v>
       </c>
-      <c r="AG2" s="60"/>
+      <c r="AG2" s="91"/>
     </row>
     <row r="3" spans="1:177" ht="12">
-      <c r="A3" s="61" t="s">
+      <c r="A3" s="92" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="62"/>
-      <c r="C3" s="62"/>
-      <c r="D3" s="62"/>
-      <c r="E3" s="62"/>
-      <c r="F3" s="63"/>
-      <c r="G3" s="61" t="s">
+      <c r="B3" s="93"/>
+      <c r="C3" s="93"/>
+      <c r="D3" s="93"/>
+      <c r="E3" s="93"/>
+      <c r="F3" s="94"/>
+      <c r="G3" s="92" t="s">
         <v>17</v>
       </c>
-      <c r="H3" s="62"/>
-      <c r="I3" s="62"/>
-      <c r="J3" s="62"/>
-      <c r="K3" s="62"/>
-      <c r="L3" s="63"/>
-      <c r="M3" s="61" t="str">
+      <c r="H3" s="93"/>
+      <c r="I3" s="93"/>
+      <c r="J3" s="93"/>
+      <c r="K3" s="93"/>
+      <c r="L3" s="94"/>
+      <c r="M3" s="92" t="str">
         <f>表紙!M12</f>
         <v>社員情報登録更新</v>
       </c>
-      <c r="N3" s="62"/>
-      <c r="O3" s="62"/>
-      <c r="P3" s="62"/>
-      <c r="Q3" s="62"/>
-      <c r="R3" s="62"/>
-      <c r="S3" s="62"/>
-      <c r="T3" s="62"/>
-      <c r="U3" s="62"/>
-      <c r="V3" s="62"/>
-      <c r="W3" s="62"/>
-      <c r="X3" s="62"/>
-      <c r="Y3" s="62"/>
-      <c r="Z3" s="62"/>
-      <c r="AA3" s="62"/>
-      <c r="AB3" s="62"/>
-      <c r="AC3" s="63"/>
-      <c r="AD3" s="67" t="s">
+      <c r="N3" s="93"/>
+      <c r="O3" s="93"/>
+      <c r="P3" s="93"/>
+      <c r="Q3" s="93"/>
+      <c r="R3" s="93"/>
+      <c r="S3" s="93"/>
+      <c r="T3" s="93"/>
+      <c r="U3" s="93"/>
+      <c r="V3" s="93"/>
+      <c r="W3" s="93"/>
+      <c r="X3" s="93"/>
+      <c r="Y3" s="93"/>
+      <c r="Z3" s="93"/>
+      <c r="AA3" s="93"/>
+      <c r="AB3" s="93"/>
+      <c r="AC3" s="94"/>
+      <c r="AD3" s="98" t="s">
         <v>128</v>
       </c>
-      <c r="AE3" s="68"/>
-      <c r="AF3" s="61" t="str">
+      <c r="AE3" s="99"/>
+      <c r="AF3" s="92" t="str">
         <f>表紙!AD12</f>
         <v>施</v>
       </c>
-      <c r="AG3" s="63"/>
+      <c r="AG3" s="94"/>
     </row>
     <row r="4" spans="1:177" ht="12">
-      <c r="A4" s="64"/>
-      <c r="B4" s="65"/>
-      <c r="C4" s="65"/>
-      <c r="D4" s="65"/>
-      <c r="E4" s="65"/>
-      <c r="F4" s="66"/>
-      <c r="G4" s="64"/>
-      <c r="H4" s="65"/>
-      <c r="I4" s="65"/>
-      <c r="J4" s="65"/>
-      <c r="K4" s="65"/>
-      <c r="L4" s="66"/>
-      <c r="M4" s="64"/>
-      <c r="N4" s="65"/>
-      <c r="O4" s="65"/>
-      <c r="P4" s="65"/>
-      <c r="Q4" s="65"/>
-      <c r="R4" s="65"/>
-      <c r="S4" s="65"/>
-      <c r="T4" s="65"/>
-      <c r="U4" s="65"/>
-      <c r="V4" s="65"/>
-      <c r="W4" s="65"/>
-      <c r="X4" s="65"/>
-      <c r="Y4" s="65"/>
-      <c r="Z4" s="65"/>
-      <c r="AA4" s="65"/>
-      <c r="AB4" s="65"/>
-      <c r="AC4" s="66"/>
-      <c r="AD4" s="69"/>
-      <c r="AE4" s="70"/>
-      <c r="AF4" s="64"/>
-      <c r="AG4" s="66"/>
+      <c r="A4" s="95"/>
+      <c r="B4" s="96"/>
+      <c r="C4" s="96"/>
+      <c r="D4" s="96"/>
+      <c r="E4" s="96"/>
+      <c r="F4" s="97"/>
+      <c r="G4" s="95"/>
+      <c r="H4" s="96"/>
+      <c r="I4" s="96"/>
+      <c r="J4" s="96"/>
+      <c r="K4" s="96"/>
+      <c r="L4" s="97"/>
+      <c r="M4" s="95"/>
+      <c r="N4" s="96"/>
+      <c r="O4" s="96"/>
+      <c r="P4" s="96"/>
+      <c r="Q4" s="96"/>
+      <c r="R4" s="96"/>
+      <c r="S4" s="96"/>
+      <c r="T4" s="96"/>
+      <c r="U4" s="96"/>
+      <c r="V4" s="96"/>
+      <c r="W4" s="96"/>
+      <c r="X4" s="96"/>
+      <c r="Y4" s="96"/>
+      <c r="Z4" s="96"/>
+      <c r="AA4" s="96"/>
+      <c r="AB4" s="96"/>
+      <c r="AC4" s="97"/>
+      <c r="AD4" s="100"/>
+      <c r="AE4" s="101"/>
+      <c r="AF4" s="95"/>
+      <c r="AG4" s="97"/>
     </row>
     <row r="5" spans="1:177" s="11" customFormat="1" ht="12.75" customHeight="1">
       <c r="A5" s="22"/>
@@ -7745,16 +7695,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A1:AG1"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="G2:L2"/>
+    <mergeCell ref="M2:AC2"/>
+    <mergeCell ref="AF2:AG2"/>
     <mergeCell ref="A3:F4"/>
     <mergeCell ref="G3:L4"/>
     <mergeCell ref="M3:AC4"/>
     <mergeCell ref="AD3:AE4"/>
     <mergeCell ref="AF3:AG4"/>
-    <mergeCell ref="A1:AG1"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="G2:L2"/>
-    <mergeCell ref="M2:AC2"/>
-    <mergeCell ref="AF2:AG2"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <printOptions horizontalCentered="1"/>
@@ -7774,1886 +7724,1904 @@
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="F6" sqref="F6"/>
-      <selection pane="bottomLeft" activeCell="D14" sqref="D14:G14"/>
+      <selection pane="bottomLeft" sqref="A1:AG1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.09765625" defaultRowHeight="12.75" customHeight="1"/>
   <cols>
-    <col min="1" max="4" width="3.69921875" style="78" customWidth="1"/>
-    <col min="5" max="6" width="3.69921875" style="125" customWidth="1"/>
-    <col min="7" max="33" width="3.69921875" style="78" customWidth="1"/>
-    <col min="34" max="37" width="3.59765625" style="78" customWidth="1"/>
-    <col min="38" max="256" width="8.09765625" style="78"/>
-    <col min="257" max="289" width="3.69921875" style="78" customWidth="1"/>
-    <col min="290" max="293" width="3.59765625" style="78" customWidth="1"/>
-    <col min="294" max="512" width="8.09765625" style="78"/>
-    <col min="513" max="545" width="3.69921875" style="78" customWidth="1"/>
-    <col min="546" max="549" width="3.59765625" style="78" customWidth="1"/>
-    <col min="550" max="768" width="8.09765625" style="78"/>
-    <col min="769" max="801" width="3.69921875" style="78" customWidth="1"/>
-    <col min="802" max="805" width="3.59765625" style="78" customWidth="1"/>
-    <col min="806" max="1024" width="8.09765625" style="78"/>
-    <col min="1025" max="1057" width="3.69921875" style="78" customWidth="1"/>
-    <col min="1058" max="1061" width="3.59765625" style="78" customWidth="1"/>
-    <col min="1062" max="1280" width="8.09765625" style="78"/>
-    <col min="1281" max="1313" width="3.69921875" style="78" customWidth="1"/>
-    <col min="1314" max="1317" width="3.59765625" style="78" customWidth="1"/>
-    <col min="1318" max="1536" width="8.09765625" style="78"/>
-    <col min="1537" max="1569" width="3.69921875" style="78" customWidth="1"/>
-    <col min="1570" max="1573" width="3.59765625" style="78" customWidth="1"/>
-    <col min="1574" max="1792" width="8.09765625" style="78"/>
-    <col min="1793" max="1825" width="3.69921875" style="78" customWidth="1"/>
-    <col min="1826" max="1829" width="3.59765625" style="78" customWidth="1"/>
-    <col min="1830" max="2048" width="8.09765625" style="78"/>
-    <col min="2049" max="2081" width="3.69921875" style="78" customWidth="1"/>
-    <col min="2082" max="2085" width="3.59765625" style="78" customWidth="1"/>
-    <col min="2086" max="2304" width="8.09765625" style="78"/>
-    <col min="2305" max="2337" width="3.69921875" style="78" customWidth="1"/>
-    <col min="2338" max="2341" width="3.59765625" style="78" customWidth="1"/>
-    <col min="2342" max="2560" width="8.09765625" style="78"/>
-    <col min="2561" max="2593" width="3.69921875" style="78" customWidth="1"/>
-    <col min="2594" max="2597" width="3.59765625" style="78" customWidth="1"/>
-    <col min="2598" max="2816" width="8.09765625" style="78"/>
-    <col min="2817" max="2849" width="3.69921875" style="78" customWidth="1"/>
-    <col min="2850" max="2853" width="3.59765625" style="78" customWidth="1"/>
-    <col min="2854" max="3072" width="8.09765625" style="78"/>
-    <col min="3073" max="3105" width="3.69921875" style="78" customWidth="1"/>
-    <col min="3106" max="3109" width="3.59765625" style="78" customWidth="1"/>
-    <col min="3110" max="3328" width="8.09765625" style="78"/>
-    <col min="3329" max="3361" width="3.69921875" style="78" customWidth="1"/>
-    <col min="3362" max="3365" width="3.59765625" style="78" customWidth="1"/>
-    <col min="3366" max="3584" width="8.09765625" style="78"/>
-    <col min="3585" max="3617" width="3.69921875" style="78" customWidth="1"/>
-    <col min="3618" max="3621" width="3.59765625" style="78" customWidth="1"/>
-    <col min="3622" max="3840" width="8.09765625" style="78"/>
-    <col min="3841" max="3873" width="3.69921875" style="78" customWidth="1"/>
-    <col min="3874" max="3877" width="3.59765625" style="78" customWidth="1"/>
-    <col min="3878" max="4096" width="8.09765625" style="78"/>
-    <col min="4097" max="4129" width="3.69921875" style="78" customWidth="1"/>
-    <col min="4130" max="4133" width="3.59765625" style="78" customWidth="1"/>
-    <col min="4134" max="4352" width="8.09765625" style="78"/>
-    <col min="4353" max="4385" width="3.69921875" style="78" customWidth="1"/>
-    <col min="4386" max="4389" width="3.59765625" style="78" customWidth="1"/>
-    <col min="4390" max="4608" width="8.09765625" style="78"/>
-    <col min="4609" max="4641" width="3.69921875" style="78" customWidth="1"/>
-    <col min="4642" max="4645" width="3.59765625" style="78" customWidth="1"/>
-    <col min="4646" max="4864" width="8.09765625" style="78"/>
-    <col min="4865" max="4897" width="3.69921875" style="78" customWidth="1"/>
-    <col min="4898" max="4901" width="3.59765625" style="78" customWidth="1"/>
-    <col min="4902" max="5120" width="8.09765625" style="78"/>
-    <col min="5121" max="5153" width="3.69921875" style="78" customWidth="1"/>
-    <col min="5154" max="5157" width="3.59765625" style="78" customWidth="1"/>
-    <col min="5158" max="5376" width="8.09765625" style="78"/>
-    <col min="5377" max="5409" width="3.69921875" style="78" customWidth="1"/>
-    <col min="5410" max="5413" width="3.59765625" style="78" customWidth="1"/>
-    <col min="5414" max="5632" width="8.09765625" style="78"/>
-    <col min="5633" max="5665" width="3.69921875" style="78" customWidth="1"/>
-    <col min="5666" max="5669" width="3.59765625" style="78" customWidth="1"/>
-    <col min="5670" max="5888" width="8.09765625" style="78"/>
-    <col min="5889" max="5921" width="3.69921875" style="78" customWidth="1"/>
-    <col min="5922" max="5925" width="3.59765625" style="78" customWidth="1"/>
-    <col min="5926" max="6144" width="8.09765625" style="78"/>
-    <col min="6145" max="6177" width="3.69921875" style="78" customWidth="1"/>
-    <col min="6178" max="6181" width="3.59765625" style="78" customWidth="1"/>
-    <col min="6182" max="6400" width="8.09765625" style="78"/>
-    <col min="6401" max="6433" width="3.69921875" style="78" customWidth="1"/>
-    <col min="6434" max="6437" width="3.59765625" style="78" customWidth="1"/>
-    <col min="6438" max="6656" width="8.09765625" style="78"/>
-    <col min="6657" max="6689" width="3.69921875" style="78" customWidth="1"/>
-    <col min="6690" max="6693" width="3.59765625" style="78" customWidth="1"/>
-    <col min="6694" max="6912" width="8.09765625" style="78"/>
-    <col min="6913" max="6945" width="3.69921875" style="78" customWidth="1"/>
-    <col min="6946" max="6949" width="3.59765625" style="78" customWidth="1"/>
-    <col min="6950" max="7168" width="8.09765625" style="78"/>
-    <col min="7169" max="7201" width="3.69921875" style="78" customWidth="1"/>
-    <col min="7202" max="7205" width="3.59765625" style="78" customWidth="1"/>
-    <col min="7206" max="7424" width="8.09765625" style="78"/>
-    <col min="7425" max="7457" width="3.69921875" style="78" customWidth="1"/>
-    <col min="7458" max="7461" width="3.59765625" style="78" customWidth="1"/>
-    <col min="7462" max="7680" width="8.09765625" style="78"/>
-    <col min="7681" max="7713" width="3.69921875" style="78" customWidth="1"/>
-    <col min="7714" max="7717" width="3.59765625" style="78" customWidth="1"/>
-    <col min="7718" max="7936" width="8.09765625" style="78"/>
-    <col min="7937" max="7969" width="3.69921875" style="78" customWidth="1"/>
-    <col min="7970" max="7973" width="3.59765625" style="78" customWidth="1"/>
-    <col min="7974" max="8192" width="8.09765625" style="78"/>
-    <col min="8193" max="8225" width="3.69921875" style="78" customWidth="1"/>
-    <col min="8226" max="8229" width="3.59765625" style="78" customWidth="1"/>
-    <col min="8230" max="8448" width="8.09765625" style="78"/>
-    <col min="8449" max="8481" width="3.69921875" style="78" customWidth="1"/>
-    <col min="8482" max="8485" width="3.59765625" style="78" customWidth="1"/>
-    <col min="8486" max="8704" width="8.09765625" style="78"/>
-    <col min="8705" max="8737" width="3.69921875" style="78" customWidth="1"/>
-    <col min="8738" max="8741" width="3.59765625" style="78" customWidth="1"/>
-    <col min="8742" max="8960" width="8.09765625" style="78"/>
-    <col min="8961" max="8993" width="3.69921875" style="78" customWidth="1"/>
-    <col min="8994" max="8997" width="3.59765625" style="78" customWidth="1"/>
-    <col min="8998" max="9216" width="8.09765625" style="78"/>
-    <col min="9217" max="9249" width="3.69921875" style="78" customWidth="1"/>
-    <col min="9250" max="9253" width="3.59765625" style="78" customWidth="1"/>
-    <col min="9254" max="9472" width="8.09765625" style="78"/>
-    <col min="9473" max="9505" width="3.69921875" style="78" customWidth="1"/>
-    <col min="9506" max="9509" width="3.59765625" style="78" customWidth="1"/>
-    <col min="9510" max="9728" width="8.09765625" style="78"/>
-    <col min="9729" max="9761" width="3.69921875" style="78" customWidth="1"/>
-    <col min="9762" max="9765" width="3.59765625" style="78" customWidth="1"/>
-    <col min="9766" max="9984" width="8.09765625" style="78"/>
-    <col min="9985" max="10017" width="3.69921875" style="78" customWidth="1"/>
-    <col min="10018" max="10021" width="3.59765625" style="78" customWidth="1"/>
-    <col min="10022" max="10240" width="8.09765625" style="78"/>
-    <col min="10241" max="10273" width="3.69921875" style="78" customWidth="1"/>
-    <col min="10274" max="10277" width="3.59765625" style="78" customWidth="1"/>
-    <col min="10278" max="10496" width="8.09765625" style="78"/>
-    <col min="10497" max="10529" width="3.69921875" style="78" customWidth="1"/>
-    <col min="10530" max="10533" width="3.59765625" style="78" customWidth="1"/>
-    <col min="10534" max="10752" width="8.09765625" style="78"/>
-    <col min="10753" max="10785" width="3.69921875" style="78" customWidth="1"/>
-    <col min="10786" max="10789" width="3.59765625" style="78" customWidth="1"/>
-    <col min="10790" max="11008" width="8.09765625" style="78"/>
-    <col min="11009" max="11041" width="3.69921875" style="78" customWidth="1"/>
-    <col min="11042" max="11045" width="3.59765625" style="78" customWidth="1"/>
-    <col min="11046" max="11264" width="8.09765625" style="78"/>
-    <col min="11265" max="11297" width="3.69921875" style="78" customWidth="1"/>
-    <col min="11298" max="11301" width="3.59765625" style="78" customWidth="1"/>
-    <col min="11302" max="11520" width="8.09765625" style="78"/>
-    <col min="11521" max="11553" width="3.69921875" style="78" customWidth="1"/>
-    <col min="11554" max="11557" width="3.59765625" style="78" customWidth="1"/>
-    <col min="11558" max="11776" width="8.09765625" style="78"/>
-    <col min="11777" max="11809" width="3.69921875" style="78" customWidth="1"/>
-    <col min="11810" max="11813" width="3.59765625" style="78" customWidth="1"/>
-    <col min="11814" max="12032" width="8.09765625" style="78"/>
-    <col min="12033" max="12065" width="3.69921875" style="78" customWidth="1"/>
-    <col min="12066" max="12069" width="3.59765625" style="78" customWidth="1"/>
-    <col min="12070" max="12288" width="8.09765625" style="78"/>
-    <col min="12289" max="12321" width="3.69921875" style="78" customWidth="1"/>
-    <col min="12322" max="12325" width="3.59765625" style="78" customWidth="1"/>
-    <col min="12326" max="12544" width="8.09765625" style="78"/>
-    <col min="12545" max="12577" width="3.69921875" style="78" customWidth="1"/>
-    <col min="12578" max="12581" width="3.59765625" style="78" customWidth="1"/>
-    <col min="12582" max="12800" width="8.09765625" style="78"/>
-    <col min="12801" max="12833" width="3.69921875" style="78" customWidth="1"/>
-    <col min="12834" max="12837" width="3.59765625" style="78" customWidth="1"/>
-    <col min="12838" max="13056" width="8.09765625" style="78"/>
-    <col min="13057" max="13089" width="3.69921875" style="78" customWidth="1"/>
-    <col min="13090" max="13093" width="3.59765625" style="78" customWidth="1"/>
-    <col min="13094" max="13312" width="8.09765625" style="78"/>
-    <col min="13313" max="13345" width="3.69921875" style="78" customWidth="1"/>
-    <col min="13346" max="13349" width="3.59765625" style="78" customWidth="1"/>
-    <col min="13350" max="13568" width="8.09765625" style="78"/>
-    <col min="13569" max="13601" width="3.69921875" style="78" customWidth="1"/>
-    <col min="13602" max="13605" width="3.59765625" style="78" customWidth="1"/>
-    <col min="13606" max="13824" width="8.09765625" style="78"/>
-    <col min="13825" max="13857" width="3.69921875" style="78" customWidth="1"/>
-    <col min="13858" max="13861" width="3.59765625" style="78" customWidth="1"/>
-    <col min="13862" max="14080" width="8.09765625" style="78"/>
-    <col min="14081" max="14113" width="3.69921875" style="78" customWidth="1"/>
-    <col min="14114" max="14117" width="3.59765625" style="78" customWidth="1"/>
-    <col min="14118" max="14336" width="8.09765625" style="78"/>
-    <col min="14337" max="14369" width="3.69921875" style="78" customWidth="1"/>
-    <col min="14370" max="14373" width="3.59765625" style="78" customWidth="1"/>
-    <col min="14374" max="14592" width="8.09765625" style="78"/>
-    <col min="14593" max="14625" width="3.69921875" style="78" customWidth="1"/>
-    <col min="14626" max="14629" width="3.59765625" style="78" customWidth="1"/>
-    <col min="14630" max="14848" width="8.09765625" style="78"/>
-    <col min="14849" max="14881" width="3.69921875" style="78" customWidth="1"/>
-    <col min="14882" max="14885" width="3.59765625" style="78" customWidth="1"/>
-    <col min="14886" max="15104" width="8.09765625" style="78"/>
-    <col min="15105" max="15137" width="3.69921875" style="78" customWidth="1"/>
-    <col min="15138" max="15141" width="3.59765625" style="78" customWidth="1"/>
-    <col min="15142" max="15360" width="8.09765625" style="78"/>
-    <col min="15361" max="15393" width="3.69921875" style="78" customWidth="1"/>
-    <col min="15394" max="15397" width="3.59765625" style="78" customWidth="1"/>
-    <col min="15398" max="15616" width="8.09765625" style="78"/>
-    <col min="15617" max="15649" width="3.69921875" style="78" customWidth="1"/>
-    <col min="15650" max="15653" width="3.59765625" style="78" customWidth="1"/>
-    <col min="15654" max="15872" width="8.09765625" style="78"/>
-    <col min="15873" max="15905" width="3.69921875" style="78" customWidth="1"/>
-    <col min="15906" max="15909" width="3.59765625" style="78" customWidth="1"/>
-    <col min="15910" max="16128" width="8.09765625" style="78"/>
-    <col min="16129" max="16161" width="3.69921875" style="78" customWidth="1"/>
-    <col min="16162" max="16165" width="3.59765625" style="78" customWidth="1"/>
-    <col min="16166" max="16384" width="8.09765625" style="78"/>
+    <col min="1" max="4" width="3.69921875" style="51" customWidth="1"/>
+    <col min="5" max="6" width="3.69921875" style="80" customWidth="1"/>
+    <col min="7" max="33" width="3.69921875" style="51" customWidth="1"/>
+    <col min="34" max="37" width="3.59765625" style="51" customWidth="1"/>
+    <col min="38" max="256" width="8.09765625" style="51"/>
+    <col min="257" max="289" width="3.69921875" style="51" customWidth="1"/>
+    <col min="290" max="293" width="3.59765625" style="51" customWidth="1"/>
+    <col min="294" max="512" width="8.09765625" style="51"/>
+    <col min="513" max="545" width="3.69921875" style="51" customWidth="1"/>
+    <col min="546" max="549" width="3.59765625" style="51" customWidth="1"/>
+    <col min="550" max="768" width="8.09765625" style="51"/>
+    <col min="769" max="801" width="3.69921875" style="51" customWidth="1"/>
+    <col min="802" max="805" width="3.59765625" style="51" customWidth="1"/>
+    <col min="806" max="1024" width="8.09765625" style="51"/>
+    <col min="1025" max="1057" width="3.69921875" style="51" customWidth="1"/>
+    <col min="1058" max="1061" width="3.59765625" style="51" customWidth="1"/>
+    <col min="1062" max="1280" width="8.09765625" style="51"/>
+    <col min="1281" max="1313" width="3.69921875" style="51" customWidth="1"/>
+    <col min="1314" max="1317" width="3.59765625" style="51" customWidth="1"/>
+    <col min="1318" max="1536" width="8.09765625" style="51"/>
+    <col min="1537" max="1569" width="3.69921875" style="51" customWidth="1"/>
+    <col min="1570" max="1573" width="3.59765625" style="51" customWidth="1"/>
+    <col min="1574" max="1792" width="8.09765625" style="51"/>
+    <col min="1793" max="1825" width="3.69921875" style="51" customWidth="1"/>
+    <col min="1826" max="1829" width="3.59765625" style="51" customWidth="1"/>
+    <col min="1830" max="2048" width="8.09765625" style="51"/>
+    <col min="2049" max="2081" width="3.69921875" style="51" customWidth="1"/>
+    <col min="2082" max="2085" width="3.59765625" style="51" customWidth="1"/>
+    <col min="2086" max="2304" width="8.09765625" style="51"/>
+    <col min="2305" max="2337" width="3.69921875" style="51" customWidth="1"/>
+    <col min="2338" max="2341" width="3.59765625" style="51" customWidth="1"/>
+    <col min="2342" max="2560" width="8.09765625" style="51"/>
+    <col min="2561" max="2593" width="3.69921875" style="51" customWidth="1"/>
+    <col min="2594" max="2597" width="3.59765625" style="51" customWidth="1"/>
+    <col min="2598" max="2816" width="8.09765625" style="51"/>
+    <col min="2817" max="2849" width="3.69921875" style="51" customWidth="1"/>
+    <col min="2850" max="2853" width="3.59765625" style="51" customWidth="1"/>
+    <col min="2854" max="3072" width="8.09765625" style="51"/>
+    <col min="3073" max="3105" width="3.69921875" style="51" customWidth="1"/>
+    <col min="3106" max="3109" width="3.59765625" style="51" customWidth="1"/>
+    <col min="3110" max="3328" width="8.09765625" style="51"/>
+    <col min="3329" max="3361" width="3.69921875" style="51" customWidth="1"/>
+    <col min="3362" max="3365" width="3.59765625" style="51" customWidth="1"/>
+    <col min="3366" max="3584" width="8.09765625" style="51"/>
+    <col min="3585" max="3617" width="3.69921875" style="51" customWidth="1"/>
+    <col min="3618" max="3621" width="3.59765625" style="51" customWidth="1"/>
+    <col min="3622" max="3840" width="8.09765625" style="51"/>
+    <col min="3841" max="3873" width="3.69921875" style="51" customWidth="1"/>
+    <col min="3874" max="3877" width="3.59765625" style="51" customWidth="1"/>
+    <col min="3878" max="4096" width="8.09765625" style="51"/>
+    <col min="4097" max="4129" width="3.69921875" style="51" customWidth="1"/>
+    <col min="4130" max="4133" width="3.59765625" style="51" customWidth="1"/>
+    <col min="4134" max="4352" width="8.09765625" style="51"/>
+    <col min="4353" max="4385" width="3.69921875" style="51" customWidth="1"/>
+    <col min="4386" max="4389" width="3.59765625" style="51" customWidth="1"/>
+    <col min="4390" max="4608" width="8.09765625" style="51"/>
+    <col min="4609" max="4641" width="3.69921875" style="51" customWidth="1"/>
+    <col min="4642" max="4645" width="3.59765625" style="51" customWidth="1"/>
+    <col min="4646" max="4864" width="8.09765625" style="51"/>
+    <col min="4865" max="4897" width="3.69921875" style="51" customWidth="1"/>
+    <col min="4898" max="4901" width="3.59765625" style="51" customWidth="1"/>
+    <col min="4902" max="5120" width="8.09765625" style="51"/>
+    <col min="5121" max="5153" width="3.69921875" style="51" customWidth="1"/>
+    <col min="5154" max="5157" width="3.59765625" style="51" customWidth="1"/>
+    <col min="5158" max="5376" width="8.09765625" style="51"/>
+    <col min="5377" max="5409" width="3.69921875" style="51" customWidth="1"/>
+    <col min="5410" max="5413" width="3.59765625" style="51" customWidth="1"/>
+    <col min="5414" max="5632" width="8.09765625" style="51"/>
+    <col min="5633" max="5665" width="3.69921875" style="51" customWidth="1"/>
+    <col min="5666" max="5669" width="3.59765625" style="51" customWidth="1"/>
+    <col min="5670" max="5888" width="8.09765625" style="51"/>
+    <col min="5889" max="5921" width="3.69921875" style="51" customWidth="1"/>
+    <col min="5922" max="5925" width="3.59765625" style="51" customWidth="1"/>
+    <col min="5926" max="6144" width="8.09765625" style="51"/>
+    <col min="6145" max="6177" width="3.69921875" style="51" customWidth="1"/>
+    <col min="6178" max="6181" width="3.59765625" style="51" customWidth="1"/>
+    <col min="6182" max="6400" width="8.09765625" style="51"/>
+    <col min="6401" max="6433" width="3.69921875" style="51" customWidth="1"/>
+    <col min="6434" max="6437" width="3.59765625" style="51" customWidth="1"/>
+    <col min="6438" max="6656" width="8.09765625" style="51"/>
+    <col min="6657" max="6689" width="3.69921875" style="51" customWidth="1"/>
+    <col min="6690" max="6693" width="3.59765625" style="51" customWidth="1"/>
+    <col min="6694" max="6912" width="8.09765625" style="51"/>
+    <col min="6913" max="6945" width="3.69921875" style="51" customWidth="1"/>
+    <col min="6946" max="6949" width="3.59765625" style="51" customWidth="1"/>
+    <col min="6950" max="7168" width="8.09765625" style="51"/>
+    <col min="7169" max="7201" width="3.69921875" style="51" customWidth="1"/>
+    <col min="7202" max="7205" width="3.59765625" style="51" customWidth="1"/>
+    <col min="7206" max="7424" width="8.09765625" style="51"/>
+    <col min="7425" max="7457" width="3.69921875" style="51" customWidth="1"/>
+    <col min="7458" max="7461" width="3.59765625" style="51" customWidth="1"/>
+    <col min="7462" max="7680" width="8.09765625" style="51"/>
+    <col min="7681" max="7713" width="3.69921875" style="51" customWidth="1"/>
+    <col min="7714" max="7717" width="3.59765625" style="51" customWidth="1"/>
+    <col min="7718" max="7936" width="8.09765625" style="51"/>
+    <col min="7937" max="7969" width="3.69921875" style="51" customWidth="1"/>
+    <col min="7970" max="7973" width="3.59765625" style="51" customWidth="1"/>
+    <col min="7974" max="8192" width="8.09765625" style="51"/>
+    <col min="8193" max="8225" width="3.69921875" style="51" customWidth="1"/>
+    <col min="8226" max="8229" width="3.59765625" style="51" customWidth="1"/>
+    <col min="8230" max="8448" width="8.09765625" style="51"/>
+    <col min="8449" max="8481" width="3.69921875" style="51" customWidth="1"/>
+    <col min="8482" max="8485" width="3.59765625" style="51" customWidth="1"/>
+    <col min="8486" max="8704" width="8.09765625" style="51"/>
+    <col min="8705" max="8737" width="3.69921875" style="51" customWidth="1"/>
+    <col min="8738" max="8741" width="3.59765625" style="51" customWidth="1"/>
+    <col min="8742" max="8960" width="8.09765625" style="51"/>
+    <col min="8961" max="8993" width="3.69921875" style="51" customWidth="1"/>
+    <col min="8994" max="8997" width="3.59765625" style="51" customWidth="1"/>
+    <col min="8998" max="9216" width="8.09765625" style="51"/>
+    <col min="9217" max="9249" width="3.69921875" style="51" customWidth="1"/>
+    <col min="9250" max="9253" width="3.59765625" style="51" customWidth="1"/>
+    <col min="9254" max="9472" width="8.09765625" style="51"/>
+    <col min="9473" max="9505" width="3.69921875" style="51" customWidth="1"/>
+    <col min="9506" max="9509" width="3.59765625" style="51" customWidth="1"/>
+    <col min="9510" max="9728" width="8.09765625" style="51"/>
+    <col min="9729" max="9761" width="3.69921875" style="51" customWidth="1"/>
+    <col min="9762" max="9765" width="3.59765625" style="51" customWidth="1"/>
+    <col min="9766" max="9984" width="8.09765625" style="51"/>
+    <col min="9985" max="10017" width="3.69921875" style="51" customWidth="1"/>
+    <col min="10018" max="10021" width="3.59765625" style="51" customWidth="1"/>
+    <col min="10022" max="10240" width="8.09765625" style="51"/>
+    <col min="10241" max="10273" width="3.69921875" style="51" customWidth="1"/>
+    <col min="10274" max="10277" width="3.59765625" style="51" customWidth="1"/>
+    <col min="10278" max="10496" width="8.09765625" style="51"/>
+    <col min="10497" max="10529" width="3.69921875" style="51" customWidth="1"/>
+    <col min="10530" max="10533" width="3.59765625" style="51" customWidth="1"/>
+    <col min="10534" max="10752" width="8.09765625" style="51"/>
+    <col min="10753" max="10785" width="3.69921875" style="51" customWidth="1"/>
+    <col min="10786" max="10789" width="3.59765625" style="51" customWidth="1"/>
+    <col min="10790" max="11008" width="8.09765625" style="51"/>
+    <col min="11009" max="11041" width="3.69921875" style="51" customWidth="1"/>
+    <col min="11042" max="11045" width="3.59765625" style="51" customWidth="1"/>
+    <col min="11046" max="11264" width="8.09765625" style="51"/>
+    <col min="11265" max="11297" width="3.69921875" style="51" customWidth="1"/>
+    <col min="11298" max="11301" width="3.59765625" style="51" customWidth="1"/>
+    <col min="11302" max="11520" width="8.09765625" style="51"/>
+    <col min="11521" max="11553" width="3.69921875" style="51" customWidth="1"/>
+    <col min="11554" max="11557" width="3.59765625" style="51" customWidth="1"/>
+    <col min="11558" max="11776" width="8.09765625" style="51"/>
+    <col min="11777" max="11809" width="3.69921875" style="51" customWidth="1"/>
+    <col min="11810" max="11813" width="3.59765625" style="51" customWidth="1"/>
+    <col min="11814" max="12032" width="8.09765625" style="51"/>
+    <col min="12033" max="12065" width="3.69921875" style="51" customWidth="1"/>
+    <col min="12066" max="12069" width="3.59765625" style="51" customWidth="1"/>
+    <col min="12070" max="12288" width="8.09765625" style="51"/>
+    <col min="12289" max="12321" width="3.69921875" style="51" customWidth="1"/>
+    <col min="12322" max="12325" width="3.59765625" style="51" customWidth="1"/>
+    <col min="12326" max="12544" width="8.09765625" style="51"/>
+    <col min="12545" max="12577" width="3.69921875" style="51" customWidth="1"/>
+    <col min="12578" max="12581" width="3.59765625" style="51" customWidth="1"/>
+    <col min="12582" max="12800" width="8.09765625" style="51"/>
+    <col min="12801" max="12833" width="3.69921875" style="51" customWidth="1"/>
+    <col min="12834" max="12837" width="3.59765625" style="51" customWidth="1"/>
+    <col min="12838" max="13056" width="8.09765625" style="51"/>
+    <col min="13057" max="13089" width="3.69921875" style="51" customWidth="1"/>
+    <col min="13090" max="13093" width="3.59765625" style="51" customWidth="1"/>
+    <col min="13094" max="13312" width="8.09765625" style="51"/>
+    <col min="13313" max="13345" width="3.69921875" style="51" customWidth="1"/>
+    <col min="13346" max="13349" width="3.59765625" style="51" customWidth="1"/>
+    <col min="13350" max="13568" width="8.09765625" style="51"/>
+    <col min="13569" max="13601" width="3.69921875" style="51" customWidth="1"/>
+    <col min="13602" max="13605" width="3.59765625" style="51" customWidth="1"/>
+    <col min="13606" max="13824" width="8.09765625" style="51"/>
+    <col min="13825" max="13857" width="3.69921875" style="51" customWidth="1"/>
+    <col min="13858" max="13861" width="3.59765625" style="51" customWidth="1"/>
+    <col min="13862" max="14080" width="8.09765625" style="51"/>
+    <col min="14081" max="14113" width="3.69921875" style="51" customWidth="1"/>
+    <col min="14114" max="14117" width="3.59765625" style="51" customWidth="1"/>
+    <col min="14118" max="14336" width="8.09765625" style="51"/>
+    <col min="14337" max="14369" width="3.69921875" style="51" customWidth="1"/>
+    <col min="14370" max="14373" width="3.59765625" style="51" customWidth="1"/>
+    <col min="14374" max="14592" width="8.09765625" style="51"/>
+    <col min="14593" max="14625" width="3.69921875" style="51" customWidth="1"/>
+    <col min="14626" max="14629" width="3.59765625" style="51" customWidth="1"/>
+    <col min="14630" max="14848" width="8.09765625" style="51"/>
+    <col min="14849" max="14881" width="3.69921875" style="51" customWidth="1"/>
+    <col min="14882" max="14885" width="3.59765625" style="51" customWidth="1"/>
+    <col min="14886" max="15104" width="8.09765625" style="51"/>
+    <col min="15105" max="15137" width="3.69921875" style="51" customWidth="1"/>
+    <col min="15138" max="15141" width="3.59765625" style="51" customWidth="1"/>
+    <col min="15142" max="15360" width="8.09765625" style="51"/>
+    <col min="15361" max="15393" width="3.69921875" style="51" customWidth="1"/>
+    <col min="15394" max="15397" width="3.59765625" style="51" customWidth="1"/>
+    <col min="15398" max="15616" width="8.09765625" style="51"/>
+    <col min="15617" max="15649" width="3.69921875" style="51" customWidth="1"/>
+    <col min="15650" max="15653" width="3.59765625" style="51" customWidth="1"/>
+    <col min="15654" max="15872" width="8.09765625" style="51"/>
+    <col min="15873" max="15905" width="3.69921875" style="51" customWidth="1"/>
+    <col min="15906" max="15909" width="3.59765625" style="51" customWidth="1"/>
+    <col min="15910" max="16128" width="8.09765625" style="51"/>
+    <col min="16129" max="16161" width="3.69921875" style="51" customWidth="1"/>
+    <col min="16162" max="16165" width="3.59765625" style="51" customWidth="1"/>
+    <col min="16166" max="16384" width="8.09765625" style="51"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:144" ht="12.75" customHeight="1">
-      <c r="A1" s="77" t="s">
+      <c r="A1" s="124" t="s">
         <v>83</v>
       </c>
-      <c r="B1" s="77"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="77"/>
-      <c r="F1" s="77"/>
-      <c r="G1" s="77"/>
-      <c r="H1" s="77"/>
-      <c r="I1" s="77"/>
-      <c r="J1" s="77"/>
-      <c r="K1" s="77"/>
-      <c r="L1" s="77"/>
-      <c r="M1" s="77"/>
-      <c r="N1" s="77"/>
-      <c r="O1" s="77"/>
-      <c r="P1" s="77"/>
-      <c r="Q1" s="77"/>
-      <c r="R1" s="77"/>
-      <c r="S1" s="77"/>
-      <c r="T1" s="77"/>
-      <c r="U1" s="77"/>
-      <c r="V1" s="77"/>
-      <c r="W1" s="77"/>
-      <c r="X1" s="77"/>
-      <c r="Y1" s="77"/>
-      <c r="Z1" s="77"/>
-      <c r="AA1" s="77"/>
-      <c r="AB1" s="77"/>
-      <c r="AC1" s="77"/>
-      <c r="AD1" s="77"/>
-      <c r="AE1" s="77"/>
-      <c r="AF1" s="77"/>
-      <c r="AG1" s="77"/>
+      <c r="B1" s="124"/>
+      <c r="C1" s="124"/>
+      <c r="D1" s="124"/>
+      <c r="E1" s="124"/>
+      <c r="F1" s="124"/>
+      <c r="G1" s="124"/>
+      <c r="H1" s="124"/>
+      <c r="I1" s="124"/>
+      <c r="J1" s="124"/>
+      <c r="K1" s="124"/>
+      <c r="L1" s="124"/>
+      <c r="M1" s="124"/>
+      <c r="N1" s="124"/>
+      <c r="O1" s="124"/>
+      <c r="P1" s="124"/>
+      <c r="Q1" s="124"/>
+      <c r="R1" s="124"/>
+      <c r="S1" s="124"/>
+      <c r="T1" s="124"/>
+      <c r="U1" s="124"/>
+      <c r="V1" s="124"/>
+      <c r="W1" s="124"/>
+      <c r="X1" s="124"/>
+      <c r="Y1" s="124"/>
+      <c r="Z1" s="124"/>
+      <c r="AA1" s="124"/>
+      <c r="AB1" s="124"/>
+      <c r="AC1" s="124"/>
+      <c r="AD1" s="124"/>
+      <c r="AE1" s="124"/>
+      <c r="AF1" s="124"/>
+      <c r="AG1" s="124"/>
     </row>
     <row r="2" spans="1:144" ht="12.75" customHeight="1">
-      <c r="A2" s="58" t="s">
+      <c r="A2" s="89" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="59"/>
-      <c r="C2" s="59"/>
-      <c r="D2" s="59"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="60"/>
-      <c r="G2" s="58" t="s">
+      <c r="B2" s="90"/>
+      <c r="C2" s="90"/>
+      <c r="D2" s="90"/>
+      <c r="E2" s="90"/>
+      <c r="F2" s="91"/>
+      <c r="G2" s="89" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="59"/>
-      <c r="I2" s="59"/>
-      <c r="J2" s="59"/>
-      <c r="K2" s="59"/>
-      <c r="L2" s="60"/>
-      <c r="M2" s="58" t="s">
+      <c r="H2" s="90"/>
+      <c r="I2" s="90"/>
+      <c r="J2" s="90"/>
+      <c r="K2" s="90"/>
+      <c r="L2" s="91"/>
+      <c r="M2" s="89" t="s">
         <v>3</v>
       </c>
-      <c r="N2" s="59"/>
-      <c r="O2" s="59"/>
-      <c r="P2" s="59"/>
-      <c r="Q2" s="59"/>
-      <c r="R2" s="59"/>
-      <c r="S2" s="59"/>
-      <c r="T2" s="59"/>
-      <c r="U2" s="59"/>
-      <c r="V2" s="59"/>
-      <c r="W2" s="59"/>
-      <c r="X2" s="59"/>
-      <c r="Y2" s="59"/>
-      <c r="Z2" s="59"/>
-      <c r="AA2" s="59"/>
-      <c r="AB2" s="59"/>
-      <c r="AC2" s="60"/>
+      <c r="N2" s="90"/>
+      <c r="O2" s="90"/>
+      <c r="P2" s="90"/>
+      <c r="Q2" s="90"/>
+      <c r="R2" s="90"/>
+      <c r="S2" s="90"/>
+      <c r="T2" s="90"/>
+      <c r="U2" s="90"/>
+      <c r="V2" s="90"/>
+      <c r="W2" s="90"/>
+      <c r="X2" s="90"/>
+      <c r="Y2" s="90"/>
+      <c r="Z2" s="90"/>
+      <c r="AA2" s="90"/>
+      <c r="AB2" s="90"/>
+      <c r="AC2" s="91"/>
       <c r="AD2" s="20" t="s">
         <v>4</v>
       </c>
       <c r="AE2" s="21"/>
-      <c r="AF2" s="58" t="s">
+      <c r="AF2" s="89" t="s">
         <v>5</v>
       </c>
-      <c r="AG2" s="60"/>
+      <c r="AG2" s="91"/>
     </row>
     <row r="3" spans="1:144" ht="12.75" customHeight="1">
-      <c r="A3" s="61" t="s">
+      <c r="A3" s="92" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="62"/>
-      <c r="C3" s="62"/>
-      <c r="D3" s="62"/>
-      <c r="E3" s="62"/>
-      <c r="F3" s="63"/>
-      <c r="G3" s="61" t="s">
+      <c r="B3" s="93"/>
+      <c r="C3" s="93"/>
+      <c r="D3" s="93"/>
+      <c r="E3" s="93"/>
+      <c r="F3" s="94"/>
+      <c r="G3" s="92" t="s">
         <v>17</v>
       </c>
-      <c r="H3" s="62"/>
-      <c r="I3" s="62"/>
-      <c r="J3" s="62"/>
-      <c r="K3" s="62"/>
-      <c r="L3" s="63"/>
-      <c r="M3" s="61" t="s">
+      <c r="H3" s="93"/>
+      <c r="I3" s="93"/>
+      <c r="J3" s="93"/>
+      <c r="K3" s="93"/>
+      <c r="L3" s="94"/>
+      <c r="M3" s="92" t="s">
         <v>121</v>
       </c>
-      <c r="N3" s="62"/>
-      <c r="O3" s="62"/>
-      <c r="P3" s="62"/>
-      <c r="Q3" s="62"/>
-      <c r="R3" s="62"/>
-      <c r="S3" s="62"/>
-      <c r="T3" s="62"/>
-      <c r="U3" s="62"/>
-      <c r="V3" s="62"/>
-      <c r="W3" s="62"/>
-      <c r="X3" s="62"/>
-      <c r="Y3" s="62"/>
-      <c r="Z3" s="62"/>
-      <c r="AA3" s="62"/>
-      <c r="AB3" s="62"/>
-      <c r="AC3" s="63"/>
-      <c r="AD3" s="61" t="str">
-        <f>[1]表紙!AB12</f>
-        <v>TPC</v>
-      </c>
-      <c r="AE3" s="63"/>
-      <c r="AF3" s="61" t="s">
+      <c r="N3" s="93"/>
+      <c r="O3" s="93"/>
+      <c r="P3" s="93"/>
+      <c r="Q3" s="93"/>
+      <c r="R3" s="93"/>
+      <c r="S3" s="93"/>
+      <c r="T3" s="93"/>
+      <c r="U3" s="93"/>
+      <c r="V3" s="93"/>
+      <c r="W3" s="93"/>
+      <c r="X3" s="93"/>
+      <c r="Y3" s="93"/>
+      <c r="Z3" s="93"/>
+      <c r="AA3" s="93"/>
+      <c r="AB3" s="93"/>
+      <c r="AC3" s="94"/>
+      <c r="AD3" s="92" t="s">
+        <v>129</v>
+      </c>
+      <c r="AE3" s="94"/>
+      <c r="AF3" s="92" t="s">
         <v>119</v>
       </c>
-      <c r="AG3" s="63"/>
+      <c r="AG3" s="94"/>
     </row>
     <row r="4" spans="1:144" ht="12.75" customHeight="1">
-      <c r="A4" s="64"/>
-      <c r="B4" s="65"/>
-      <c r="C4" s="65"/>
-      <c r="D4" s="65"/>
-      <c r="E4" s="65"/>
-      <c r="F4" s="66"/>
-      <c r="G4" s="64"/>
-      <c r="H4" s="65"/>
-      <c r="I4" s="65"/>
-      <c r="J4" s="65"/>
-      <c r="K4" s="65"/>
-      <c r="L4" s="66"/>
-      <c r="M4" s="64"/>
-      <c r="N4" s="65"/>
-      <c r="O4" s="65"/>
-      <c r="P4" s="65"/>
-      <c r="Q4" s="65"/>
-      <c r="R4" s="65"/>
-      <c r="S4" s="65"/>
-      <c r="T4" s="65"/>
-      <c r="U4" s="65"/>
-      <c r="V4" s="65"/>
-      <c r="W4" s="65"/>
-      <c r="X4" s="65"/>
-      <c r="Y4" s="65"/>
-      <c r="Z4" s="65"/>
-      <c r="AA4" s="65"/>
-      <c r="AB4" s="65"/>
-      <c r="AC4" s="66"/>
-      <c r="AD4" s="64"/>
-      <c r="AE4" s="66"/>
-      <c r="AF4" s="64"/>
-      <c r="AG4" s="66"/>
+      <c r="A4" s="95"/>
+      <c r="B4" s="96"/>
+      <c r="C4" s="96"/>
+      <c r="D4" s="96"/>
+      <c r="E4" s="96"/>
+      <c r="F4" s="97"/>
+      <c r="G4" s="95"/>
+      <c r="H4" s="96"/>
+      <c r="I4" s="96"/>
+      <c r="J4" s="96"/>
+      <c r="K4" s="96"/>
+      <c r="L4" s="97"/>
+      <c r="M4" s="95"/>
+      <c r="N4" s="96"/>
+      <c r="O4" s="96"/>
+      <c r="P4" s="96"/>
+      <c r="Q4" s="96"/>
+      <c r="R4" s="96"/>
+      <c r="S4" s="96"/>
+      <c r="T4" s="96"/>
+      <c r="U4" s="96"/>
+      <c r="V4" s="96"/>
+      <c r="W4" s="96"/>
+      <c r="X4" s="96"/>
+      <c r="Y4" s="96"/>
+      <c r="Z4" s="96"/>
+      <c r="AA4" s="96"/>
+      <c r="AB4" s="96"/>
+      <c r="AC4" s="97"/>
+      <c r="AD4" s="95"/>
+      <c r="AE4" s="97"/>
+      <c r="AF4" s="95"/>
+      <c r="AG4" s="97"/>
     </row>
     <row r="5" spans="1:144" ht="12">
-      <c r="A5" s="79"/>
-      <c r="B5" s="80"/>
-      <c r="C5" s="80"/>
-      <c r="D5" s="80"/>
-      <c r="E5" s="80"/>
-      <c r="F5" s="80"/>
-      <c r="G5" s="80"/>
-      <c r="H5" s="80"/>
-      <c r="I5" s="80"/>
-      <c r="J5" s="80"/>
-      <c r="K5" s="80"/>
-      <c r="L5" s="80"/>
-      <c r="M5" s="80"/>
-      <c r="N5" s="80"/>
-      <c r="O5" s="80"/>
-      <c r="P5" s="80"/>
-      <c r="Q5" s="80"/>
-      <c r="R5" s="80"/>
-      <c r="S5" s="80"/>
-      <c r="T5" s="80"/>
-      <c r="U5" s="80"/>
-      <c r="V5" s="80"/>
-      <c r="W5" s="80"/>
-      <c r="X5" s="80"/>
-      <c r="Y5" s="80"/>
-      <c r="Z5" s="80"/>
-      <c r="AA5" s="80"/>
-      <c r="AB5" s="80"/>
-      <c r="AC5" s="80"/>
-      <c r="AD5" s="80"/>
-      <c r="AE5" s="80"/>
-      <c r="AF5" s="80"/>
-      <c r="AG5" s="81"/>
+      <c r="A5" s="52"/>
+      <c r="B5" s="53"/>
+      <c r="C5" s="53"/>
+      <c r="D5" s="53"/>
+      <c r="E5" s="53"/>
+      <c r="F5" s="53"/>
+      <c r="G5" s="53"/>
+      <c r="H5" s="53"/>
+      <c r="I5" s="53"/>
+      <c r="J5" s="53"/>
+      <c r="K5" s="53"/>
+      <c r="L5" s="53"/>
+      <c r="M5" s="53"/>
+      <c r="N5" s="53"/>
+      <c r="O5" s="53"/>
+      <c r="P5" s="53"/>
+      <c r="Q5" s="53"/>
+      <c r="R5" s="53"/>
+      <c r="S5" s="53"/>
+      <c r="T5" s="53"/>
+      <c r="U5" s="53"/>
+      <c r="V5" s="53"/>
+      <c r="W5" s="53"/>
+      <c r="X5" s="53"/>
+      <c r="Y5" s="53"/>
+      <c r="Z5" s="53"/>
+      <c r="AA5" s="53"/>
+      <c r="AB5" s="53"/>
+      <c r="AC5" s="53"/>
+      <c r="AD5" s="53"/>
+      <c r="AE5" s="53"/>
+      <c r="AF5" s="53"/>
+      <c r="AG5" s="54"/>
     </row>
     <row r="6" spans="1:144" ht="13.2">
-      <c r="A6" s="82"/>
-      <c r="B6" s="83"/>
-      <c r="C6" s="83" t="s">
+      <c r="A6" s="55"/>
+      <c r="B6" s="56"/>
+      <c r="C6" s="56" t="s">
         <v>84</v>
       </c>
-      <c r="D6" s="83"/>
-      <c r="E6" s="83"/>
-      <c r="F6" s="83"/>
-      <c r="G6" s="84" t="s">
+      <c r="D6" s="56"/>
+      <c r="E6" s="56"/>
+      <c r="F6" s="56"/>
+      <c r="G6" s="57" t="s">
         <v>85</v>
       </c>
-      <c r="H6" s="85"/>
-      <c r="I6" s="85"/>
-      <c r="J6" s="85"/>
-      <c r="K6" s="86"/>
-      <c r="L6" s="83"/>
-      <c r="M6" s="83"/>
-      <c r="N6" s="83" t="s">
+      <c r="H6" s="58"/>
+      <c r="I6" s="58"/>
+      <c r="J6" s="58"/>
+      <c r="K6" s="59"/>
+      <c r="L6" s="56"/>
+      <c r="M6" s="56"/>
+      <c r="N6" s="56" t="s">
         <v>86</v>
       </c>
-      <c r="O6" s="83"/>
-      <c r="P6" s="84" t="s">
+      <c r="O6" s="56"/>
+      <c r="P6" s="57" t="s">
         <v>87</v>
       </c>
-      <c r="Q6" s="86"/>
-      <c r="R6" s="85"/>
-      <c r="S6" s="87"/>
-      <c r="T6" s="88"/>
-      <c r="U6" s="83"/>
-      <c r="V6" s="83"/>
-      <c r="W6" s="83"/>
-      <c r="X6" s="83"/>
-      <c r="Y6" s="83"/>
-      <c r="Z6" s="83"/>
-      <c r="AA6" s="83"/>
-      <c r="AB6" s="83"/>
-      <c r="AC6" s="83"/>
-      <c r="AD6" s="83"/>
-      <c r="AE6" s="83"/>
-      <c r="AF6" s="83"/>
-      <c r="AG6" s="89"/>
+      <c r="Q6" s="59"/>
+      <c r="R6" s="58"/>
+      <c r="S6" s="60"/>
+      <c r="T6" s="61"/>
+      <c r="U6" s="56"/>
+      <c r="V6" s="56"/>
+      <c r="W6" s="56"/>
+      <c r="X6" s="56"/>
+      <c r="Y6" s="56"/>
+      <c r="Z6" s="56"/>
+      <c r="AA6" s="56"/>
+      <c r="AB6" s="56"/>
+      <c r="AC6" s="56"/>
+      <c r="AD6" s="56"/>
+      <c r="AE6" s="56"/>
+      <c r="AF6" s="56"/>
+      <c r="AG6" s="62"/>
     </row>
     <row r="7" spans="1:144" ht="12">
-      <c r="A7" s="82"/>
-      <c r="B7" s="83"/>
-      <c r="C7" s="83"/>
-      <c r="D7" s="83"/>
-      <c r="E7" s="83"/>
-      <c r="F7" s="83"/>
-      <c r="G7" s="83"/>
-      <c r="H7" s="83"/>
-      <c r="I7" s="83"/>
-      <c r="J7" s="83"/>
-      <c r="K7" s="83"/>
-      <c r="L7" s="83"/>
-      <c r="M7" s="83"/>
-      <c r="N7" s="83"/>
-      <c r="O7" s="83"/>
-      <c r="P7" s="83"/>
-      <c r="Q7" s="83"/>
-      <c r="R7" s="83"/>
-      <c r="S7" s="83"/>
-      <c r="T7" s="83"/>
-      <c r="U7" s="83"/>
-      <c r="V7" s="83"/>
-      <c r="W7" s="83"/>
-      <c r="X7" s="83"/>
-      <c r="Y7" s="83"/>
-      <c r="Z7" s="83"/>
-      <c r="AA7" s="83"/>
-      <c r="AB7" s="83"/>
-      <c r="AC7" s="83"/>
-      <c r="AD7" s="83"/>
-      <c r="AE7" s="83"/>
-      <c r="AF7" s="83"/>
-      <c r="AG7" s="89"/>
-    </row>
-    <row r="8" spans="1:144" s="93" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A8" s="82"/>
-      <c r="B8" s="83"/>
-      <c r="C8" s="83" t="s">
+      <c r="A7" s="55"/>
+      <c r="B7" s="56"/>
+      <c r="C7" s="56"/>
+      <c r="D7" s="56"/>
+      <c r="E7" s="56"/>
+      <c r="F7" s="56"/>
+      <c r="G7" s="56"/>
+      <c r="H7" s="56"/>
+      <c r="I7" s="56"/>
+      <c r="J7" s="56"/>
+      <c r="K7" s="56"/>
+      <c r="L7" s="56"/>
+      <c r="M7" s="56"/>
+      <c r="N7" s="56"/>
+      <c r="O7" s="56"/>
+      <c r="P7" s="56"/>
+      <c r="Q7" s="56"/>
+      <c r="R7" s="56"/>
+      <c r="S7" s="56"/>
+      <c r="T7" s="56"/>
+      <c r="U7" s="56"/>
+      <c r="V7" s="56"/>
+      <c r="W7" s="56"/>
+      <c r="X7" s="56"/>
+      <c r="Y7" s="56"/>
+      <c r="Z7" s="56"/>
+      <c r="AA7" s="56"/>
+      <c r="AB7" s="56"/>
+      <c r="AC7" s="56"/>
+      <c r="AD7" s="56"/>
+      <c r="AE7" s="56"/>
+      <c r="AF7" s="56"/>
+      <c r="AG7" s="62"/>
+    </row>
+    <row r="8" spans="1:144" s="65" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A8" s="55"/>
+      <c r="B8" s="56"/>
+      <c r="C8" s="56" t="s">
         <v>88</v>
       </c>
-      <c r="D8" s="83"/>
-      <c r="E8" s="83"/>
-      <c r="F8" s="83"/>
-      <c r="G8" s="90" t="s">
+      <c r="D8" s="56"/>
+      <c r="E8" s="56"/>
+      <c r="F8" s="56"/>
+      <c r="G8" s="123" t="s">
         <v>89</v>
       </c>
-      <c r="H8" s="90"/>
-      <c r="I8" s="90"/>
-      <c r="J8" s="90"/>
-      <c r="K8" s="90" t="s">
+      <c r="H8" s="123"/>
+      <c r="I8" s="123"/>
+      <c r="J8" s="123"/>
+      <c r="K8" s="123" t="s">
         <v>90</v>
       </c>
-      <c r="L8" s="90"/>
-      <c r="M8" s="88"/>
-      <c r="N8" s="90" t="s">
+      <c r="L8" s="123"/>
+      <c r="M8" s="61"/>
+      <c r="N8" s="123" t="s">
         <v>89</v>
       </c>
-      <c r="O8" s="90"/>
-      <c r="P8" s="90"/>
-      <c r="Q8" s="90"/>
-      <c r="R8" s="83"/>
-      <c r="S8" s="83"/>
-      <c r="T8" s="83"/>
-      <c r="U8" s="91"/>
-      <c r="V8" s="91"/>
-      <c r="W8" s="83"/>
-      <c r="X8" s="83"/>
-      <c r="Y8" s="91"/>
-      <c r="Z8" s="83"/>
-      <c r="AA8" s="83"/>
-      <c r="AB8" s="83"/>
-      <c r="AC8" s="83"/>
-      <c r="AD8" s="83"/>
-      <c r="AE8" s="83"/>
-      <c r="AF8" s="83"/>
-      <c r="AG8" s="89"/>
-      <c r="AH8" s="92"/>
-      <c r="AI8" s="92"/>
-      <c r="AJ8" s="92"/>
-      <c r="AK8" s="92"/>
-      <c r="AL8" s="92"/>
-      <c r="AM8" s="92"/>
-      <c r="AN8" s="92"/>
-      <c r="AO8" s="92"/>
-      <c r="AP8" s="92"/>
-      <c r="AQ8" s="92"/>
-      <c r="AR8" s="92"/>
-      <c r="AS8" s="92"/>
-      <c r="AT8" s="92"/>
-      <c r="AU8" s="92"/>
-      <c r="AV8" s="92"/>
-      <c r="AW8" s="92"/>
-      <c r="AX8" s="92"/>
-      <c r="AY8" s="92"/>
-      <c r="AZ8" s="92"/>
-      <c r="BA8" s="92"/>
-      <c r="BB8" s="92"/>
-      <c r="BC8" s="92"/>
-      <c r="BD8" s="92"/>
-      <c r="BE8" s="92"/>
-      <c r="BF8" s="92"/>
-      <c r="BG8" s="92"/>
-      <c r="BH8" s="92"/>
-      <c r="BI8" s="92"/>
-      <c r="BJ8" s="92"/>
-      <c r="BK8" s="92"/>
-      <c r="BL8" s="92"/>
-      <c r="BM8" s="92"/>
-      <c r="BN8" s="92"/>
-      <c r="BO8" s="92"/>
-      <c r="BP8" s="92"/>
-      <c r="BQ8" s="92"/>
-      <c r="BR8" s="92"/>
-      <c r="BS8" s="92"/>
-      <c r="BT8" s="92"/>
-      <c r="BU8" s="92"/>
-      <c r="BV8" s="92"/>
-      <c r="BW8" s="92"/>
-      <c r="BX8" s="92"/>
-      <c r="BY8" s="92"/>
-      <c r="BZ8" s="92"/>
-      <c r="CA8" s="92"/>
-      <c r="CB8" s="92"/>
-      <c r="CC8" s="92"/>
-      <c r="CD8" s="92"/>
-      <c r="CE8" s="92"/>
-      <c r="CF8" s="92"/>
-      <c r="CG8" s="92"/>
-      <c r="CH8" s="92"/>
-      <c r="CI8" s="92"/>
-      <c r="CJ8" s="92"/>
-      <c r="CK8" s="92"/>
-      <c r="CL8" s="92"/>
-      <c r="CM8" s="92"/>
-      <c r="CN8" s="92"/>
-      <c r="CO8" s="92"/>
-      <c r="CP8" s="92"/>
-      <c r="CQ8" s="92"/>
-      <c r="CR8" s="92"/>
-      <c r="CS8" s="92"/>
-      <c r="CT8" s="92"/>
-      <c r="CU8" s="92"/>
-      <c r="CV8" s="92"/>
-      <c r="CW8" s="92"/>
-      <c r="CX8" s="92"/>
-      <c r="CY8" s="92"/>
-      <c r="CZ8" s="92"/>
-      <c r="DA8" s="92"/>
-      <c r="DB8" s="92"/>
-      <c r="DC8" s="92"/>
-      <c r="DD8" s="92"/>
-      <c r="DE8" s="92"/>
-      <c r="DF8" s="92"/>
-      <c r="DG8" s="92"/>
-      <c r="DH8" s="92"/>
-      <c r="DI8" s="92"/>
-      <c r="DJ8" s="92"/>
-      <c r="DK8" s="92"/>
-      <c r="DL8" s="92"/>
-      <c r="DM8" s="92"/>
-      <c r="DN8" s="92"/>
-      <c r="DO8" s="92"/>
-      <c r="DP8" s="92"/>
-      <c r="DQ8" s="92"/>
-      <c r="DR8" s="92"/>
-      <c r="DS8" s="92"/>
-      <c r="DT8" s="92"/>
-      <c r="DU8" s="92"/>
-      <c r="DV8" s="92"/>
-      <c r="DW8" s="92"/>
-      <c r="DX8" s="92"/>
-      <c r="DY8" s="92"/>
-      <c r="DZ8" s="92"/>
-      <c r="EA8" s="92"/>
-      <c r="EB8" s="92"/>
-      <c r="EC8" s="92"/>
-      <c r="ED8" s="92"/>
-      <c r="EE8" s="92"/>
-      <c r="EF8" s="92"/>
-      <c r="EG8" s="92"/>
-      <c r="EH8" s="92"/>
-      <c r="EI8" s="92"/>
-      <c r="EJ8" s="92"/>
-      <c r="EK8" s="92"/>
-      <c r="EL8" s="92"/>
-      <c r="EM8" s="92"/>
-      <c r="EN8" s="92"/>
+      <c r="O8" s="123"/>
+      <c r="P8" s="123"/>
+      <c r="Q8" s="123"/>
+      <c r="R8" s="56"/>
+      <c r="S8" s="56"/>
+      <c r="T8" s="56"/>
+      <c r="U8" s="63"/>
+      <c r="V8" s="63"/>
+      <c r="W8" s="56"/>
+      <c r="X8" s="56"/>
+      <c r="Y8" s="63"/>
+      <c r="Z8" s="56"/>
+      <c r="AA8" s="56"/>
+      <c r="AB8" s="56"/>
+      <c r="AC8" s="56"/>
+      <c r="AD8" s="56"/>
+      <c r="AE8" s="56"/>
+      <c r="AF8" s="56"/>
+      <c r="AG8" s="62"/>
+      <c r="AH8" s="64"/>
+      <c r="AI8" s="64"/>
+      <c r="AJ8" s="64"/>
+      <c r="AK8" s="64"/>
+      <c r="AL8" s="64"/>
+      <c r="AM8" s="64"/>
+      <c r="AN8" s="64"/>
+      <c r="AO8" s="64"/>
+      <c r="AP8" s="64"/>
+      <c r="AQ8" s="64"/>
+      <c r="AR8" s="64"/>
+      <c r="AS8" s="64"/>
+      <c r="AT8" s="64"/>
+      <c r="AU8" s="64"/>
+      <c r="AV8" s="64"/>
+      <c r="AW8" s="64"/>
+      <c r="AX8" s="64"/>
+      <c r="AY8" s="64"/>
+      <c r="AZ8" s="64"/>
+      <c r="BA8" s="64"/>
+      <c r="BB8" s="64"/>
+      <c r="BC8" s="64"/>
+      <c r="BD8" s="64"/>
+      <c r="BE8" s="64"/>
+      <c r="BF8" s="64"/>
+      <c r="BG8" s="64"/>
+      <c r="BH8" s="64"/>
+      <c r="BI8" s="64"/>
+      <c r="BJ8" s="64"/>
+      <c r="BK8" s="64"/>
+      <c r="BL8" s="64"/>
+      <c r="BM8" s="64"/>
+      <c r="BN8" s="64"/>
+      <c r="BO8" s="64"/>
+      <c r="BP8" s="64"/>
+      <c r="BQ8" s="64"/>
+      <c r="BR8" s="64"/>
+      <c r="BS8" s="64"/>
+      <c r="BT8" s="64"/>
+      <c r="BU8" s="64"/>
+      <c r="BV8" s="64"/>
+      <c r="BW8" s="64"/>
+      <c r="BX8" s="64"/>
+      <c r="BY8" s="64"/>
+      <c r="BZ8" s="64"/>
+      <c r="CA8" s="64"/>
+      <c r="CB8" s="64"/>
+      <c r="CC8" s="64"/>
+      <c r="CD8" s="64"/>
+      <c r="CE8" s="64"/>
+      <c r="CF8" s="64"/>
+      <c r="CG8" s="64"/>
+      <c r="CH8" s="64"/>
+      <c r="CI8" s="64"/>
+      <c r="CJ8" s="64"/>
+      <c r="CK8" s="64"/>
+      <c r="CL8" s="64"/>
+      <c r="CM8" s="64"/>
+      <c r="CN8" s="64"/>
+      <c r="CO8" s="64"/>
+      <c r="CP8" s="64"/>
+      <c r="CQ8" s="64"/>
+      <c r="CR8" s="64"/>
+      <c r="CS8" s="64"/>
+      <c r="CT8" s="64"/>
+      <c r="CU8" s="64"/>
+      <c r="CV8" s="64"/>
+      <c r="CW8" s="64"/>
+      <c r="CX8" s="64"/>
+      <c r="CY8" s="64"/>
+      <c r="CZ8" s="64"/>
+      <c r="DA8" s="64"/>
+      <c r="DB8" s="64"/>
+      <c r="DC8" s="64"/>
+      <c r="DD8" s="64"/>
+      <c r="DE8" s="64"/>
+      <c r="DF8" s="64"/>
+      <c r="DG8" s="64"/>
+      <c r="DH8" s="64"/>
+      <c r="DI8" s="64"/>
+      <c r="DJ8" s="64"/>
+      <c r="DK8" s="64"/>
+      <c r="DL8" s="64"/>
+      <c r="DM8" s="64"/>
+      <c r="DN8" s="64"/>
+      <c r="DO8" s="64"/>
+      <c r="DP8" s="64"/>
+      <c r="DQ8" s="64"/>
+      <c r="DR8" s="64"/>
+      <c r="DS8" s="64"/>
+      <c r="DT8" s="64"/>
+      <c r="DU8" s="64"/>
+      <c r="DV8" s="64"/>
+      <c r="DW8" s="64"/>
+      <c r="DX8" s="64"/>
+      <c r="DY8" s="64"/>
+      <c r="DZ8" s="64"/>
+      <c r="EA8" s="64"/>
+      <c r="EB8" s="64"/>
+      <c r="EC8" s="64"/>
+      <c r="ED8" s="64"/>
+      <c r="EE8" s="64"/>
+      <c r="EF8" s="64"/>
+      <c r="EG8" s="64"/>
+      <c r="EH8" s="64"/>
+      <c r="EI8" s="64"/>
+      <c r="EJ8" s="64"/>
+      <c r="EK8" s="64"/>
+      <c r="EL8" s="64"/>
+      <c r="EM8" s="64"/>
+      <c r="EN8" s="64"/>
     </row>
     <row r="9" spans="1:144" ht="12.75" customHeight="1">
-      <c r="A9" s="82"/>
-      <c r="B9" s="83"/>
-      <c r="C9" s="83"/>
-      <c r="D9" s="83"/>
-      <c r="E9" s="83"/>
-      <c r="F9" s="83"/>
-      <c r="G9" s="83"/>
-      <c r="H9" s="83"/>
-      <c r="I9" s="83"/>
-      <c r="J9" s="83"/>
-      <c r="K9" s="83"/>
-      <c r="L9" s="83"/>
-      <c r="M9" s="83"/>
-      <c r="N9" s="83"/>
-      <c r="O9" s="83"/>
-      <c r="P9" s="83"/>
-      <c r="Q9" s="83"/>
-      <c r="R9" s="83"/>
-      <c r="S9" s="83"/>
-      <c r="T9" s="83"/>
-      <c r="U9" s="83"/>
-      <c r="V9" s="83"/>
-      <c r="W9" s="83"/>
-      <c r="X9" s="83"/>
-      <c r="Y9" s="83"/>
-      <c r="Z9" s="83"/>
-      <c r="AA9" s="83"/>
-      <c r="AB9" s="83"/>
-      <c r="AC9" s="83"/>
-      <c r="AD9" s="83"/>
-      <c r="AE9" s="83"/>
-      <c r="AF9" s="83"/>
-      <c r="AG9" s="89"/>
-      <c r="AH9" s="78" t="s">
+      <c r="A9" s="55"/>
+      <c r="B9" s="56"/>
+      <c r="C9" s="56"/>
+      <c r="D9" s="56"/>
+      <c r="E9" s="56"/>
+      <c r="F9" s="56"/>
+      <c r="G9" s="56"/>
+      <c r="H9" s="56"/>
+      <c r="I9" s="56"/>
+      <c r="J9" s="56"/>
+      <c r="K9" s="56"/>
+      <c r="L9" s="56"/>
+      <c r="M9" s="56"/>
+      <c r="N9" s="56"/>
+      <c r="O9" s="56"/>
+      <c r="P9" s="56"/>
+      <c r="Q9" s="56"/>
+      <c r="R9" s="56"/>
+      <c r="S9" s="56"/>
+      <c r="T9" s="56"/>
+      <c r="U9" s="56"/>
+      <c r="V9" s="56"/>
+      <c r="W9" s="56"/>
+      <c r="X9" s="56"/>
+      <c r="Y9" s="56"/>
+      <c r="Z9" s="56"/>
+      <c r="AA9" s="56"/>
+      <c r="AB9" s="56"/>
+      <c r="AC9" s="56"/>
+      <c r="AD9" s="56"/>
+      <c r="AE9" s="56"/>
+      <c r="AF9" s="56"/>
+      <c r="AG9" s="62"/>
+      <c r="AH9" s="51" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="10" spans="1:144" ht="12.75" customHeight="1">
-      <c r="A10" s="82"/>
-      <c r="B10" s="83"/>
-      <c r="C10" s="83"/>
-      <c r="D10" s="83"/>
-      <c r="E10" s="83"/>
-      <c r="F10" s="83"/>
-      <c r="G10" s="83"/>
-      <c r="H10" s="83"/>
-      <c r="I10" s="83"/>
-      <c r="J10" s="83"/>
-      <c r="K10" s="83"/>
-      <c r="L10" s="83"/>
-      <c r="M10" s="91"/>
-      <c r="N10" s="83"/>
-      <c r="O10" s="83"/>
-      <c r="P10" s="83"/>
-      <c r="Q10" s="83"/>
-      <c r="R10" s="83"/>
-      <c r="S10" s="83"/>
-      <c r="T10" s="83"/>
-      <c r="U10" s="83"/>
-      <c r="V10" s="83"/>
-      <c r="W10" s="83"/>
-      <c r="X10" s="83"/>
-      <c r="Y10" s="83"/>
-      <c r="Z10" s="83"/>
-      <c r="AA10" s="83"/>
-      <c r="AB10" s="83"/>
-      <c r="AC10" s="83"/>
-      <c r="AD10" s="83"/>
-      <c r="AE10" s="83"/>
-      <c r="AF10" s="83"/>
-      <c r="AG10" s="89"/>
-      <c r="AH10" s="78" t="s">
+      <c r="A10" s="55"/>
+      <c r="B10" s="56"/>
+      <c r="C10" s="56"/>
+      <c r="D10" s="56"/>
+      <c r="E10" s="56"/>
+      <c r="F10" s="56"/>
+      <c r="G10" s="56"/>
+      <c r="H10" s="56"/>
+      <c r="I10" s="56"/>
+      <c r="J10" s="56"/>
+      <c r="K10" s="56"/>
+      <c r="L10" s="56"/>
+      <c r="M10" s="63"/>
+      <c r="N10" s="56"/>
+      <c r="O10" s="56"/>
+      <c r="P10" s="56"/>
+      <c r="Q10" s="56"/>
+      <c r="R10" s="56"/>
+      <c r="S10" s="56"/>
+      <c r="T10" s="56"/>
+      <c r="U10" s="56"/>
+      <c r="V10" s="56"/>
+      <c r="W10" s="56"/>
+      <c r="X10" s="56"/>
+      <c r="Y10" s="56"/>
+      <c r="Z10" s="56"/>
+      <c r="AA10" s="56"/>
+      <c r="AB10" s="56"/>
+      <c r="AC10" s="56"/>
+      <c r="AD10" s="56"/>
+      <c r="AE10" s="56"/>
+      <c r="AF10" s="56"/>
+      <c r="AG10" s="62"/>
+      <c r="AH10" s="51" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="11" spans="1:144" ht="12.75" customHeight="1">
-      <c r="A11" s="82"/>
-      <c r="B11" s="83"/>
-      <c r="C11" s="83"/>
-      <c r="D11" s="83"/>
-      <c r="E11" s="83"/>
-      <c r="F11" s="94"/>
-      <c r="G11" s="83"/>
-      <c r="H11" s="83"/>
-      <c r="I11" s="83"/>
-      <c r="J11" s="83"/>
-      <c r="K11" s="83"/>
-      <c r="L11" s="83"/>
-      <c r="M11" s="83"/>
-      <c r="N11" s="83"/>
-      <c r="O11" s="83"/>
-      <c r="P11" s="83"/>
-      <c r="Q11" s="83"/>
-      <c r="R11" s="83"/>
-      <c r="S11" s="83"/>
-      <c r="T11" s="83"/>
-      <c r="U11" s="83"/>
-      <c r="V11" s="83"/>
-      <c r="W11" s="83"/>
-      <c r="X11" s="83"/>
-      <c r="Y11" s="83"/>
-      <c r="Z11" s="83"/>
-      <c r="AA11" s="83"/>
-      <c r="AB11" s="83"/>
-      <c r="AC11" s="83"/>
-      <c r="AD11" s="83"/>
-      <c r="AE11" s="83"/>
-      <c r="AF11" s="83"/>
-      <c r="AG11" s="89"/>
-      <c r="AH11" s="78" t="s">
+      <c r="A11" s="55"/>
+      <c r="B11" s="56"/>
+      <c r="C11" s="56"/>
+      <c r="D11" s="56"/>
+      <c r="E11" s="56"/>
+      <c r="F11" s="66"/>
+      <c r="G11" s="56"/>
+      <c r="H11" s="56"/>
+      <c r="I11" s="56"/>
+      <c r="J11" s="56"/>
+      <c r="K11" s="56"/>
+      <c r="L11" s="56"/>
+      <c r="M11" s="56"/>
+      <c r="N11" s="56"/>
+      <c r="O11" s="56"/>
+      <c r="P11" s="56"/>
+      <c r="Q11" s="56"/>
+      <c r="R11" s="56"/>
+      <c r="S11" s="56"/>
+      <c r="T11" s="56"/>
+      <c r="U11" s="56"/>
+      <c r="V11" s="56"/>
+      <c r="W11" s="56"/>
+      <c r="X11" s="56"/>
+      <c r="Y11" s="56"/>
+      <c r="Z11" s="56"/>
+      <c r="AA11" s="56"/>
+      <c r="AB11" s="56"/>
+      <c r="AC11" s="56"/>
+      <c r="AD11" s="56"/>
+      <c r="AE11" s="56"/>
+      <c r="AF11" s="56"/>
+      <c r="AG11" s="62"/>
+      <c r="AH11" s="51" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="12" spans="1:144" ht="12.75" customHeight="1">
-      <c r="A12" s="82"/>
-      <c r="B12" s="83"/>
-      <c r="C12" s="83"/>
-      <c r="D12" s="83"/>
-      <c r="E12" s="83"/>
-      <c r="F12" s="94"/>
-      <c r="G12" s="83"/>
-      <c r="H12" s="83"/>
-      <c r="I12" s="83"/>
-      <c r="J12" s="83"/>
-      <c r="K12" s="83"/>
-      <c r="L12" s="83"/>
-      <c r="M12" s="83"/>
-      <c r="N12" s="83"/>
-      <c r="O12" s="83"/>
-      <c r="P12" s="83"/>
-      <c r="Q12" s="83"/>
-      <c r="R12" s="83"/>
-      <c r="S12" s="83"/>
-      <c r="T12" s="83"/>
-      <c r="U12" s="83"/>
-      <c r="V12" s="83"/>
-      <c r="W12" s="83"/>
-      <c r="X12" s="83"/>
-      <c r="Y12" s="83"/>
-      <c r="Z12" s="83"/>
-      <c r="AA12" s="83"/>
-      <c r="AB12" s="83"/>
-      <c r="AC12" s="83"/>
-      <c r="AD12" s="83"/>
-      <c r="AE12" s="83"/>
-      <c r="AF12" s="83"/>
-      <c r="AG12" s="89"/>
-      <c r="AH12" s="78" t="s">
+      <c r="A12" s="55"/>
+      <c r="B12" s="56"/>
+      <c r="C12" s="56"/>
+      <c r="D12" s="56"/>
+      <c r="E12" s="56"/>
+      <c r="F12" s="66"/>
+      <c r="G12" s="56"/>
+      <c r="H12" s="56"/>
+      <c r="I12" s="56"/>
+      <c r="J12" s="56"/>
+      <c r="K12" s="56"/>
+      <c r="L12" s="56"/>
+      <c r="M12" s="56"/>
+      <c r="N12" s="56"/>
+      <c r="O12" s="56"/>
+      <c r="P12" s="56"/>
+      <c r="Q12" s="56"/>
+      <c r="R12" s="56"/>
+      <c r="S12" s="56"/>
+      <c r="T12" s="56"/>
+      <c r="U12" s="56"/>
+      <c r="V12" s="56"/>
+      <c r="W12" s="56"/>
+      <c r="X12" s="56"/>
+      <c r="Y12" s="56"/>
+      <c r="Z12" s="56"/>
+      <c r="AA12" s="56"/>
+      <c r="AB12" s="56"/>
+      <c r="AC12" s="56"/>
+      <c r="AD12" s="56"/>
+      <c r="AE12" s="56"/>
+      <c r="AF12" s="56"/>
+      <c r="AG12" s="62"/>
+      <c r="AH12" s="51" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="13" spans="1:144" ht="12.75" customHeight="1">
-      <c r="A13" s="82"/>
-      <c r="B13" s="95" t="s">
+      <c r="A13" s="55"/>
+      <c r="B13" s="106" t="s">
         <v>95</v>
       </c>
-      <c r="C13" s="96"/>
-      <c r="D13" s="95" t="s">
+      <c r="C13" s="108"/>
+      <c r="D13" s="106" t="s">
         <v>96</v>
       </c>
-      <c r="E13" s="97"/>
-      <c r="F13" s="97"/>
-      <c r="G13" s="96"/>
-      <c r="H13" s="95" t="s">
+      <c r="E13" s="107"/>
+      <c r="F13" s="107"/>
+      <c r="G13" s="108"/>
+      <c r="H13" s="106" t="s">
         <v>88</v>
       </c>
-      <c r="I13" s="97"/>
-      <c r="J13" s="96"/>
-      <c r="K13" s="95" t="s">
+      <c r="I13" s="107"/>
+      <c r="J13" s="108"/>
+      <c r="K13" s="106" t="s">
         <v>97</v>
       </c>
-      <c r="L13" s="98"/>
-      <c r="M13" s="99"/>
-      <c r="N13" s="95" t="s">
+      <c r="L13" s="109"/>
+      <c r="M13" s="110"/>
+      <c r="N13" s="106" t="s">
         <v>98</v>
       </c>
-      <c r="O13" s="99"/>
-      <c r="P13" s="95" t="s">
+      <c r="O13" s="110"/>
+      <c r="P13" s="106" t="s">
         <v>99</v>
       </c>
-      <c r="Q13" s="97"/>
-      <c r="R13" s="96"/>
-      <c r="S13" s="95" t="s">
+      <c r="Q13" s="107"/>
+      <c r="R13" s="108"/>
+      <c r="S13" s="106" t="s">
         <v>86</v>
       </c>
-      <c r="T13" s="97"/>
-      <c r="U13" s="96"/>
-      <c r="V13" s="95" t="s">
+      <c r="T13" s="107"/>
+      <c r="U13" s="108"/>
+      <c r="V13" s="106" t="s">
         <v>100</v>
       </c>
-      <c r="W13" s="98"/>
-      <c r="X13" s="98"/>
-      <c r="Y13" s="98"/>
-      <c r="Z13" s="98"/>
-      <c r="AA13" s="98"/>
-      <c r="AB13" s="99"/>
-      <c r="AC13" s="100"/>
-      <c r="AD13" s="82"/>
-      <c r="AG13" s="101"/>
-      <c r="AH13" s="78" t="s">
+      <c r="W13" s="109"/>
+      <c r="X13" s="109"/>
+      <c r="Y13" s="109"/>
+      <c r="Z13" s="109"/>
+      <c r="AA13" s="109"/>
+      <c r="AB13" s="110"/>
+      <c r="AC13" s="67"/>
+      <c r="AD13" s="55"/>
+      <c r="AG13" s="68"/>
+      <c r="AH13" s="51" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="14" spans="1:144" ht="12.75" customHeight="1">
-      <c r="A14" s="82"/>
-      <c r="B14" s="102"/>
-      <c r="C14" s="103"/>
-      <c r="D14" s="104" t="s">
+      <c r="A14" s="55"/>
+      <c r="B14" s="111"/>
+      <c r="C14" s="112"/>
+      <c r="D14" s="113" t="s">
         <v>102</v>
       </c>
-      <c r="E14" s="105"/>
-      <c r="F14" s="105"/>
-      <c r="G14" s="106"/>
-      <c r="H14" s="107" t="s">
+      <c r="E14" s="114"/>
+      <c r="F14" s="114"/>
+      <c r="G14" s="115"/>
+      <c r="H14" s="116" t="s">
         <v>89</v>
       </c>
-      <c r="I14" s="108"/>
-      <c r="J14" s="109"/>
-      <c r="K14" s="110" t="s">
+      <c r="I14" s="117"/>
+      <c r="J14" s="118"/>
+      <c r="K14" s="69" t="s">
         <v>103</v>
       </c>
-      <c r="L14" s="83"/>
-      <c r="M14" s="111"/>
-      <c r="N14" s="112" t="s">
+      <c r="L14" s="56"/>
+      <c r="M14" s="70"/>
+      <c r="N14" s="119" t="s">
         <v>104</v>
       </c>
-      <c r="O14" s="113"/>
-      <c r="P14" s="112" t="s">
+      <c r="O14" s="120"/>
+      <c r="P14" s="119" t="s">
         <v>104</v>
       </c>
-      <c r="Q14" s="114"/>
-      <c r="R14" s="113"/>
-      <c r="S14" s="112" t="s">
+      <c r="Q14" s="121"/>
+      <c r="R14" s="120"/>
+      <c r="S14" s="119" t="s">
         <v>105</v>
       </c>
-      <c r="T14" s="114"/>
-      <c r="U14" s="113"/>
-      <c r="V14" s="115" t="s">
+      <c r="T14" s="121"/>
+      <c r="U14" s="120"/>
+      <c r="V14" s="122" t="s">
         <v>106</v>
       </c>
-      <c r="W14" s="105"/>
-      <c r="X14" s="105"/>
-      <c r="Y14" s="105"/>
-      <c r="Z14" s="105"/>
-      <c r="AA14" s="105"/>
-      <c r="AB14" s="106"/>
-      <c r="AC14" s="116" t="s">
+      <c r="W14" s="114"/>
+      <c r="X14" s="114"/>
+      <c r="Y14" s="114"/>
+      <c r="Z14" s="114"/>
+      <c r="AA14" s="114"/>
+      <c r="AB14" s="115"/>
+      <c r="AC14" s="71" t="s">
         <v>107</v>
       </c>
-      <c r="AD14" s="82"/>
-      <c r="AG14" s="101"/>
-      <c r="AH14" s="78" t="s">
+      <c r="AD14" s="55"/>
+      <c r="AG14" s="68"/>
+      <c r="AH14" s="51" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="15" spans="1:144" ht="12.75" customHeight="1">
-      <c r="A15" s="82"/>
-      <c r="B15" s="110"/>
-      <c r="C15" s="83"/>
-      <c r="D15" s="110"/>
-      <c r="E15" s="83"/>
-      <c r="F15" s="83"/>
-      <c r="G15" s="111"/>
-      <c r="H15" s="117"/>
-      <c r="I15" s="83"/>
-      <c r="J15" s="83"/>
-      <c r="K15" s="110"/>
-      <c r="L15" s="83"/>
-      <c r="M15" s="111"/>
-      <c r="N15" s="110"/>
-      <c r="O15" s="111"/>
-      <c r="P15" s="110"/>
-      <c r="Q15" s="83"/>
-      <c r="R15" s="111"/>
-      <c r="S15" s="110"/>
-      <c r="T15" s="83"/>
-      <c r="U15" s="111"/>
-      <c r="V15" s="117"/>
-      <c r="W15" s="83"/>
-      <c r="X15" s="83"/>
-      <c r="Y15" s="83"/>
-      <c r="Z15" s="83"/>
-      <c r="AA15" s="83"/>
-      <c r="AB15" s="111"/>
-      <c r="AC15" s="116"/>
-      <c r="AD15" s="82"/>
-      <c r="AG15" s="101"/>
+      <c r="A15" s="55"/>
+      <c r="B15" s="69"/>
+      <c r="C15" s="56"/>
+      <c r="D15" s="69"/>
+      <c r="E15" s="56"/>
+      <c r="F15" s="56"/>
+      <c r="G15" s="70"/>
+      <c r="H15" s="72"/>
+      <c r="I15" s="56"/>
+      <c r="J15" s="56"/>
+      <c r="K15" s="69"/>
+      <c r="L15" s="56"/>
+      <c r="M15" s="70"/>
+      <c r="N15" s="69"/>
+      <c r="O15" s="70"/>
+      <c r="P15" s="69"/>
+      <c r="Q15" s="56"/>
+      <c r="R15" s="70"/>
+      <c r="S15" s="69"/>
+      <c r="T15" s="56"/>
+      <c r="U15" s="70"/>
+      <c r="V15" s="72"/>
+      <c r="W15" s="56"/>
+      <c r="X15" s="56"/>
+      <c r="Y15" s="56"/>
+      <c r="Z15" s="56"/>
+      <c r="AA15" s="56"/>
+      <c r="AB15" s="70"/>
+      <c r="AC15" s="71"/>
+      <c r="AD15" s="55"/>
+      <c r="AG15" s="68"/>
     </row>
     <row r="16" spans="1:144" ht="12.75" customHeight="1">
-      <c r="A16" s="82"/>
-      <c r="B16" s="110"/>
-      <c r="C16" s="83"/>
-      <c r="D16" s="110"/>
-      <c r="E16" s="83"/>
-      <c r="F16" s="83"/>
-      <c r="G16" s="111"/>
-      <c r="H16" s="117"/>
-      <c r="I16" s="83"/>
-      <c r="J16" s="83"/>
-      <c r="K16" s="110"/>
-      <c r="L16" s="83"/>
-      <c r="M16" s="111"/>
-      <c r="N16" s="110"/>
-      <c r="O16" s="111"/>
-      <c r="P16" s="110"/>
-      <c r="Q16" s="83"/>
-      <c r="R16" s="111"/>
-      <c r="S16" s="110"/>
-      <c r="T16" s="83"/>
-      <c r="U16" s="111"/>
-      <c r="V16" s="117"/>
-      <c r="W16" s="83"/>
-      <c r="X16" s="83"/>
-      <c r="Y16" s="83"/>
-      <c r="Z16" s="83"/>
-      <c r="AA16" s="83"/>
-      <c r="AB16" s="111"/>
-      <c r="AC16" s="116"/>
-      <c r="AD16" s="82"/>
-      <c r="AG16" s="101"/>
+      <c r="A16" s="55"/>
+      <c r="B16" s="69"/>
+      <c r="C16" s="56"/>
+      <c r="D16" s="69"/>
+      <c r="E16" s="56"/>
+      <c r="F16" s="56"/>
+      <c r="G16" s="70"/>
+      <c r="H16" s="72"/>
+      <c r="I16" s="56"/>
+      <c r="J16" s="56"/>
+      <c r="K16" s="69"/>
+      <c r="L16" s="56"/>
+      <c r="M16" s="70"/>
+      <c r="N16" s="69"/>
+      <c r="O16" s="70"/>
+      <c r="P16" s="69"/>
+      <c r="Q16" s="56"/>
+      <c r="R16" s="70"/>
+      <c r="S16" s="69"/>
+      <c r="T16" s="56"/>
+      <c r="U16" s="70"/>
+      <c r="V16" s="72"/>
+      <c r="W16" s="56"/>
+      <c r="X16" s="56"/>
+      <c r="Y16" s="56"/>
+      <c r="Z16" s="56"/>
+      <c r="AA16" s="56"/>
+      <c r="AB16" s="70"/>
+      <c r="AC16" s="71"/>
+      <c r="AD16" s="55"/>
+      <c r="AG16" s="68"/>
     </row>
     <row r="17" spans="1:34" ht="12.75" customHeight="1">
-      <c r="A17" s="82"/>
-      <c r="B17" s="110"/>
-      <c r="C17" s="83"/>
-      <c r="D17" s="110"/>
-      <c r="E17" s="83"/>
-      <c r="F17" s="83"/>
-      <c r="G17" s="111"/>
-      <c r="H17" s="117"/>
-      <c r="I17" s="83"/>
-      <c r="J17" s="83"/>
-      <c r="K17" s="110"/>
-      <c r="L17" s="83"/>
-      <c r="M17" s="111"/>
-      <c r="N17" s="110"/>
-      <c r="O17" s="111"/>
-      <c r="P17" s="110"/>
-      <c r="Q17" s="83"/>
-      <c r="R17" s="111"/>
-      <c r="S17" s="110"/>
-      <c r="T17" s="83"/>
-      <c r="U17" s="111"/>
-      <c r="V17" s="117"/>
-      <c r="W17" s="83"/>
-      <c r="X17" s="83"/>
-      <c r="Y17" s="83"/>
-      <c r="Z17" s="83"/>
-      <c r="AA17" s="83"/>
-      <c r="AB17" s="111"/>
-      <c r="AC17" s="116"/>
-      <c r="AD17" s="82"/>
-      <c r="AG17" s="101"/>
-      <c r="AH17" s="78" t="s">
+      <c r="A17" s="55"/>
+      <c r="B17" s="69"/>
+      <c r="C17" s="56"/>
+      <c r="D17" s="69"/>
+      <c r="E17" s="56"/>
+      <c r="F17" s="56"/>
+      <c r="G17" s="70"/>
+      <c r="H17" s="72"/>
+      <c r="I17" s="56"/>
+      <c r="J17" s="56"/>
+      <c r="K17" s="69"/>
+      <c r="L17" s="56"/>
+      <c r="M17" s="70"/>
+      <c r="N17" s="69"/>
+      <c r="O17" s="70"/>
+      <c r="P17" s="69"/>
+      <c r="Q17" s="56"/>
+      <c r="R17" s="70"/>
+      <c r="S17" s="69"/>
+      <c r="T17" s="56"/>
+      <c r="U17" s="70"/>
+      <c r="V17" s="72"/>
+      <c r="W17" s="56"/>
+      <c r="X17" s="56"/>
+      <c r="Y17" s="56"/>
+      <c r="Z17" s="56"/>
+      <c r="AA17" s="56"/>
+      <c r="AB17" s="70"/>
+      <c r="AC17" s="71"/>
+      <c r="AD17" s="55"/>
+      <c r="AG17" s="68"/>
+      <c r="AH17" s="51" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="18" spans="1:34" ht="12.75" customHeight="1">
-      <c r="A18" s="82"/>
-      <c r="B18" s="110"/>
-      <c r="C18" s="83"/>
-      <c r="D18" s="110"/>
-      <c r="E18" s="83"/>
-      <c r="F18" s="83"/>
-      <c r="G18" s="111"/>
-      <c r="H18" s="117"/>
-      <c r="I18" s="83"/>
-      <c r="J18" s="83"/>
-      <c r="K18" s="110"/>
-      <c r="L18" s="83"/>
-      <c r="M18" s="111"/>
-      <c r="N18" s="110"/>
-      <c r="O18" s="111"/>
-      <c r="P18" s="110"/>
-      <c r="Q18" s="83"/>
-      <c r="R18" s="111"/>
-      <c r="S18" s="110"/>
-      <c r="T18" s="83"/>
-      <c r="U18" s="111"/>
-      <c r="V18" s="117"/>
-      <c r="W18" s="83"/>
-      <c r="X18" s="83"/>
-      <c r="Y18" s="83"/>
-      <c r="Z18" s="83"/>
-      <c r="AA18" s="83"/>
-      <c r="AB18" s="111"/>
-      <c r="AC18" s="116"/>
-      <c r="AD18" s="82"/>
-      <c r="AG18" s="101"/>
-      <c r="AH18" s="78" t="s">
+      <c r="A18" s="55"/>
+      <c r="B18" s="69"/>
+      <c r="C18" s="56"/>
+      <c r="D18" s="69"/>
+      <c r="E18" s="56"/>
+      <c r="F18" s="56"/>
+      <c r="G18" s="70"/>
+      <c r="H18" s="72"/>
+      <c r="I18" s="56"/>
+      <c r="J18" s="56"/>
+      <c r="K18" s="69"/>
+      <c r="L18" s="56"/>
+      <c r="M18" s="70"/>
+      <c r="N18" s="69"/>
+      <c r="O18" s="70"/>
+      <c r="P18" s="69"/>
+      <c r="Q18" s="56"/>
+      <c r="R18" s="70"/>
+      <c r="S18" s="69"/>
+      <c r="T18" s="56"/>
+      <c r="U18" s="70"/>
+      <c r="V18" s="72"/>
+      <c r="W18" s="56"/>
+      <c r="X18" s="56"/>
+      <c r="Y18" s="56"/>
+      <c r="Z18" s="56"/>
+      <c r="AA18" s="56"/>
+      <c r="AB18" s="70"/>
+      <c r="AC18" s="71"/>
+      <c r="AD18" s="55"/>
+      <c r="AG18" s="68"/>
+      <c r="AH18" s="51" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="19" spans="1:34" ht="12.75" customHeight="1">
-      <c r="A19" s="82"/>
-      <c r="B19" s="110"/>
-      <c r="C19" s="83"/>
-      <c r="D19" s="110"/>
-      <c r="E19" s="83"/>
-      <c r="F19" s="83"/>
-      <c r="G19" s="111"/>
-      <c r="H19" s="117"/>
-      <c r="I19" s="83"/>
-      <c r="J19" s="83"/>
-      <c r="K19" s="110"/>
-      <c r="L19" s="83"/>
-      <c r="M19" s="111"/>
-      <c r="N19" s="110"/>
-      <c r="O19" s="111"/>
-      <c r="P19" s="110"/>
-      <c r="Q19" s="83"/>
-      <c r="R19" s="111"/>
-      <c r="S19" s="110"/>
-      <c r="T19" s="83"/>
-      <c r="U19" s="111"/>
-      <c r="V19" s="117"/>
-      <c r="W19" s="83"/>
-      <c r="X19" s="83"/>
-      <c r="Y19" s="83"/>
-      <c r="Z19" s="83"/>
-      <c r="AA19" s="83"/>
-      <c r="AB19" s="111"/>
-      <c r="AC19" s="116"/>
-      <c r="AD19" s="82"/>
-      <c r="AG19" s="101"/>
-      <c r="AH19" s="78" t="s">
+      <c r="A19" s="55"/>
+      <c r="B19" s="69"/>
+      <c r="C19" s="56"/>
+      <c r="D19" s="69"/>
+      <c r="E19" s="56"/>
+      <c r="F19" s="56"/>
+      <c r="G19" s="70"/>
+      <c r="H19" s="72"/>
+      <c r="I19" s="56"/>
+      <c r="J19" s="56"/>
+      <c r="K19" s="69"/>
+      <c r="L19" s="56"/>
+      <c r="M19" s="70"/>
+      <c r="N19" s="69"/>
+      <c r="O19" s="70"/>
+      <c r="P19" s="69"/>
+      <c r="Q19" s="56"/>
+      <c r="R19" s="70"/>
+      <c r="S19" s="69"/>
+      <c r="T19" s="56"/>
+      <c r="U19" s="70"/>
+      <c r="V19" s="72"/>
+      <c r="W19" s="56"/>
+      <c r="X19" s="56"/>
+      <c r="Y19" s="56"/>
+      <c r="Z19" s="56"/>
+      <c r="AA19" s="56"/>
+      <c r="AB19" s="70"/>
+      <c r="AC19" s="71"/>
+      <c r="AD19" s="55"/>
+      <c r="AG19" s="68"/>
+      <c r="AH19" s="51" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="20" spans="1:34" ht="12.75" customHeight="1">
-      <c r="A20" s="82"/>
-      <c r="B20" s="110"/>
-      <c r="C20" s="83"/>
-      <c r="D20" s="110"/>
-      <c r="E20" s="83"/>
-      <c r="F20" s="83"/>
-      <c r="G20" s="111"/>
-      <c r="H20" s="117"/>
-      <c r="I20" s="83"/>
-      <c r="J20" s="83"/>
-      <c r="K20" s="110"/>
-      <c r="L20" s="83"/>
-      <c r="M20" s="111"/>
-      <c r="N20" s="110"/>
-      <c r="O20" s="111"/>
-      <c r="P20" s="110"/>
-      <c r="Q20" s="83"/>
-      <c r="R20" s="111"/>
-      <c r="S20" s="110"/>
-      <c r="T20" s="83"/>
-      <c r="U20" s="111"/>
-      <c r="V20" s="117"/>
-      <c r="W20" s="83"/>
-      <c r="X20" s="83"/>
-      <c r="Y20" s="83"/>
-      <c r="Z20" s="83"/>
-      <c r="AA20" s="83"/>
-      <c r="AB20" s="111"/>
-      <c r="AC20" s="116"/>
-      <c r="AD20" s="82"/>
-      <c r="AG20" s="101"/>
+      <c r="A20" s="55"/>
+      <c r="B20" s="69"/>
+      <c r="C20" s="56"/>
+      <c r="D20" s="69"/>
+      <c r="E20" s="56"/>
+      <c r="F20" s="56"/>
+      <c r="G20" s="70"/>
+      <c r="H20" s="72"/>
+      <c r="I20" s="56"/>
+      <c r="J20" s="56"/>
+      <c r="K20" s="69"/>
+      <c r="L20" s="56"/>
+      <c r="M20" s="70"/>
+      <c r="N20" s="69"/>
+      <c r="O20" s="70"/>
+      <c r="P20" s="69"/>
+      <c r="Q20" s="56"/>
+      <c r="R20" s="70"/>
+      <c r="S20" s="69"/>
+      <c r="T20" s="56"/>
+      <c r="U20" s="70"/>
+      <c r="V20" s="72"/>
+      <c r="W20" s="56"/>
+      <c r="X20" s="56"/>
+      <c r="Y20" s="56"/>
+      <c r="Z20" s="56"/>
+      <c r="AA20" s="56"/>
+      <c r="AB20" s="70"/>
+      <c r="AC20" s="71"/>
+      <c r="AD20" s="55"/>
+      <c r="AG20" s="68"/>
     </row>
     <row r="21" spans="1:34" ht="12.75" customHeight="1">
-      <c r="A21" s="82"/>
-      <c r="B21" s="110"/>
-      <c r="C21" s="83"/>
-      <c r="D21" s="110"/>
-      <c r="E21" s="83"/>
-      <c r="F21" s="83"/>
-      <c r="G21" s="111"/>
-      <c r="H21" s="117"/>
-      <c r="I21" s="83"/>
-      <c r="J21" s="83"/>
-      <c r="K21" s="110"/>
-      <c r="L21" s="83"/>
-      <c r="M21" s="111"/>
-      <c r="N21" s="110"/>
-      <c r="O21" s="111"/>
-      <c r="P21" s="110"/>
-      <c r="Q21" s="83"/>
-      <c r="R21" s="111"/>
-      <c r="S21" s="110"/>
-      <c r="T21" s="83"/>
-      <c r="U21" s="111"/>
-      <c r="V21" s="117"/>
-      <c r="W21" s="83"/>
-      <c r="X21" s="83"/>
-      <c r="Y21" s="83"/>
-      <c r="Z21" s="83"/>
-      <c r="AA21" s="83"/>
-      <c r="AB21" s="111"/>
-      <c r="AC21" s="116"/>
-      <c r="AD21" s="82"/>
-      <c r="AG21" s="101"/>
+      <c r="A21" s="55"/>
+      <c r="B21" s="69"/>
+      <c r="C21" s="56"/>
+      <c r="D21" s="69"/>
+      <c r="E21" s="56"/>
+      <c r="F21" s="56"/>
+      <c r="G21" s="70"/>
+      <c r="H21" s="72"/>
+      <c r="I21" s="56"/>
+      <c r="J21" s="56"/>
+      <c r="K21" s="69"/>
+      <c r="L21" s="56"/>
+      <c r="M21" s="70"/>
+      <c r="N21" s="69"/>
+      <c r="O21" s="70"/>
+      <c r="P21" s="69"/>
+      <c r="Q21" s="56"/>
+      <c r="R21" s="70"/>
+      <c r="S21" s="69"/>
+      <c r="T21" s="56"/>
+      <c r="U21" s="70"/>
+      <c r="V21" s="72"/>
+      <c r="W21" s="56"/>
+      <c r="X21" s="56"/>
+      <c r="Y21" s="56"/>
+      <c r="Z21" s="56"/>
+      <c r="AA21" s="56"/>
+      <c r="AB21" s="70"/>
+      <c r="AC21" s="71"/>
+      <c r="AD21" s="55"/>
+      <c r="AG21" s="68"/>
     </row>
     <row r="22" spans="1:34" ht="12.75" customHeight="1">
-      <c r="A22" s="82"/>
-      <c r="B22" s="110"/>
-      <c r="C22" s="83"/>
-      <c r="D22" s="110"/>
-      <c r="E22" s="83"/>
-      <c r="F22" s="83"/>
-      <c r="G22" s="111"/>
-      <c r="H22" s="117"/>
-      <c r="I22" s="83"/>
-      <c r="J22" s="83"/>
-      <c r="K22" s="110"/>
-      <c r="L22" s="83"/>
-      <c r="M22" s="111"/>
-      <c r="N22" s="110"/>
-      <c r="O22" s="111"/>
-      <c r="P22" s="110"/>
-      <c r="Q22" s="83"/>
-      <c r="R22" s="111"/>
-      <c r="S22" s="110"/>
-      <c r="T22" s="83"/>
-      <c r="U22" s="111"/>
-      <c r="V22" s="117"/>
-      <c r="W22" s="83"/>
-      <c r="X22" s="83"/>
-      <c r="Y22" s="83"/>
-      <c r="Z22" s="83"/>
-      <c r="AA22" s="83"/>
-      <c r="AB22" s="111"/>
-      <c r="AC22" s="116"/>
-      <c r="AD22" s="82"/>
-      <c r="AG22" s="101"/>
-      <c r="AH22" s="78" t="s">
+      <c r="A22" s="55"/>
+      <c r="B22" s="69"/>
+      <c r="C22" s="56"/>
+      <c r="D22" s="69"/>
+      <c r="E22" s="56"/>
+      <c r="F22" s="56"/>
+      <c r="G22" s="70"/>
+      <c r="H22" s="72"/>
+      <c r="I22" s="56"/>
+      <c r="J22" s="56"/>
+      <c r="K22" s="69"/>
+      <c r="L22" s="56"/>
+      <c r="M22" s="70"/>
+      <c r="N22" s="69"/>
+      <c r="O22" s="70"/>
+      <c r="P22" s="69"/>
+      <c r="Q22" s="56"/>
+      <c r="R22" s="70"/>
+      <c r="S22" s="69"/>
+      <c r="T22" s="56"/>
+      <c r="U22" s="70"/>
+      <c r="V22" s="72"/>
+      <c r="W22" s="56"/>
+      <c r="X22" s="56"/>
+      <c r="Y22" s="56"/>
+      <c r="Z22" s="56"/>
+      <c r="AA22" s="56"/>
+      <c r="AB22" s="70"/>
+      <c r="AC22" s="71"/>
+      <c r="AD22" s="55"/>
+      <c r="AG22" s="68"/>
+      <c r="AH22" s="51" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="23" spans="1:34" ht="12.75" customHeight="1">
-      <c r="A23" s="82"/>
-      <c r="B23" s="110"/>
-      <c r="C23" s="83"/>
-      <c r="D23" s="110"/>
-      <c r="E23" s="83"/>
-      <c r="F23" s="83"/>
-      <c r="G23" s="111"/>
-      <c r="H23" s="117"/>
-      <c r="I23" s="83"/>
-      <c r="J23" s="83"/>
-      <c r="K23" s="110"/>
-      <c r="L23" s="83"/>
-      <c r="M23" s="111"/>
-      <c r="N23" s="110"/>
-      <c r="O23" s="111"/>
-      <c r="P23" s="110"/>
-      <c r="Q23" s="83"/>
-      <c r="R23" s="111"/>
-      <c r="S23" s="110"/>
-      <c r="T23" s="83"/>
-      <c r="U23" s="111"/>
-      <c r="V23" s="117"/>
-      <c r="W23" s="83"/>
-      <c r="X23" s="83"/>
-      <c r="Y23" s="83"/>
-      <c r="Z23" s="83"/>
-      <c r="AA23" s="83"/>
-      <c r="AB23" s="111"/>
-      <c r="AC23" s="116"/>
-      <c r="AD23" s="82"/>
-      <c r="AG23" s="101"/>
-      <c r="AH23" s="78" t="s">
+      <c r="A23" s="55"/>
+      <c r="B23" s="69"/>
+      <c r="C23" s="56"/>
+      <c r="D23" s="69"/>
+      <c r="E23" s="56"/>
+      <c r="F23" s="56"/>
+      <c r="G23" s="70"/>
+      <c r="H23" s="72"/>
+      <c r="I23" s="56"/>
+      <c r="J23" s="56"/>
+      <c r="K23" s="69"/>
+      <c r="L23" s="56"/>
+      <c r="M23" s="70"/>
+      <c r="N23" s="69"/>
+      <c r="O23" s="70"/>
+      <c r="P23" s="69"/>
+      <c r="Q23" s="56"/>
+      <c r="R23" s="70"/>
+      <c r="S23" s="69"/>
+      <c r="T23" s="56"/>
+      <c r="U23" s="70"/>
+      <c r="V23" s="72"/>
+      <c r="W23" s="56"/>
+      <c r="X23" s="56"/>
+      <c r="Y23" s="56"/>
+      <c r="Z23" s="56"/>
+      <c r="AA23" s="56"/>
+      <c r="AB23" s="70"/>
+      <c r="AC23" s="71"/>
+      <c r="AD23" s="55"/>
+      <c r="AG23" s="68"/>
+      <c r="AH23" s="51" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="24" spans="1:34" ht="12.75" customHeight="1">
-      <c r="A24" s="82"/>
-      <c r="B24" s="110"/>
-      <c r="C24" s="83"/>
-      <c r="D24" s="110"/>
-      <c r="E24" s="83"/>
-      <c r="F24" s="83"/>
-      <c r="G24" s="118"/>
-      <c r="H24" s="117"/>
-      <c r="I24" s="83"/>
-      <c r="J24" s="83"/>
-      <c r="K24" s="110"/>
-      <c r="L24" s="83"/>
-      <c r="M24" s="111"/>
-      <c r="N24" s="110"/>
-      <c r="O24" s="111"/>
-      <c r="P24" s="110"/>
-      <c r="Q24" s="83"/>
-      <c r="R24" s="111"/>
-      <c r="S24" s="110"/>
-      <c r="T24" s="83"/>
-      <c r="U24" s="111"/>
-      <c r="V24" s="117"/>
-      <c r="W24" s="83"/>
-      <c r="X24" s="83"/>
-      <c r="Y24" s="83"/>
-      <c r="Z24" s="83"/>
-      <c r="AA24" s="83"/>
-      <c r="AB24" s="111"/>
-      <c r="AC24" s="116"/>
-      <c r="AD24" s="82"/>
-      <c r="AG24" s="101"/>
+      <c r="A24" s="55"/>
+      <c r="B24" s="69"/>
+      <c r="C24" s="56"/>
+      <c r="D24" s="69"/>
+      <c r="E24" s="56"/>
+      <c r="F24" s="56"/>
+      <c r="G24" s="73"/>
+      <c r="H24" s="72"/>
+      <c r="I24" s="56"/>
+      <c r="J24" s="56"/>
+      <c r="K24" s="69"/>
+      <c r="L24" s="56"/>
+      <c r="M24" s="70"/>
+      <c r="N24" s="69"/>
+      <c r="O24" s="70"/>
+      <c r="P24" s="69"/>
+      <c r="Q24" s="56"/>
+      <c r="R24" s="70"/>
+      <c r="S24" s="69"/>
+      <c r="T24" s="56"/>
+      <c r="U24" s="70"/>
+      <c r="V24" s="72"/>
+      <c r="W24" s="56"/>
+      <c r="X24" s="56"/>
+      <c r="Y24" s="56"/>
+      <c r="Z24" s="56"/>
+      <c r="AA24" s="56"/>
+      <c r="AB24" s="70"/>
+      <c r="AC24" s="71"/>
+      <c r="AD24" s="55"/>
+      <c r="AG24" s="68"/>
     </row>
     <row r="25" spans="1:34" ht="12.75" customHeight="1">
-      <c r="A25" s="82"/>
-      <c r="B25" s="110"/>
-      <c r="C25" s="83"/>
-      <c r="D25" s="110"/>
-      <c r="E25" s="83"/>
-      <c r="F25" s="83"/>
-      <c r="G25" s="118"/>
-      <c r="H25" s="117"/>
-      <c r="I25" s="83"/>
-      <c r="J25" s="83"/>
-      <c r="K25" s="110"/>
-      <c r="L25" s="83"/>
-      <c r="M25" s="111"/>
-      <c r="N25" s="110"/>
-      <c r="O25" s="111"/>
-      <c r="P25" s="110"/>
-      <c r="Q25" s="83"/>
-      <c r="R25" s="111"/>
-      <c r="S25" s="110"/>
-      <c r="T25" s="83"/>
-      <c r="U25" s="111"/>
-      <c r="V25" s="117"/>
-      <c r="W25" s="83"/>
-      <c r="X25" s="83"/>
-      <c r="Y25" s="83"/>
-      <c r="Z25" s="83"/>
-      <c r="AA25" s="83"/>
-      <c r="AB25" s="111"/>
-      <c r="AC25" s="116"/>
-      <c r="AD25" s="82"/>
-      <c r="AG25" s="101"/>
-      <c r="AH25" s="78" t="s">
+      <c r="A25" s="55"/>
+      <c r="B25" s="69"/>
+      <c r="C25" s="56"/>
+      <c r="D25" s="69"/>
+      <c r="E25" s="56"/>
+      <c r="F25" s="56"/>
+      <c r="G25" s="73"/>
+      <c r="H25" s="72"/>
+      <c r="I25" s="56"/>
+      <c r="J25" s="56"/>
+      <c r="K25" s="69"/>
+      <c r="L25" s="56"/>
+      <c r="M25" s="70"/>
+      <c r="N25" s="69"/>
+      <c r="O25" s="70"/>
+      <c r="P25" s="69"/>
+      <c r="Q25" s="56"/>
+      <c r="R25" s="70"/>
+      <c r="S25" s="69"/>
+      <c r="T25" s="56"/>
+      <c r="U25" s="70"/>
+      <c r="V25" s="72"/>
+      <c r="W25" s="56"/>
+      <c r="X25" s="56"/>
+      <c r="Y25" s="56"/>
+      <c r="Z25" s="56"/>
+      <c r="AA25" s="56"/>
+      <c r="AB25" s="70"/>
+      <c r="AC25" s="71"/>
+      <c r="AD25" s="55"/>
+      <c r="AG25" s="68"/>
+      <c r="AH25" s="51" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="26" spans="1:34" ht="12.75" customHeight="1">
-      <c r="A26" s="82"/>
-      <c r="B26" s="110"/>
-      <c r="C26" s="83"/>
-      <c r="D26" s="110"/>
-      <c r="E26" s="83"/>
-      <c r="F26" s="83"/>
-      <c r="G26" s="118"/>
-      <c r="H26" s="117"/>
-      <c r="I26" s="83"/>
-      <c r="J26" s="83"/>
-      <c r="K26" s="110"/>
-      <c r="L26" s="83"/>
-      <c r="M26" s="111"/>
-      <c r="N26" s="110"/>
-      <c r="O26" s="111"/>
-      <c r="P26" s="110"/>
-      <c r="Q26" s="83"/>
-      <c r="R26" s="111"/>
-      <c r="S26" s="110"/>
-      <c r="T26" s="83"/>
-      <c r="U26" s="111"/>
-      <c r="V26" s="117"/>
-      <c r="W26" s="83"/>
-      <c r="X26" s="83"/>
-      <c r="Y26" s="83"/>
-      <c r="Z26" s="83"/>
-      <c r="AA26" s="83"/>
-      <c r="AB26" s="111"/>
-      <c r="AC26" s="116"/>
-      <c r="AD26" s="82"/>
-      <c r="AG26" s="101"/>
-      <c r="AH26" s="78" t="s">
+      <c r="A26" s="55"/>
+      <c r="B26" s="69"/>
+      <c r="C26" s="56"/>
+      <c r="D26" s="69"/>
+      <c r="E26" s="56"/>
+      <c r="F26" s="56"/>
+      <c r="G26" s="73"/>
+      <c r="H26" s="72"/>
+      <c r="I26" s="56"/>
+      <c r="J26" s="56"/>
+      <c r="K26" s="69"/>
+      <c r="L26" s="56"/>
+      <c r="M26" s="70"/>
+      <c r="N26" s="69"/>
+      <c r="O26" s="70"/>
+      <c r="P26" s="69"/>
+      <c r="Q26" s="56"/>
+      <c r="R26" s="70"/>
+      <c r="S26" s="69"/>
+      <c r="T26" s="56"/>
+      <c r="U26" s="70"/>
+      <c r="V26" s="72"/>
+      <c r="W26" s="56"/>
+      <c r="X26" s="56"/>
+      <c r="Y26" s="56"/>
+      <c r="Z26" s="56"/>
+      <c r="AA26" s="56"/>
+      <c r="AB26" s="70"/>
+      <c r="AC26" s="71"/>
+      <c r="AD26" s="55"/>
+      <c r="AG26" s="68"/>
+      <c r="AH26" s="51" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="27" spans="1:34" ht="12.75" customHeight="1">
-      <c r="A27" s="82"/>
-      <c r="B27" s="110"/>
-      <c r="C27" s="83"/>
-      <c r="D27" s="110"/>
-      <c r="E27" s="83"/>
-      <c r="F27" s="83"/>
-      <c r="G27" s="118"/>
-      <c r="H27" s="117"/>
-      <c r="I27" s="83"/>
-      <c r="J27" s="83"/>
-      <c r="K27" s="110"/>
-      <c r="L27" s="83"/>
-      <c r="M27" s="111"/>
-      <c r="N27" s="110"/>
-      <c r="O27" s="111"/>
-      <c r="P27" s="110"/>
-      <c r="Q27" s="83"/>
-      <c r="R27" s="111"/>
-      <c r="S27" s="110"/>
-      <c r="T27" s="83"/>
-      <c r="U27" s="111"/>
-      <c r="V27" s="117"/>
-      <c r="W27" s="83"/>
-      <c r="X27" s="83"/>
-      <c r="Y27" s="83"/>
-      <c r="Z27" s="83"/>
-      <c r="AA27" s="83"/>
-      <c r="AB27" s="111"/>
-      <c r="AC27" s="116"/>
-      <c r="AD27" s="82"/>
-      <c r="AG27" s="101"/>
+      <c r="A27" s="55"/>
+      <c r="B27" s="69"/>
+      <c r="C27" s="56"/>
+      <c r="D27" s="69"/>
+      <c r="E27" s="56"/>
+      <c r="F27" s="56"/>
+      <c r="G27" s="73"/>
+      <c r="H27" s="72"/>
+      <c r="I27" s="56"/>
+      <c r="J27" s="56"/>
+      <c r="K27" s="69"/>
+      <c r="L27" s="56"/>
+      <c r="M27" s="70"/>
+      <c r="N27" s="69"/>
+      <c r="O27" s="70"/>
+      <c r="P27" s="69"/>
+      <c r="Q27" s="56"/>
+      <c r="R27" s="70"/>
+      <c r="S27" s="69"/>
+      <c r="T27" s="56"/>
+      <c r="U27" s="70"/>
+      <c r="V27" s="72"/>
+      <c r="W27" s="56"/>
+      <c r="X27" s="56"/>
+      <c r="Y27" s="56"/>
+      <c r="Z27" s="56"/>
+      <c r="AA27" s="56"/>
+      <c r="AB27" s="70"/>
+      <c r="AC27" s="71"/>
+      <c r="AD27" s="55"/>
+      <c r="AG27" s="68"/>
     </row>
     <row r="28" spans="1:34" ht="12.75" customHeight="1">
-      <c r="A28" s="82"/>
-      <c r="B28" s="110"/>
-      <c r="C28" s="83"/>
-      <c r="D28" s="110"/>
-      <c r="E28" s="83"/>
-      <c r="F28" s="83"/>
-      <c r="G28" s="118"/>
-      <c r="H28" s="117"/>
-      <c r="I28" s="83"/>
-      <c r="J28" s="83"/>
-      <c r="K28" s="110"/>
-      <c r="L28" s="83"/>
-      <c r="M28" s="111"/>
-      <c r="N28" s="110"/>
-      <c r="O28" s="111"/>
-      <c r="P28" s="110"/>
-      <c r="Q28" s="83"/>
-      <c r="R28" s="111"/>
-      <c r="S28" s="110"/>
-      <c r="T28" s="83"/>
-      <c r="U28" s="111"/>
-      <c r="V28" s="117"/>
-      <c r="W28" s="83"/>
-      <c r="X28" s="83"/>
-      <c r="Y28" s="83"/>
-      <c r="Z28" s="83"/>
-      <c r="AA28" s="83"/>
-      <c r="AB28" s="111"/>
-      <c r="AC28" s="116"/>
-      <c r="AD28" s="82"/>
-      <c r="AG28" s="101"/>
-      <c r="AH28" s="78" t="s">
+      <c r="A28" s="55"/>
+      <c r="B28" s="69"/>
+      <c r="C28" s="56"/>
+      <c r="D28" s="69"/>
+      <c r="E28" s="56"/>
+      <c r="F28" s="56"/>
+      <c r="G28" s="73"/>
+      <c r="H28" s="72"/>
+      <c r="I28" s="56"/>
+      <c r="J28" s="56"/>
+      <c r="K28" s="69"/>
+      <c r="L28" s="56"/>
+      <c r="M28" s="70"/>
+      <c r="N28" s="69"/>
+      <c r="O28" s="70"/>
+      <c r="P28" s="69"/>
+      <c r="Q28" s="56"/>
+      <c r="R28" s="70"/>
+      <c r="S28" s="69"/>
+      <c r="T28" s="56"/>
+      <c r="U28" s="70"/>
+      <c r="V28" s="72"/>
+      <c r="W28" s="56"/>
+      <c r="X28" s="56"/>
+      <c r="Y28" s="56"/>
+      <c r="Z28" s="56"/>
+      <c r="AA28" s="56"/>
+      <c r="AB28" s="70"/>
+      <c r="AC28" s="71"/>
+      <c r="AD28" s="55"/>
+      <c r="AG28" s="68"/>
+      <c r="AH28" s="51" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="29" spans="1:34" ht="12.75" customHeight="1">
-      <c r="A29" s="82"/>
-      <c r="B29" s="110"/>
-      <c r="C29" s="83"/>
-      <c r="D29" s="110"/>
-      <c r="E29" s="83"/>
-      <c r="F29" s="83"/>
-      <c r="G29" s="118"/>
-      <c r="H29" s="117"/>
-      <c r="I29" s="83"/>
-      <c r="J29" s="83"/>
-      <c r="K29" s="110"/>
-      <c r="L29" s="83"/>
-      <c r="M29" s="111"/>
-      <c r="N29" s="110"/>
-      <c r="O29" s="111"/>
-      <c r="P29" s="110"/>
-      <c r="Q29" s="83"/>
-      <c r="R29" s="111"/>
-      <c r="S29" s="110"/>
-      <c r="T29" s="83"/>
-      <c r="U29" s="111"/>
-      <c r="V29" s="117"/>
-      <c r="W29" s="83"/>
-      <c r="X29" s="83"/>
-      <c r="Y29" s="83"/>
-      <c r="Z29" s="83"/>
-      <c r="AA29" s="83"/>
-      <c r="AB29" s="111"/>
-      <c r="AC29" s="116"/>
-      <c r="AD29" s="82"/>
-      <c r="AG29" s="101"/>
-      <c r="AH29" s="78" t="s">
+      <c r="A29" s="55"/>
+      <c r="B29" s="69"/>
+      <c r="C29" s="56"/>
+      <c r="D29" s="69"/>
+      <c r="E29" s="56"/>
+      <c r="F29" s="56"/>
+      <c r="G29" s="73"/>
+      <c r="H29" s="72"/>
+      <c r="I29" s="56"/>
+      <c r="J29" s="56"/>
+      <c r="K29" s="69"/>
+      <c r="L29" s="56"/>
+      <c r="M29" s="70"/>
+      <c r="N29" s="69"/>
+      <c r="O29" s="70"/>
+      <c r="P29" s="69"/>
+      <c r="Q29" s="56"/>
+      <c r="R29" s="70"/>
+      <c r="S29" s="69"/>
+      <c r="T29" s="56"/>
+      <c r="U29" s="70"/>
+      <c r="V29" s="72"/>
+      <c r="W29" s="56"/>
+      <c r="X29" s="56"/>
+      <c r="Y29" s="56"/>
+      <c r="Z29" s="56"/>
+      <c r="AA29" s="56"/>
+      <c r="AB29" s="70"/>
+      <c r="AC29" s="71"/>
+      <c r="AD29" s="55"/>
+      <c r="AG29" s="68"/>
+      <c r="AH29" s="51" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="30" spans="1:34" ht="12.75" customHeight="1">
-      <c r="A30" s="82"/>
-      <c r="B30" s="110"/>
-      <c r="C30" s="83"/>
-      <c r="D30" s="110"/>
-      <c r="E30" s="83"/>
-      <c r="F30" s="83"/>
-      <c r="G30" s="118"/>
-      <c r="H30" s="117"/>
-      <c r="I30" s="83"/>
-      <c r="J30" s="83"/>
-      <c r="K30" s="110"/>
-      <c r="L30" s="83"/>
-      <c r="M30" s="111"/>
-      <c r="N30" s="110"/>
-      <c r="O30" s="111"/>
-      <c r="P30" s="110"/>
-      <c r="Q30" s="83"/>
-      <c r="R30" s="111"/>
-      <c r="S30" s="110"/>
-      <c r="T30" s="83"/>
-      <c r="U30" s="111"/>
-      <c r="V30" s="117"/>
-      <c r="W30" s="83"/>
-      <c r="X30" s="83"/>
-      <c r="Y30" s="83"/>
-      <c r="Z30" s="83"/>
-      <c r="AA30" s="83"/>
-      <c r="AB30" s="111"/>
-      <c r="AC30" s="116"/>
-      <c r="AD30" s="82"/>
-      <c r="AG30" s="101"/>
+      <c r="A30" s="55"/>
+      <c r="B30" s="69"/>
+      <c r="C30" s="56"/>
+      <c r="D30" s="69"/>
+      <c r="E30" s="56"/>
+      <c r="F30" s="56"/>
+      <c r="G30" s="73"/>
+      <c r="H30" s="72"/>
+      <c r="I30" s="56"/>
+      <c r="J30" s="56"/>
+      <c r="K30" s="69"/>
+      <c r="L30" s="56"/>
+      <c r="M30" s="70"/>
+      <c r="N30" s="69"/>
+      <c r="O30" s="70"/>
+      <c r="P30" s="69"/>
+      <c r="Q30" s="56"/>
+      <c r="R30" s="70"/>
+      <c r="S30" s="69"/>
+      <c r="T30" s="56"/>
+      <c r="U30" s="70"/>
+      <c r="V30" s="72"/>
+      <c r="W30" s="56"/>
+      <c r="X30" s="56"/>
+      <c r="Y30" s="56"/>
+      <c r="Z30" s="56"/>
+      <c r="AA30" s="56"/>
+      <c r="AB30" s="70"/>
+      <c r="AC30" s="71"/>
+      <c r="AD30" s="55"/>
+      <c r="AG30" s="68"/>
     </row>
     <row r="31" spans="1:34" ht="12.75" customHeight="1">
-      <c r="A31" s="82"/>
-      <c r="B31" s="110"/>
-      <c r="C31" s="83"/>
-      <c r="D31" s="110"/>
-      <c r="E31" s="83"/>
-      <c r="F31" s="83"/>
-      <c r="G31" s="118"/>
-      <c r="H31" s="117"/>
-      <c r="I31" s="83"/>
-      <c r="J31" s="83"/>
-      <c r="K31" s="110"/>
-      <c r="L31" s="83"/>
-      <c r="M31" s="111"/>
-      <c r="N31" s="110"/>
-      <c r="O31" s="111"/>
-      <c r="P31" s="110"/>
-      <c r="Q31" s="83"/>
-      <c r="R31" s="111"/>
-      <c r="S31" s="110"/>
-      <c r="T31" s="83"/>
-      <c r="U31" s="111"/>
-      <c r="V31" s="117"/>
-      <c r="W31" s="83"/>
-      <c r="X31" s="83"/>
-      <c r="Y31" s="83"/>
-      <c r="Z31" s="83"/>
-      <c r="AA31" s="83"/>
-      <c r="AB31" s="111"/>
-      <c r="AC31" s="116"/>
-      <c r="AD31" s="82"/>
-      <c r="AG31" s="101"/>
+      <c r="A31" s="55"/>
+      <c r="B31" s="69"/>
+      <c r="C31" s="56"/>
+      <c r="D31" s="69"/>
+      <c r="E31" s="56"/>
+      <c r="F31" s="56"/>
+      <c r="G31" s="73"/>
+      <c r="H31" s="72"/>
+      <c r="I31" s="56"/>
+      <c r="J31" s="56"/>
+      <c r="K31" s="69"/>
+      <c r="L31" s="56"/>
+      <c r="M31" s="70"/>
+      <c r="N31" s="69"/>
+      <c r="O31" s="70"/>
+      <c r="P31" s="69"/>
+      <c r="Q31" s="56"/>
+      <c r="R31" s="70"/>
+      <c r="S31" s="69"/>
+      <c r="T31" s="56"/>
+      <c r="U31" s="70"/>
+      <c r="V31" s="72"/>
+      <c r="W31" s="56"/>
+      <c r="X31" s="56"/>
+      <c r="Y31" s="56"/>
+      <c r="Z31" s="56"/>
+      <c r="AA31" s="56"/>
+      <c r="AB31" s="70"/>
+      <c r="AC31" s="71"/>
+      <c r="AD31" s="55"/>
+      <c r="AG31" s="68"/>
     </row>
     <row r="32" spans="1:34" ht="12.75" customHeight="1">
-      <c r="A32" s="82"/>
-      <c r="B32" s="110"/>
-      <c r="C32" s="83"/>
-      <c r="D32" s="110"/>
-      <c r="E32" s="83"/>
-      <c r="F32" s="83"/>
-      <c r="G32" s="118"/>
-      <c r="H32" s="117"/>
-      <c r="I32" s="83"/>
-      <c r="J32" s="83"/>
-      <c r="K32" s="110"/>
-      <c r="L32" s="83"/>
-      <c r="M32" s="111"/>
-      <c r="N32" s="110"/>
-      <c r="O32" s="111"/>
-      <c r="P32" s="110"/>
-      <c r="Q32" s="83"/>
-      <c r="R32" s="111"/>
-      <c r="S32" s="110"/>
-      <c r="T32" s="83"/>
-      <c r="U32" s="111"/>
-      <c r="V32" s="117"/>
-      <c r="W32" s="83"/>
-      <c r="X32" s="83"/>
-      <c r="Y32" s="83"/>
-      <c r="Z32" s="83"/>
-      <c r="AA32" s="83"/>
-      <c r="AB32" s="111"/>
-      <c r="AC32" s="116"/>
-      <c r="AD32" s="82"/>
-      <c r="AG32" s="101"/>
+      <c r="A32" s="55"/>
+      <c r="B32" s="69"/>
+      <c r="C32" s="56"/>
+      <c r="D32" s="69"/>
+      <c r="E32" s="56"/>
+      <c r="F32" s="56"/>
+      <c r="G32" s="73"/>
+      <c r="H32" s="72"/>
+      <c r="I32" s="56"/>
+      <c r="J32" s="56"/>
+      <c r="K32" s="69"/>
+      <c r="L32" s="56"/>
+      <c r="M32" s="70"/>
+      <c r="N32" s="69"/>
+      <c r="O32" s="70"/>
+      <c r="P32" s="69"/>
+      <c r="Q32" s="56"/>
+      <c r="R32" s="70"/>
+      <c r="S32" s="69"/>
+      <c r="T32" s="56"/>
+      <c r="U32" s="70"/>
+      <c r="V32" s="72"/>
+      <c r="W32" s="56"/>
+      <c r="X32" s="56"/>
+      <c r="Y32" s="56"/>
+      <c r="Z32" s="56"/>
+      <c r="AA32" s="56"/>
+      <c r="AB32" s="70"/>
+      <c r="AC32" s="71"/>
+      <c r="AD32" s="55"/>
+      <c r="AG32" s="68"/>
     </row>
     <row r="33" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A33" s="82"/>
-      <c r="B33" s="110"/>
-      <c r="C33" s="83"/>
-      <c r="D33" s="110"/>
-      <c r="E33" s="83"/>
-      <c r="F33" s="83"/>
-      <c r="G33" s="118"/>
-      <c r="H33" s="117"/>
-      <c r="I33" s="83"/>
-      <c r="J33" s="83"/>
-      <c r="K33" s="110"/>
-      <c r="L33" s="83"/>
-      <c r="M33" s="111"/>
-      <c r="N33" s="110"/>
-      <c r="O33" s="111"/>
-      <c r="P33" s="110"/>
-      <c r="Q33" s="83"/>
-      <c r="R33" s="111"/>
-      <c r="S33" s="110"/>
-      <c r="T33" s="83"/>
-      <c r="U33" s="111"/>
-      <c r="V33" s="117"/>
-      <c r="W33" s="83"/>
-      <c r="X33" s="83"/>
-      <c r="Y33" s="83"/>
-      <c r="Z33" s="83"/>
-      <c r="AA33" s="83"/>
-      <c r="AB33" s="111"/>
-      <c r="AC33" s="116"/>
-      <c r="AD33" s="82"/>
-      <c r="AG33" s="101"/>
+      <c r="A33" s="55"/>
+      <c r="B33" s="69"/>
+      <c r="C33" s="56"/>
+      <c r="D33" s="69"/>
+      <c r="E33" s="56"/>
+      <c r="F33" s="56"/>
+      <c r="G33" s="73"/>
+      <c r="H33" s="72"/>
+      <c r="I33" s="56"/>
+      <c r="J33" s="56"/>
+      <c r="K33" s="69"/>
+      <c r="L33" s="56"/>
+      <c r="M33" s="70"/>
+      <c r="N33" s="69"/>
+      <c r="O33" s="70"/>
+      <c r="P33" s="69"/>
+      <c r="Q33" s="56"/>
+      <c r="R33" s="70"/>
+      <c r="S33" s="69"/>
+      <c r="T33" s="56"/>
+      <c r="U33" s="70"/>
+      <c r="V33" s="72"/>
+      <c r="W33" s="56"/>
+      <c r="X33" s="56"/>
+      <c r="Y33" s="56"/>
+      <c r="Z33" s="56"/>
+      <c r="AA33" s="56"/>
+      <c r="AB33" s="70"/>
+      <c r="AC33" s="71"/>
+      <c r="AD33" s="55"/>
+      <c r="AG33" s="68"/>
     </row>
     <row r="34" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A34" s="82"/>
-      <c r="B34" s="110"/>
-      <c r="C34" s="83"/>
-      <c r="D34" s="110"/>
-      <c r="E34" s="83"/>
-      <c r="F34" s="83"/>
-      <c r="G34" s="118"/>
-      <c r="H34" s="117"/>
-      <c r="I34" s="83"/>
-      <c r="J34" s="83"/>
-      <c r="K34" s="110"/>
-      <c r="L34" s="83"/>
-      <c r="M34" s="111"/>
-      <c r="N34" s="110"/>
-      <c r="O34" s="111"/>
-      <c r="P34" s="110"/>
-      <c r="Q34" s="83"/>
-      <c r="R34" s="111"/>
-      <c r="S34" s="110"/>
-      <c r="T34" s="83"/>
-      <c r="U34" s="111"/>
-      <c r="V34" s="117"/>
-      <c r="W34" s="83"/>
-      <c r="X34" s="83"/>
-      <c r="Y34" s="83"/>
-      <c r="Z34" s="83"/>
-      <c r="AA34" s="83"/>
-      <c r="AB34" s="111"/>
-      <c r="AC34" s="116"/>
-      <c r="AD34" s="82"/>
-      <c r="AG34" s="101"/>
+      <c r="A34" s="55"/>
+      <c r="B34" s="69"/>
+      <c r="C34" s="56"/>
+      <c r="D34" s="69"/>
+      <c r="E34" s="56"/>
+      <c r="F34" s="56"/>
+      <c r="G34" s="73"/>
+      <c r="H34" s="72"/>
+      <c r="I34" s="56"/>
+      <c r="J34" s="56"/>
+      <c r="K34" s="69"/>
+      <c r="L34" s="56"/>
+      <c r="M34" s="70"/>
+      <c r="N34" s="69"/>
+      <c r="O34" s="70"/>
+      <c r="P34" s="69"/>
+      <c r="Q34" s="56"/>
+      <c r="R34" s="70"/>
+      <c r="S34" s="69"/>
+      <c r="T34" s="56"/>
+      <c r="U34" s="70"/>
+      <c r="V34" s="72"/>
+      <c r="W34" s="56"/>
+      <c r="X34" s="56"/>
+      <c r="Y34" s="56"/>
+      <c r="Z34" s="56"/>
+      <c r="AA34" s="56"/>
+      <c r="AB34" s="70"/>
+      <c r="AC34" s="71"/>
+      <c r="AD34" s="55"/>
+      <c r="AG34" s="68"/>
     </row>
     <row r="35" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A35" s="82"/>
-      <c r="B35" s="110"/>
-      <c r="C35" s="83"/>
-      <c r="D35" s="110"/>
-      <c r="E35" s="83"/>
-      <c r="F35" s="83"/>
-      <c r="G35" s="118"/>
-      <c r="H35" s="117"/>
-      <c r="I35" s="83"/>
-      <c r="J35" s="83"/>
-      <c r="K35" s="110"/>
-      <c r="L35" s="83"/>
-      <c r="M35" s="111"/>
-      <c r="N35" s="110"/>
-      <c r="O35" s="111"/>
-      <c r="P35" s="110"/>
-      <c r="Q35" s="83"/>
-      <c r="R35" s="111"/>
-      <c r="S35" s="110"/>
-      <c r="T35" s="83"/>
-      <c r="U35" s="111"/>
-      <c r="V35" s="117"/>
-      <c r="W35" s="83"/>
-      <c r="X35" s="83"/>
-      <c r="Y35" s="83"/>
-      <c r="Z35" s="83"/>
-      <c r="AA35" s="83"/>
-      <c r="AB35" s="111"/>
-      <c r="AC35" s="116"/>
-      <c r="AD35" s="82"/>
-      <c r="AG35" s="101"/>
+      <c r="A35" s="55"/>
+      <c r="B35" s="69"/>
+      <c r="C35" s="56"/>
+      <c r="D35" s="69"/>
+      <c r="E35" s="56"/>
+      <c r="F35" s="56"/>
+      <c r="G35" s="73"/>
+      <c r="H35" s="72"/>
+      <c r="I35" s="56"/>
+      <c r="J35" s="56"/>
+      <c r="K35" s="69"/>
+      <c r="L35" s="56"/>
+      <c r="M35" s="70"/>
+      <c r="N35" s="69"/>
+      <c r="O35" s="70"/>
+      <c r="P35" s="69"/>
+      <c r="Q35" s="56"/>
+      <c r="R35" s="70"/>
+      <c r="S35" s="69"/>
+      <c r="T35" s="56"/>
+      <c r="U35" s="70"/>
+      <c r="V35" s="72"/>
+      <c r="W35" s="56"/>
+      <c r="X35" s="56"/>
+      <c r="Y35" s="56"/>
+      <c r="Z35" s="56"/>
+      <c r="AA35" s="56"/>
+      <c r="AB35" s="70"/>
+      <c r="AC35" s="71"/>
+      <c r="AD35" s="55"/>
+      <c r="AG35" s="68"/>
     </row>
     <row r="36" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A36" s="82"/>
-      <c r="B36" s="110"/>
-      <c r="C36" s="83"/>
-      <c r="D36" s="110"/>
-      <c r="E36" s="83"/>
-      <c r="F36" s="83"/>
-      <c r="G36" s="118"/>
-      <c r="H36" s="117"/>
-      <c r="I36" s="83"/>
-      <c r="J36" s="83"/>
-      <c r="K36" s="110"/>
-      <c r="L36" s="83"/>
-      <c r="M36" s="111"/>
-      <c r="N36" s="110"/>
-      <c r="O36" s="111"/>
-      <c r="P36" s="110"/>
-      <c r="Q36" s="83"/>
-      <c r="R36" s="111"/>
-      <c r="S36" s="110"/>
-      <c r="T36" s="83"/>
-      <c r="U36" s="111"/>
-      <c r="V36" s="117"/>
-      <c r="W36" s="83"/>
-      <c r="X36" s="83"/>
-      <c r="Y36" s="83"/>
-      <c r="Z36" s="83"/>
-      <c r="AA36" s="83"/>
-      <c r="AB36" s="111"/>
-      <c r="AC36" s="116"/>
-      <c r="AD36" s="82"/>
-      <c r="AG36" s="101"/>
+      <c r="A36" s="55"/>
+      <c r="B36" s="69"/>
+      <c r="C36" s="56"/>
+      <c r="D36" s="69"/>
+      <c r="E36" s="56"/>
+      <c r="F36" s="56"/>
+      <c r="G36" s="73"/>
+      <c r="H36" s="72"/>
+      <c r="I36" s="56"/>
+      <c r="J36" s="56"/>
+      <c r="K36" s="69"/>
+      <c r="L36" s="56"/>
+      <c r="M36" s="70"/>
+      <c r="N36" s="69"/>
+      <c r="O36" s="70"/>
+      <c r="P36" s="69"/>
+      <c r="Q36" s="56"/>
+      <c r="R36" s="70"/>
+      <c r="S36" s="69"/>
+      <c r="T36" s="56"/>
+      <c r="U36" s="70"/>
+      <c r="V36" s="72"/>
+      <c r="W36" s="56"/>
+      <c r="X36" s="56"/>
+      <c r="Y36" s="56"/>
+      <c r="Z36" s="56"/>
+      <c r="AA36" s="56"/>
+      <c r="AB36" s="70"/>
+      <c r="AC36" s="71"/>
+      <c r="AD36" s="55"/>
+      <c r="AG36" s="68"/>
     </row>
     <row r="37" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A37" s="82"/>
-      <c r="B37" s="110"/>
-      <c r="C37" s="83"/>
-      <c r="D37" s="110"/>
-      <c r="E37" s="83"/>
-      <c r="F37" s="83"/>
-      <c r="G37" s="118"/>
-      <c r="H37" s="117"/>
-      <c r="I37" s="83"/>
-      <c r="J37" s="83"/>
-      <c r="K37" s="110"/>
-      <c r="L37" s="83"/>
-      <c r="M37" s="111"/>
-      <c r="N37" s="110"/>
-      <c r="O37" s="111"/>
-      <c r="P37" s="110"/>
-      <c r="Q37" s="83"/>
-      <c r="R37" s="111"/>
-      <c r="S37" s="110"/>
-      <c r="T37" s="83"/>
-      <c r="U37" s="111"/>
-      <c r="V37" s="117"/>
-      <c r="W37" s="83"/>
-      <c r="X37" s="83"/>
-      <c r="Y37" s="83"/>
-      <c r="Z37" s="83"/>
-      <c r="AA37" s="83"/>
-      <c r="AB37" s="111"/>
-      <c r="AC37" s="116"/>
-      <c r="AD37" s="82"/>
-      <c r="AG37" s="101"/>
+      <c r="A37" s="55"/>
+      <c r="B37" s="69"/>
+      <c r="C37" s="56"/>
+      <c r="D37" s="69"/>
+      <c r="E37" s="56"/>
+      <c r="F37" s="56"/>
+      <c r="G37" s="73"/>
+      <c r="H37" s="72"/>
+      <c r="I37" s="56"/>
+      <c r="J37" s="56"/>
+      <c r="K37" s="69"/>
+      <c r="L37" s="56"/>
+      <c r="M37" s="70"/>
+      <c r="N37" s="69"/>
+      <c r="O37" s="70"/>
+      <c r="P37" s="69"/>
+      <c r="Q37" s="56"/>
+      <c r="R37" s="70"/>
+      <c r="S37" s="69"/>
+      <c r="T37" s="56"/>
+      <c r="U37" s="70"/>
+      <c r="V37" s="72"/>
+      <c r="W37" s="56"/>
+      <c r="X37" s="56"/>
+      <c r="Y37" s="56"/>
+      <c r="Z37" s="56"/>
+      <c r="AA37" s="56"/>
+      <c r="AB37" s="70"/>
+      <c r="AC37" s="71"/>
+      <c r="AD37" s="55"/>
+      <c r="AG37" s="68"/>
     </row>
     <row r="38" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A38" s="82"/>
-      <c r="B38" s="110"/>
-      <c r="C38" s="83"/>
-      <c r="D38" s="110"/>
-      <c r="E38" s="83"/>
-      <c r="F38" s="83"/>
-      <c r="G38" s="118"/>
-      <c r="H38" s="117"/>
-      <c r="I38" s="83"/>
-      <c r="J38" s="83"/>
-      <c r="K38" s="110"/>
-      <c r="L38" s="83"/>
-      <c r="M38" s="111"/>
-      <c r="N38" s="110"/>
-      <c r="O38" s="111"/>
-      <c r="P38" s="110"/>
-      <c r="Q38" s="83"/>
-      <c r="R38" s="111"/>
-      <c r="S38" s="110"/>
-      <c r="T38" s="83"/>
-      <c r="U38" s="111"/>
-      <c r="V38" s="117"/>
-      <c r="W38" s="83"/>
-      <c r="X38" s="83"/>
-      <c r="Y38" s="83"/>
-      <c r="Z38" s="83"/>
-      <c r="AA38" s="83"/>
-      <c r="AB38" s="111"/>
-      <c r="AC38" s="116"/>
-      <c r="AD38" s="82"/>
-      <c r="AG38" s="101"/>
+      <c r="A38" s="55"/>
+      <c r="B38" s="69"/>
+      <c r="C38" s="56"/>
+      <c r="D38" s="69"/>
+      <c r="E38" s="56"/>
+      <c r="F38" s="56"/>
+      <c r="G38" s="73"/>
+      <c r="H38" s="72"/>
+      <c r="I38" s="56"/>
+      <c r="J38" s="56"/>
+      <c r="K38" s="69"/>
+      <c r="L38" s="56"/>
+      <c r="M38" s="70"/>
+      <c r="N38" s="69"/>
+      <c r="O38" s="70"/>
+      <c r="P38" s="69"/>
+      <c r="Q38" s="56"/>
+      <c r="R38" s="70"/>
+      <c r="S38" s="69"/>
+      <c r="T38" s="56"/>
+      <c r="U38" s="70"/>
+      <c r="V38" s="72"/>
+      <c r="W38" s="56"/>
+      <c r="X38" s="56"/>
+      <c r="Y38" s="56"/>
+      <c r="Z38" s="56"/>
+      <c r="AA38" s="56"/>
+      <c r="AB38" s="70"/>
+      <c r="AC38" s="71"/>
+      <c r="AD38" s="55"/>
+      <c r="AG38" s="68"/>
     </row>
     <row r="39" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A39" s="82"/>
-      <c r="B39" s="110"/>
-      <c r="C39" s="83"/>
-      <c r="D39" s="110"/>
-      <c r="E39" s="83"/>
-      <c r="F39" s="83"/>
-      <c r="G39" s="118"/>
-      <c r="H39" s="117"/>
-      <c r="I39" s="83"/>
-      <c r="J39" s="83"/>
-      <c r="K39" s="110"/>
-      <c r="L39" s="83"/>
-      <c r="M39" s="111"/>
-      <c r="N39" s="110"/>
-      <c r="O39" s="111"/>
-      <c r="P39" s="110"/>
-      <c r="Q39" s="83"/>
-      <c r="R39" s="111"/>
-      <c r="S39" s="110"/>
-      <c r="T39" s="83"/>
-      <c r="U39" s="111"/>
-      <c r="V39" s="117"/>
-      <c r="W39" s="83"/>
-      <c r="X39" s="83"/>
-      <c r="Y39" s="83"/>
-      <c r="Z39" s="83"/>
-      <c r="AA39" s="83"/>
-      <c r="AB39" s="111"/>
-      <c r="AC39" s="116"/>
-      <c r="AD39" s="82"/>
-      <c r="AG39" s="101"/>
+      <c r="A39" s="55"/>
+      <c r="B39" s="69"/>
+      <c r="C39" s="56"/>
+      <c r="D39" s="69"/>
+      <c r="E39" s="56"/>
+      <c r="F39" s="56"/>
+      <c r="G39" s="73"/>
+      <c r="H39" s="72"/>
+      <c r="I39" s="56"/>
+      <c r="J39" s="56"/>
+      <c r="K39" s="69"/>
+      <c r="L39" s="56"/>
+      <c r="M39" s="70"/>
+      <c r="N39" s="69"/>
+      <c r="O39" s="70"/>
+      <c r="P39" s="69"/>
+      <c r="Q39" s="56"/>
+      <c r="R39" s="70"/>
+      <c r="S39" s="69"/>
+      <c r="T39" s="56"/>
+      <c r="U39" s="70"/>
+      <c r="V39" s="72"/>
+      <c r="W39" s="56"/>
+      <c r="X39" s="56"/>
+      <c r="Y39" s="56"/>
+      <c r="Z39" s="56"/>
+      <c r="AA39" s="56"/>
+      <c r="AB39" s="70"/>
+      <c r="AC39" s="71"/>
+      <c r="AD39" s="55"/>
+      <c r="AG39" s="68"/>
     </row>
     <row r="40" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A40" s="82"/>
-      <c r="B40" s="119"/>
-      <c r="C40" s="120"/>
-      <c r="D40" s="119"/>
-      <c r="E40" s="120"/>
-      <c r="F40" s="120"/>
-      <c r="G40" s="121"/>
-      <c r="H40" s="119"/>
-      <c r="I40" s="120"/>
-      <c r="J40" s="120"/>
-      <c r="K40" s="119"/>
-      <c r="L40" s="120"/>
-      <c r="M40" s="122"/>
-      <c r="N40" s="119"/>
-      <c r="O40" s="122"/>
-      <c r="P40" s="119"/>
-      <c r="Q40" s="120"/>
-      <c r="R40" s="122"/>
-      <c r="S40" s="119"/>
-      <c r="T40" s="120"/>
-      <c r="U40" s="122"/>
-      <c r="V40" s="119"/>
-      <c r="W40" s="120"/>
-      <c r="X40" s="120"/>
-      <c r="Y40" s="120"/>
-      <c r="Z40" s="120"/>
-      <c r="AA40" s="120"/>
-      <c r="AB40" s="122"/>
-      <c r="AC40" s="123" t="s">
+      <c r="A40" s="55"/>
+      <c r="B40" s="74"/>
+      <c r="C40" s="75"/>
+      <c r="D40" s="74"/>
+      <c r="E40" s="75"/>
+      <c r="F40" s="75"/>
+      <c r="G40" s="76"/>
+      <c r="H40" s="74"/>
+      <c r="I40" s="75"/>
+      <c r="J40" s="75"/>
+      <c r="K40" s="74"/>
+      <c r="L40" s="75"/>
+      <c r="M40" s="77"/>
+      <c r="N40" s="74"/>
+      <c r="O40" s="77"/>
+      <c r="P40" s="74"/>
+      <c r="Q40" s="75"/>
+      <c r="R40" s="77"/>
+      <c r="S40" s="74"/>
+      <c r="T40" s="75"/>
+      <c r="U40" s="77"/>
+      <c r="V40" s="74"/>
+      <c r="W40" s="75"/>
+      <c r="X40" s="75"/>
+      <c r="Y40" s="75"/>
+      <c r="Z40" s="75"/>
+      <c r="AA40" s="75"/>
+      <c r="AB40" s="77"/>
+      <c r="AC40" s="78" t="s">
         <v>118</v>
       </c>
-      <c r="AD40" s="82"/>
-      <c r="AG40" s="101"/>
+      <c r="AD40" s="55"/>
+      <c r="AG40" s="68"/>
     </row>
     <row r="41" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A41" s="82"/>
-      <c r="B41" s="83"/>
-      <c r="C41" s="83"/>
-      <c r="D41" s="83"/>
-      <c r="E41" s="94"/>
-      <c r="F41" s="83"/>
-      <c r="G41" s="124"/>
-      <c r="H41" s="83"/>
-      <c r="I41" s="83"/>
-      <c r="J41" s="83"/>
-      <c r="K41" s="83"/>
-      <c r="L41" s="83"/>
-      <c r="M41" s="83"/>
-      <c r="N41" s="83"/>
-      <c r="O41" s="83"/>
-      <c r="P41" s="83"/>
-      <c r="Q41" s="83"/>
-      <c r="R41" s="83"/>
-      <c r="S41" s="83"/>
-      <c r="T41" s="83"/>
-      <c r="U41" s="83"/>
-      <c r="V41" s="83"/>
-      <c r="W41" s="83"/>
-      <c r="X41" s="83"/>
-      <c r="Y41" s="83"/>
-      <c r="Z41" s="83"/>
-      <c r="AA41" s="83"/>
-      <c r="AB41" s="83"/>
-      <c r="AC41" s="83"/>
-      <c r="AD41" s="83"/>
-      <c r="AE41" s="83"/>
-      <c r="AF41" s="83"/>
-      <c r="AG41" s="89"/>
+      <c r="A41" s="55"/>
+      <c r="B41" s="56"/>
+      <c r="C41" s="56"/>
+      <c r="D41" s="56"/>
+      <c r="E41" s="66"/>
+      <c r="F41" s="56"/>
+      <c r="G41" s="79"/>
+      <c r="H41" s="56"/>
+      <c r="I41" s="56"/>
+      <c r="J41" s="56"/>
+      <c r="K41" s="56"/>
+      <c r="L41" s="56"/>
+      <c r="M41" s="56"/>
+      <c r="N41" s="56"/>
+      <c r="O41" s="56"/>
+      <c r="P41" s="56"/>
+      <c r="Q41" s="56"/>
+      <c r="R41" s="56"/>
+      <c r="S41" s="56"/>
+      <c r="T41" s="56"/>
+      <c r="U41" s="56"/>
+      <c r="V41" s="56"/>
+      <c r="W41" s="56"/>
+      <c r="X41" s="56"/>
+      <c r="Y41" s="56"/>
+      <c r="Z41" s="56"/>
+      <c r="AA41" s="56"/>
+      <c r="AB41" s="56"/>
+      <c r="AC41" s="56"/>
+      <c r="AD41" s="56"/>
+      <c r="AE41" s="56"/>
+      <c r="AF41" s="56"/>
+      <c r="AG41" s="62"/>
     </row>
     <row r="42" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A42" s="82"/>
-      <c r="S42" s="126"/>
-      <c r="T42" s="126"/>
-      <c r="U42" s="126"/>
-      <c r="V42" s="126"/>
-      <c r="W42" s="126"/>
-      <c r="X42" s="126"/>
-      <c r="Y42" s="126"/>
-      <c r="Z42" s="126"/>
-      <c r="AA42" s="126"/>
-      <c r="AB42" s="126"/>
-      <c r="AC42" s="126"/>
-      <c r="AD42" s="126"/>
-      <c r="AE42" s="126"/>
-      <c r="AF42" s="126"/>
-      <c r="AG42" s="89"/>
+      <c r="A42" s="55"/>
+      <c r="S42" s="81"/>
+      <c r="T42" s="81"/>
+      <c r="U42" s="81"/>
+      <c r="V42" s="81"/>
+      <c r="W42" s="81"/>
+      <c r="X42" s="81"/>
+      <c r="Y42" s="81"/>
+      <c r="Z42" s="81"/>
+      <c r="AA42" s="81"/>
+      <c r="AB42" s="81"/>
+      <c r="AC42" s="81"/>
+      <c r="AD42" s="81"/>
+      <c r="AE42" s="81"/>
+      <c r="AF42" s="81"/>
+      <c r="AG42" s="62"/>
     </row>
     <row r="43" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A43" s="127"/>
-      <c r="B43" s="128"/>
-      <c r="C43" s="128"/>
-      <c r="D43" s="128"/>
-      <c r="E43" s="128"/>
-      <c r="F43" s="128"/>
-      <c r="G43" s="128"/>
-      <c r="H43" s="128"/>
-      <c r="I43" s="128"/>
-      <c r="J43" s="128"/>
-      <c r="K43" s="128"/>
-      <c r="L43" s="128"/>
-      <c r="M43" s="128"/>
-      <c r="N43" s="128"/>
-      <c r="O43" s="128"/>
-      <c r="P43" s="128"/>
-      <c r="Q43" s="128"/>
-      <c r="R43" s="128"/>
-      <c r="S43" s="128"/>
-      <c r="T43" s="128"/>
-      <c r="U43" s="128"/>
-      <c r="V43" s="128"/>
-      <c r="W43" s="128"/>
-      <c r="X43" s="128"/>
-      <c r="Y43" s="128"/>
-      <c r="Z43" s="128"/>
-      <c r="AA43" s="128"/>
-      <c r="AB43" s="128"/>
-      <c r="AC43" s="128"/>
-      <c r="AD43" s="128"/>
-      <c r="AE43" s="128"/>
-      <c r="AF43" s="128"/>
-      <c r="AG43" s="129"/>
+      <c r="A43" s="82"/>
+      <c r="B43" s="83"/>
+      <c r="C43" s="83"/>
+      <c r="D43" s="83"/>
+      <c r="E43" s="83"/>
+      <c r="F43" s="83"/>
+      <c r="G43" s="83"/>
+      <c r="H43" s="83"/>
+      <c r="I43" s="83"/>
+      <c r="J43" s="83"/>
+      <c r="K43" s="83"/>
+      <c r="L43" s="83"/>
+      <c r="M43" s="83"/>
+      <c r="N43" s="83"/>
+      <c r="O43" s="83"/>
+      <c r="P43" s="83"/>
+      <c r="Q43" s="83"/>
+      <c r="R43" s="83"/>
+      <c r="S43" s="83"/>
+      <c r="T43" s="83"/>
+      <c r="U43" s="83"/>
+      <c r="V43" s="83"/>
+      <c r="W43" s="83"/>
+      <c r="X43" s="83"/>
+      <c r="Y43" s="83"/>
+      <c r="Z43" s="83"/>
+      <c r="AA43" s="83"/>
+      <c r="AB43" s="83"/>
+      <c r="AC43" s="83"/>
+      <c r="AD43" s="83"/>
+      <c r="AE43" s="83"/>
+      <c r="AF43" s="83"/>
+      <c r="AG43" s="84"/>
     </row>
     <row r="44" spans="1:33" ht="12.75" customHeight="1">
-      <c r="E44" s="78"/>
-      <c r="F44" s="78"/>
+      <c r="E44" s="51"/>
+      <c r="F44" s="51"/>
     </row>
     <row r="45" spans="1:33" ht="12.75" customHeight="1">
-      <c r="E45" s="78"/>
-      <c r="F45" s="78"/>
+      <c r="E45" s="51"/>
+      <c r="F45" s="51"/>
     </row>
     <row r="46" spans="1:33" ht="12.75" customHeight="1">
-      <c r="E46" s="78"/>
-      <c r="F46" s="78"/>
+      <c r="E46" s="51"/>
+      <c r="F46" s="51"/>
     </row>
     <row r="47" spans="1:33" ht="12.75" customHeight="1">
-      <c r="E47" s="78"/>
-      <c r="F47" s="78"/>
+      <c r="E47" s="51"/>
+      <c r="F47" s="51"/>
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="A3:F4"/>
+    <mergeCell ref="G3:L4"/>
+    <mergeCell ref="M3:AC4"/>
+    <mergeCell ref="AD3:AE4"/>
+    <mergeCell ref="AF3:AG4"/>
+    <mergeCell ref="A1:AG1"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="G2:L2"/>
+    <mergeCell ref="M2:AC2"/>
+    <mergeCell ref="AF2:AG2"/>
+    <mergeCell ref="G8:J8"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="N8:Q8"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:G13"/>
+    <mergeCell ref="H13:J13"/>
+    <mergeCell ref="K13:M13"/>
+    <mergeCell ref="N13:O13"/>
+    <mergeCell ref="P13:R13"/>
     <mergeCell ref="S13:U13"/>
     <mergeCell ref="V13:AB13"/>
     <mergeCell ref="B14:C14"/>
@@ -9663,25 +9631,6 @@
     <mergeCell ref="P14:R14"/>
     <mergeCell ref="S14:U14"/>
     <mergeCell ref="V14:AB14"/>
-    <mergeCell ref="G8:J8"/>
-    <mergeCell ref="K8:L8"/>
-    <mergeCell ref="N8:Q8"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:G13"/>
-    <mergeCell ref="H13:J13"/>
-    <mergeCell ref="K13:M13"/>
-    <mergeCell ref="N13:O13"/>
-    <mergeCell ref="P13:R13"/>
-    <mergeCell ref="A1:AG1"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="G2:L2"/>
-    <mergeCell ref="M2:AC2"/>
-    <mergeCell ref="AF2:AG2"/>
-    <mergeCell ref="A3:F4"/>
-    <mergeCell ref="G3:L4"/>
-    <mergeCell ref="M3:AC4"/>
-    <mergeCell ref="AD3:AE4"/>
-    <mergeCell ref="AF3:AG4"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <printOptions horizontalCentered="1"/>
@@ -9932,167 +9881,167 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:177" ht="12.75" customHeight="1">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="105" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
-      <c r="G1" s="71"/>
-      <c r="H1" s="71"/>
-      <c r="I1" s="71"/>
-      <c r="J1" s="71"/>
-      <c r="K1" s="71"/>
-      <c r="L1" s="71"/>
-      <c r="M1" s="71"/>
-      <c r="N1" s="71"/>
-      <c r="O1" s="71"/>
-      <c r="P1" s="71"/>
-      <c r="Q1" s="71"/>
-      <c r="R1" s="71"/>
-      <c r="S1" s="71"/>
-      <c r="T1" s="71"/>
-      <c r="U1" s="71"/>
-      <c r="V1" s="71"/>
-      <c r="W1" s="71"/>
-      <c r="X1" s="71"/>
-      <c r="Y1" s="71"/>
-      <c r="Z1" s="71"/>
-      <c r="AA1" s="71"/>
-      <c r="AB1" s="71"/>
-      <c r="AC1" s="71"/>
-      <c r="AD1" s="71"/>
-      <c r="AE1" s="71"/>
-      <c r="AF1" s="71"/>
-      <c r="AG1" s="71"/>
+      <c r="B1" s="105"/>
+      <c r="C1" s="105"/>
+      <c r="D1" s="105"/>
+      <c r="E1" s="105"/>
+      <c r="F1" s="105"/>
+      <c r="G1" s="105"/>
+      <c r="H1" s="105"/>
+      <c r="I1" s="105"/>
+      <c r="J1" s="105"/>
+      <c r="K1" s="105"/>
+      <c r="L1" s="105"/>
+      <c r="M1" s="105"/>
+      <c r="N1" s="105"/>
+      <c r="O1" s="105"/>
+      <c r="P1" s="105"/>
+      <c r="Q1" s="105"/>
+      <c r="R1" s="105"/>
+      <c r="S1" s="105"/>
+      <c r="T1" s="105"/>
+      <c r="U1" s="105"/>
+      <c r="V1" s="105"/>
+      <c r="W1" s="105"/>
+      <c r="X1" s="105"/>
+      <c r="Y1" s="105"/>
+      <c r="Z1" s="105"/>
+      <c r="AA1" s="105"/>
+      <c r="AB1" s="105"/>
+      <c r="AC1" s="105"/>
+      <c r="AD1" s="105"/>
+      <c r="AE1" s="105"/>
+      <c r="AF1" s="105"/>
+      <c r="AG1" s="105"/>
     </row>
     <row r="2" spans="1:177" ht="12">
-      <c r="A2" s="58" t="s">
+      <c r="A2" s="89" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="59"/>
-      <c r="C2" s="59"/>
-      <c r="D2" s="59"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="60"/>
-      <c r="G2" s="58" t="s">
+      <c r="B2" s="90"/>
+      <c r="C2" s="90"/>
+      <c r="D2" s="90"/>
+      <c r="E2" s="90"/>
+      <c r="F2" s="91"/>
+      <c r="G2" s="89" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="59"/>
-      <c r="I2" s="59"/>
-      <c r="J2" s="59"/>
-      <c r="K2" s="59"/>
-      <c r="L2" s="60"/>
-      <c r="M2" s="58" t="s">
+      <c r="H2" s="90"/>
+      <c r="I2" s="90"/>
+      <c r="J2" s="90"/>
+      <c r="K2" s="90"/>
+      <c r="L2" s="91"/>
+      <c r="M2" s="89" t="s">
         <v>3</v>
       </c>
-      <c r="N2" s="59"/>
-      <c r="O2" s="59"/>
-      <c r="P2" s="59"/>
-      <c r="Q2" s="59"/>
-      <c r="R2" s="59"/>
-      <c r="S2" s="59"/>
-      <c r="T2" s="59"/>
-      <c r="U2" s="59"/>
-      <c r="V2" s="59"/>
-      <c r="W2" s="59"/>
-      <c r="X2" s="59"/>
-      <c r="Y2" s="59"/>
-      <c r="Z2" s="59"/>
-      <c r="AA2" s="59"/>
-      <c r="AB2" s="59"/>
-      <c r="AC2" s="60"/>
+      <c r="N2" s="90"/>
+      <c r="O2" s="90"/>
+      <c r="P2" s="90"/>
+      <c r="Q2" s="90"/>
+      <c r="R2" s="90"/>
+      <c r="S2" s="90"/>
+      <c r="T2" s="90"/>
+      <c r="U2" s="90"/>
+      <c r="V2" s="90"/>
+      <c r="W2" s="90"/>
+      <c r="X2" s="90"/>
+      <c r="Y2" s="90"/>
+      <c r="Z2" s="90"/>
+      <c r="AA2" s="90"/>
+      <c r="AB2" s="90"/>
+      <c r="AC2" s="91"/>
       <c r="AD2" s="20" t="s">
         <v>4</v>
       </c>
       <c r="AE2" s="21"/>
-      <c r="AF2" s="58" t="s">
+      <c r="AF2" s="89" t="s">
         <v>5</v>
       </c>
-      <c r="AG2" s="60"/>
+      <c r="AG2" s="91"/>
     </row>
     <row r="3" spans="1:177" ht="12">
-      <c r="A3" s="61" t="s">
+      <c r="A3" s="92" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="62"/>
-      <c r="C3" s="62"/>
-      <c r="D3" s="62"/>
-      <c r="E3" s="62"/>
-      <c r="F3" s="63"/>
-      <c r="G3" s="61" t="s">
+      <c r="B3" s="93"/>
+      <c r="C3" s="93"/>
+      <c r="D3" s="93"/>
+      <c r="E3" s="93"/>
+      <c r="F3" s="94"/>
+      <c r="G3" s="92" t="s">
         <v>17</v>
       </c>
-      <c r="H3" s="62"/>
-      <c r="I3" s="62"/>
-      <c r="J3" s="62"/>
-      <c r="K3" s="62"/>
-      <c r="L3" s="63"/>
-      <c r="M3" s="61" t="s">
+      <c r="H3" s="93"/>
+      <c r="I3" s="93"/>
+      <c r="J3" s="93"/>
+      <c r="K3" s="93"/>
+      <c r="L3" s="94"/>
+      <c r="M3" s="92" t="s">
         <v>124</v>
       </c>
-      <c r="N3" s="62"/>
-      <c r="O3" s="62"/>
-      <c r="P3" s="62"/>
-      <c r="Q3" s="62"/>
-      <c r="R3" s="62"/>
-      <c r="S3" s="62"/>
-      <c r="T3" s="62"/>
-      <c r="U3" s="62"/>
-      <c r="V3" s="62"/>
-      <c r="W3" s="62"/>
-      <c r="X3" s="62"/>
-      <c r="Y3" s="62"/>
-      <c r="Z3" s="62"/>
-      <c r="AA3" s="62"/>
-      <c r="AB3" s="62"/>
-      <c r="AC3" s="63"/>
-      <c r="AD3" s="67" t="s">
+      <c r="N3" s="93"/>
+      <c r="O3" s="93"/>
+      <c r="P3" s="93"/>
+      <c r="Q3" s="93"/>
+      <c r="R3" s="93"/>
+      <c r="S3" s="93"/>
+      <c r="T3" s="93"/>
+      <c r="U3" s="93"/>
+      <c r="V3" s="93"/>
+      <c r="W3" s="93"/>
+      <c r="X3" s="93"/>
+      <c r="Y3" s="93"/>
+      <c r="Z3" s="93"/>
+      <c r="AA3" s="93"/>
+      <c r="AB3" s="93"/>
+      <c r="AC3" s="94"/>
+      <c r="AD3" s="98" t="s">
         <v>128</v>
       </c>
-      <c r="AE3" s="68"/>
-      <c r="AF3" s="61" t="str">
+      <c r="AE3" s="99"/>
+      <c r="AF3" s="92" t="str">
         <f>表紙!AD12</f>
         <v>施</v>
       </c>
-      <c r="AG3" s="63"/>
+      <c r="AG3" s="94"/>
     </row>
     <row r="4" spans="1:177" ht="12">
-      <c r="A4" s="64"/>
-      <c r="B4" s="65"/>
-      <c r="C4" s="65"/>
-      <c r="D4" s="65"/>
-      <c r="E4" s="65"/>
-      <c r="F4" s="66"/>
-      <c r="G4" s="64"/>
-      <c r="H4" s="65"/>
-      <c r="I4" s="65"/>
-      <c r="J4" s="65"/>
-      <c r="K4" s="65"/>
-      <c r="L4" s="66"/>
-      <c r="M4" s="64"/>
-      <c r="N4" s="65"/>
-      <c r="O4" s="65"/>
-      <c r="P4" s="65"/>
-      <c r="Q4" s="65"/>
-      <c r="R4" s="65"/>
-      <c r="S4" s="65"/>
-      <c r="T4" s="65"/>
-      <c r="U4" s="65"/>
-      <c r="V4" s="65"/>
-      <c r="W4" s="65"/>
-      <c r="X4" s="65"/>
-      <c r="Y4" s="65"/>
-      <c r="Z4" s="65"/>
-      <c r="AA4" s="65"/>
-      <c r="AB4" s="65"/>
-      <c r="AC4" s="66"/>
-      <c r="AD4" s="69"/>
-      <c r="AE4" s="70"/>
-      <c r="AF4" s="64"/>
-      <c r="AG4" s="66"/>
+      <c r="A4" s="95"/>
+      <c r="B4" s="96"/>
+      <c r="C4" s="96"/>
+      <c r="D4" s="96"/>
+      <c r="E4" s="96"/>
+      <c r="F4" s="97"/>
+      <c r="G4" s="95"/>
+      <c r="H4" s="96"/>
+      <c r="I4" s="96"/>
+      <c r="J4" s="96"/>
+      <c r="K4" s="96"/>
+      <c r="L4" s="97"/>
+      <c r="M4" s="95"/>
+      <c r="N4" s="96"/>
+      <c r="O4" s="96"/>
+      <c r="P4" s="96"/>
+      <c r="Q4" s="96"/>
+      <c r="R4" s="96"/>
+      <c r="S4" s="96"/>
+      <c r="T4" s="96"/>
+      <c r="U4" s="96"/>
+      <c r="V4" s="96"/>
+      <c r="W4" s="96"/>
+      <c r="X4" s="96"/>
+      <c r="Y4" s="96"/>
+      <c r="Z4" s="96"/>
+      <c r="AA4" s="96"/>
+      <c r="AB4" s="96"/>
+      <c r="AC4" s="97"/>
+      <c r="AD4" s="100"/>
+      <c r="AE4" s="101"/>
+      <c r="AF4" s="95"/>
+      <c r="AG4" s="97"/>
     </row>
     <row r="5" spans="1:177" s="11" customFormat="1" ht="12.75" customHeight="1">
       <c r="A5" s="22"/>
@@ -10317,13 +10266,13 @@
       <c r="D7" s="31"/>
       <c r="E7" s="31"/>
       <c r="F7" s="31"/>
-      <c r="G7" s="72" t="s">
+      <c r="G7" s="125" t="s">
         <v>21</v>
       </c>
-      <c r="H7" s="73"/>
-      <c r="I7" s="73"/>
-      <c r="J7" s="73"/>
-      <c r="K7" s="74"/>
+      <c r="H7" s="126"/>
+      <c r="I7" s="126"/>
+      <c r="J7" s="126"/>
+      <c r="K7" s="127"/>
       <c r="L7" s="31"/>
       <c r="M7" s="31"/>
       <c r="N7" s="31"/>
@@ -10397,13 +10346,13 @@
       <c r="D9" s="31"/>
       <c r="E9" s="31"/>
       <c r="F9" s="31"/>
-      <c r="G9" s="72" t="s">
+      <c r="G9" s="125" t="s">
         <v>21</v>
       </c>
-      <c r="H9" s="73"/>
-      <c r="I9" s="73"/>
-      <c r="J9" s="73"/>
-      <c r="K9" s="74"/>
+      <c r="H9" s="126"/>
+      <c r="I9" s="126"/>
+      <c r="J9" s="126"/>
+      <c r="K9" s="127"/>
       <c r="O9" s="31"/>
       <c r="P9" s="31"/>
       <c r="Q9" s="31"/>
@@ -10473,11 +10422,11 @@
       <c r="D11" s="31"/>
       <c r="E11" s="31"/>
       <c r="F11" s="31"/>
-      <c r="G11" s="72"/>
-      <c r="H11" s="73"/>
-      <c r="I11" s="73"/>
-      <c r="J11" s="73"/>
-      <c r="K11" s="74"/>
+      <c r="G11" s="125"/>
+      <c r="H11" s="126"/>
+      <c r="I11" s="126"/>
+      <c r="J11" s="126"/>
+      <c r="K11" s="127"/>
       <c r="L11" s="31"/>
       <c r="M11" s="32"/>
       <c r="N11" s="31"/>
@@ -10550,11 +10499,11 @@
       <c r="D13" s="31"/>
       <c r="E13" s="31"/>
       <c r="F13" s="33"/>
-      <c r="G13" s="72"/>
-      <c r="H13" s="73"/>
-      <c r="I13" s="73"/>
-      <c r="J13" s="73"/>
-      <c r="K13" s="74"/>
+      <c r="G13" s="125"/>
+      <c r="H13" s="126"/>
+      <c r="I13" s="126"/>
+      <c r="J13" s="126"/>
+      <c r="K13" s="127"/>
       <c r="L13" s="31"/>
       <c r="M13" s="31"/>
       <c r="N13" s="31"/>
@@ -10625,13 +10574,13 @@
       <c r="D15" s="31"/>
       <c r="E15" s="31"/>
       <c r="F15" s="33"/>
-      <c r="G15" s="72" t="s">
+      <c r="G15" s="125" t="s">
         <v>21</v>
       </c>
-      <c r="H15" s="73"/>
-      <c r="I15" s="73"/>
-      <c r="J15" s="73"/>
-      <c r="K15" s="74"/>
+      <c r="H15" s="126"/>
+      <c r="I15" s="126"/>
+      <c r="J15" s="126"/>
+      <c r="K15" s="127"/>
       <c r="L15" s="31"/>
       <c r="M15" s="31"/>
       <c r="N15" s="31"/>
@@ -10697,13 +10646,13 @@
       <c r="D17" s="31"/>
       <c r="E17" s="31"/>
       <c r="F17" s="33"/>
-      <c r="G17" s="72" t="s">
+      <c r="G17" s="125" t="s">
         <v>34</v>
       </c>
-      <c r="H17" s="73"/>
-      <c r="I17" s="73"/>
-      <c r="J17" s="73"/>
-      <c r="K17" s="74"/>
+      <c r="H17" s="126"/>
+      <c r="I17" s="126"/>
+      <c r="J17" s="126"/>
+      <c r="K17" s="127"/>
       <c r="L17" s="31"/>
       <c r="M17" s="31"/>
       <c r="N17" s="31"/>
@@ -10766,11 +10715,11 @@
       <c r="D19" s="31"/>
       <c r="E19" s="31"/>
       <c r="F19" s="33"/>
-      <c r="G19" s="72"/>
-      <c r="H19" s="73"/>
-      <c r="I19" s="73"/>
-      <c r="J19" s="73"/>
-      <c r="K19" s="74"/>
+      <c r="G19" s="125"/>
+      <c r="H19" s="126"/>
+      <c r="I19" s="126"/>
+      <c r="J19" s="126"/>
+      <c r="K19" s="127"/>
       <c r="L19" s="31"/>
       <c r="M19" s="31"/>
       <c r="N19" s="31"/>
@@ -10839,13 +10788,13 @@
       <c r="D21" s="31"/>
       <c r="E21" s="31"/>
       <c r="F21" s="33"/>
-      <c r="G21" s="72" t="s">
+      <c r="G21" s="125" t="s">
         <v>21</v>
       </c>
-      <c r="H21" s="73"/>
-      <c r="I21" s="73"/>
-      <c r="J21" s="73"/>
-      <c r="K21" s="74"/>
+      <c r="H21" s="126"/>
+      <c r="I21" s="126"/>
+      <c r="J21" s="126"/>
+      <c r="K21" s="127"/>
       <c r="L21" s="31"/>
       <c r="M21" s="31"/>
       <c r="N21" s="31"/>
@@ -11626,6 +11575,16 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A3:F4"/>
+    <mergeCell ref="G3:L4"/>
+    <mergeCell ref="M3:AC4"/>
+    <mergeCell ref="AD3:AE4"/>
+    <mergeCell ref="AF3:AG4"/>
+    <mergeCell ref="A1:AG1"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="G2:L2"/>
+    <mergeCell ref="M2:AC2"/>
+    <mergeCell ref="AF2:AG2"/>
     <mergeCell ref="G19:K19"/>
     <mergeCell ref="G21:K21"/>
     <mergeCell ref="G7:K7"/>
@@ -11634,16 +11593,6 @@
     <mergeCell ref="G13:K13"/>
     <mergeCell ref="G15:K15"/>
     <mergeCell ref="G17:K17"/>
-    <mergeCell ref="A1:AG1"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="G2:L2"/>
-    <mergeCell ref="M2:AC2"/>
-    <mergeCell ref="AF2:AG2"/>
-    <mergeCell ref="A3:F4"/>
-    <mergeCell ref="G3:L4"/>
-    <mergeCell ref="M3:AC4"/>
-    <mergeCell ref="AD3:AE4"/>
-    <mergeCell ref="AF3:AG4"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <printOptions horizontalCentered="1"/>
@@ -11865,167 +11814,167 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:177" ht="12.75" customHeight="1">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="105" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
-      <c r="G1" s="71"/>
-      <c r="H1" s="71"/>
-      <c r="I1" s="71"/>
-      <c r="J1" s="71"/>
-      <c r="K1" s="71"/>
-      <c r="L1" s="71"/>
-      <c r="M1" s="71"/>
-      <c r="N1" s="71"/>
-      <c r="O1" s="71"/>
-      <c r="P1" s="71"/>
-      <c r="Q1" s="71"/>
-      <c r="R1" s="71"/>
-      <c r="S1" s="71"/>
-      <c r="T1" s="71"/>
-      <c r="U1" s="71"/>
-      <c r="V1" s="71"/>
-      <c r="W1" s="71"/>
-      <c r="X1" s="71"/>
-      <c r="Y1" s="71"/>
-      <c r="Z1" s="71"/>
-      <c r="AA1" s="71"/>
-      <c r="AB1" s="71"/>
-      <c r="AC1" s="71"/>
-      <c r="AD1" s="71"/>
-      <c r="AE1" s="71"/>
-      <c r="AF1" s="71"/>
-      <c r="AG1" s="71"/>
+      <c r="B1" s="105"/>
+      <c r="C1" s="105"/>
+      <c r="D1" s="105"/>
+      <c r="E1" s="105"/>
+      <c r="F1" s="105"/>
+      <c r="G1" s="105"/>
+      <c r="H1" s="105"/>
+      <c r="I1" s="105"/>
+      <c r="J1" s="105"/>
+      <c r="K1" s="105"/>
+      <c r="L1" s="105"/>
+      <c r="M1" s="105"/>
+      <c r="N1" s="105"/>
+      <c r="O1" s="105"/>
+      <c r="P1" s="105"/>
+      <c r="Q1" s="105"/>
+      <c r="R1" s="105"/>
+      <c r="S1" s="105"/>
+      <c r="T1" s="105"/>
+      <c r="U1" s="105"/>
+      <c r="V1" s="105"/>
+      <c r="W1" s="105"/>
+      <c r="X1" s="105"/>
+      <c r="Y1" s="105"/>
+      <c r="Z1" s="105"/>
+      <c r="AA1" s="105"/>
+      <c r="AB1" s="105"/>
+      <c r="AC1" s="105"/>
+      <c r="AD1" s="105"/>
+      <c r="AE1" s="105"/>
+      <c r="AF1" s="105"/>
+      <c r="AG1" s="105"/>
     </row>
     <row r="2" spans="1:177" ht="12">
-      <c r="A2" s="58" t="s">
+      <c r="A2" s="89" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="59"/>
-      <c r="C2" s="59"/>
-      <c r="D2" s="59"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="60"/>
-      <c r="G2" s="58" t="s">
+      <c r="B2" s="90"/>
+      <c r="C2" s="90"/>
+      <c r="D2" s="90"/>
+      <c r="E2" s="90"/>
+      <c r="F2" s="91"/>
+      <c r="G2" s="89" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="59"/>
-      <c r="I2" s="59"/>
-      <c r="J2" s="59"/>
-      <c r="K2" s="59"/>
-      <c r="L2" s="60"/>
-      <c r="M2" s="58" t="s">
+      <c r="H2" s="90"/>
+      <c r="I2" s="90"/>
+      <c r="J2" s="90"/>
+      <c r="K2" s="90"/>
+      <c r="L2" s="91"/>
+      <c r="M2" s="89" t="s">
         <v>3</v>
       </c>
-      <c r="N2" s="59"/>
-      <c r="O2" s="59"/>
-      <c r="P2" s="59"/>
-      <c r="Q2" s="59"/>
-      <c r="R2" s="59"/>
-      <c r="S2" s="59"/>
-      <c r="T2" s="59"/>
-      <c r="U2" s="59"/>
-      <c r="V2" s="59"/>
-      <c r="W2" s="59"/>
-      <c r="X2" s="59"/>
-      <c r="Y2" s="59"/>
-      <c r="Z2" s="59"/>
-      <c r="AA2" s="59"/>
-      <c r="AB2" s="59"/>
-      <c r="AC2" s="60"/>
+      <c r="N2" s="90"/>
+      <c r="O2" s="90"/>
+      <c r="P2" s="90"/>
+      <c r="Q2" s="90"/>
+      <c r="R2" s="90"/>
+      <c r="S2" s="90"/>
+      <c r="T2" s="90"/>
+      <c r="U2" s="90"/>
+      <c r="V2" s="90"/>
+      <c r="W2" s="90"/>
+      <c r="X2" s="90"/>
+      <c r="Y2" s="90"/>
+      <c r="Z2" s="90"/>
+      <c r="AA2" s="90"/>
+      <c r="AB2" s="90"/>
+      <c r="AC2" s="91"/>
       <c r="AD2" s="20" t="s">
         <v>4</v>
       </c>
       <c r="AE2" s="21"/>
-      <c r="AF2" s="58" t="s">
+      <c r="AF2" s="89" t="s">
         <v>5</v>
       </c>
-      <c r="AG2" s="60"/>
+      <c r="AG2" s="91"/>
     </row>
     <row r="3" spans="1:177" ht="12">
-      <c r="A3" s="61" t="s">
+      <c r="A3" s="92" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="62"/>
-      <c r="C3" s="62"/>
-      <c r="D3" s="62"/>
-      <c r="E3" s="62"/>
-      <c r="F3" s="63"/>
-      <c r="G3" s="61" t="s">
+      <c r="B3" s="93"/>
+      <c r="C3" s="93"/>
+      <c r="D3" s="93"/>
+      <c r="E3" s="93"/>
+      <c r="F3" s="94"/>
+      <c r="G3" s="92" t="s">
         <v>17</v>
       </c>
-      <c r="H3" s="62"/>
-      <c r="I3" s="62"/>
-      <c r="J3" s="62"/>
-      <c r="K3" s="62"/>
-      <c r="L3" s="63"/>
-      <c r="M3" s="61" t="s">
+      <c r="H3" s="93"/>
+      <c r="I3" s="93"/>
+      <c r="J3" s="93"/>
+      <c r="K3" s="93"/>
+      <c r="L3" s="94"/>
+      <c r="M3" s="92" t="s">
         <v>125</v>
       </c>
-      <c r="N3" s="62"/>
-      <c r="O3" s="62"/>
-      <c r="P3" s="62"/>
-      <c r="Q3" s="62"/>
-      <c r="R3" s="62"/>
-      <c r="S3" s="62"/>
-      <c r="T3" s="62"/>
-      <c r="U3" s="62"/>
-      <c r="V3" s="62"/>
-      <c r="W3" s="62"/>
-      <c r="X3" s="62"/>
-      <c r="Y3" s="62"/>
-      <c r="Z3" s="62"/>
-      <c r="AA3" s="62"/>
-      <c r="AB3" s="62"/>
-      <c r="AC3" s="63"/>
-      <c r="AD3" s="67" t="s">
+      <c r="N3" s="93"/>
+      <c r="O3" s="93"/>
+      <c r="P3" s="93"/>
+      <c r="Q3" s="93"/>
+      <c r="R3" s="93"/>
+      <c r="S3" s="93"/>
+      <c r="T3" s="93"/>
+      <c r="U3" s="93"/>
+      <c r="V3" s="93"/>
+      <c r="W3" s="93"/>
+      <c r="X3" s="93"/>
+      <c r="Y3" s="93"/>
+      <c r="Z3" s="93"/>
+      <c r="AA3" s="93"/>
+      <c r="AB3" s="93"/>
+      <c r="AC3" s="94"/>
+      <c r="AD3" s="98" t="s">
         <v>128</v>
       </c>
-      <c r="AE3" s="68"/>
-      <c r="AF3" s="61" t="str">
+      <c r="AE3" s="99"/>
+      <c r="AF3" s="92" t="str">
         <f>表紙!AD12</f>
         <v>施</v>
       </c>
-      <c r="AG3" s="63"/>
+      <c r="AG3" s="94"/>
     </row>
     <row r="4" spans="1:177" ht="12">
-      <c r="A4" s="64"/>
-      <c r="B4" s="65"/>
-      <c r="C4" s="65"/>
-      <c r="D4" s="65"/>
-      <c r="E4" s="65"/>
-      <c r="F4" s="66"/>
-      <c r="G4" s="64"/>
-      <c r="H4" s="65"/>
-      <c r="I4" s="65"/>
-      <c r="J4" s="65"/>
-      <c r="K4" s="65"/>
-      <c r="L4" s="66"/>
-      <c r="M4" s="64"/>
-      <c r="N4" s="65"/>
-      <c r="O4" s="65"/>
-      <c r="P4" s="65"/>
-      <c r="Q4" s="65"/>
-      <c r="R4" s="65"/>
-      <c r="S4" s="65"/>
-      <c r="T4" s="65"/>
-      <c r="U4" s="65"/>
-      <c r="V4" s="65"/>
-      <c r="W4" s="65"/>
-      <c r="X4" s="65"/>
-      <c r="Y4" s="65"/>
-      <c r="Z4" s="65"/>
-      <c r="AA4" s="65"/>
-      <c r="AB4" s="65"/>
-      <c r="AC4" s="66"/>
-      <c r="AD4" s="69"/>
-      <c r="AE4" s="70"/>
-      <c r="AF4" s="64"/>
-      <c r="AG4" s="66"/>
+      <c r="A4" s="95"/>
+      <c r="B4" s="96"/>
+      <c r="C4" s="96"/>
+      <c r="D4" s="96"/>
+      <c r="E4" s="96"/>
+      <c r="F4" s="97"/>
+      <c r="G4" s="95"/>
+      <c r="H4" s="96"/>
+      <c r="I4" s="96"/>
+      <c r="J4" s="96"/>
+      <c r="K4" s="96"/>
+      <c r="L4" s="97"/>
+      <c r="M4" s="95"/>
+      <c r="N4" s="96"/>
+      <c r="O4" s="96"/>
+      <c r="P4" s="96"/>
+      <c r="Q4" s="96"/>
+      <c r="R4" s="96"/>
+      <c r="S4" s="96"/>
+      <c r="T4" s="96"/>
+      <c r="U4" s="96"/>
+      <c r="V4" s="96"/>
+      <c r="W4" s="96"/>
+      <c r="X4" s="96"/>
+      <c r="Y4" s="96"/>
+      <c r="Z4" s="96"/>
+      <c r="AA4" s="96"/>
+      <c r="AB4" s="96"/>
+      <c r="AC4" s="97"/>
+      <c r="AD4" s="100"/>
+      <c r="AE4" s="101"/>
+      <c r="AF4" s="95"/>
+      <c r="AG4" s="97"/>
     </row>
     <row r="5" spans="1:177" s="11" customFormat="1" ht="12.75" customHeight="1">
       <c r="A5" s="22"/>
@@ -12250,13 +12199,13 @@
       <c r="D7" s="31"/>
       <c r="E7" s="31"/>
       <c r="F7" s="31"/>
-      <c r="G7" s="72" t="s">
+      <c r="G7" s="125" t="s">
         <v>21</v>
       </c>
-      <c r="H7" s="73"/>
-      <c r="I7" s="73"/>
-      <c r="J7" s="73"/>
-      <c r="K7" s="74"/>
+      <c r="H7" s="126"/>
+      <c r="I7" s="126"/>
+      <c r="J7" s="126"/>
+      <c r="K7" s="127"/>
       <c r="L7" s="31"/>
       <c r="M7" s="31"/>
       <c r="N7" s="31"/>
@@ -12330,13 +12279,13 @@
       <c r="D9" s="31"/>
       <c r="E9" s="31"/>
       <c r="F9" s="31"/>
-      <c r="G9" s="72" t="s">
+      <c r="G9" s="125" t="s">
         <v>21</v>
       </c>
-      <c r="H9" s="73"/>
-      <c r="I9" s="73"/>
-      <c r="J9" s="73"/>
-      <c r="K9" s="74"/>
+      <c r="H9" s="126"/>
+      <c r="I9" s="126"/>
+      <c r="J9" s="126"/>
+      <c r="K9" s="127"/>
       <c r="O9" s="31"/>
       <c r="P9" s="31"/>
       <c r="Q9" s="31"/>
@@ -12406,11 +12355,11 @@
       <c r="D11" s="31"/>
       <c r="E11" s="31"/>
       <c r="F11" s="31"/>
-      <c r="G11" s="72"/>
-      <c r="H11" s="73"/>
-      <c r="I11" s="73"/>
-      <c r="J11" s="73"/>
-      <c r="K11" s="74"/>
+      <c r="G11" s="125"/>
+      <c r="H11" s="126"/>
+      <c r="I11" s="126"/>
+      <c r="J11" s="126"/>
+      <c r="K11" s="127"/>
       <c r="L11" s="31"/>
       <c r="M11" s="32"/>
       <c r="N11" s="31"/>
@@ -12483,11 +12432,11 @@
       <c r="D13" s="31"/>
       <c r="E13" s="31"/>
       <c r="F13" s="33"/>
-      <c r="G13" s="72"/>
-      <c r="H13" s="73"/>
-      <c r="I13" s="73"/>
-      <c r="J13" s="73"/>
-      <c r="K13" s="74"/>
+      <c r="G13" s="125"/>
+      <c r="H13" s="126"/>
+      <c r="I13" s="126"/>
+      <c r="J13" s="126"/>
+      <c r="K13" s="127"/>
       <c r="L13" s="31"/>
       <c r="M13" s="31"/>
       <c r="N13" s="31"/>
@@ -12558,13 +12507,13 @@
       <c r="D15" s="31"/>
       <c r="E15" s="31"/>
       <c r="F15" s="33"/>
-      <c r="G15" s="72" t="s">
+      <c r="G15" s="125" t="s">
         <v>21</v>
       </c>
-      <c r="H15" s="73"/>
-      <c r="I15" s="73"/>
-      <c r="J15" s="73"/>
-      <c r="K15" s="74"/>
+      <c r="H15" s="126"/>
+      <c r="I15" s="126"/>
+      <c r="J15" s="126"/>
+      <c r="K15" s="127"/>
       <c r="L15" s="31"/>
       <c r="M15" s="31"/>
       <c r="N15" s="31"/>
@@ -12630,13 +12579,13 @@
       <c r="D17" s="31"/>
       <c r="E17" s="31"/>
       <c r="F17" s="33"/>
-      <c r="G17" s="72" t="s">
+      <c r="G17" s="125" t="s">
         <v>34</v>
       </c>
-      <c r="H17" s="73"/>
-      <c r="I17" s="73"/>
-      <c r="J17" s="73"/>
-      <c r="K17" s="74"/>
+      <c r="H17" s="126"/>
+      <c r="I17" s="126"/>
+      <c r="J17" s="126"/>
+      <c r="K17" s="127"/>
       <c r="L17" s="31"/>
       <c r="M17" s="31"/>
       <c r="N17" s="31"/>
@@ -12699,11 +12648,11 @@
       <c r="D19" s="31"/>
       <c r="E19" s="31"/>
       <c r="F19" s="33"/>
-      <c r="G19" s="72"/>
-      <c r="H19" s="73"/>
-      <c r="I19" s="73"/>
-      <c r="J19" s="73"/>
-      <c r="K19" s="74"/>
+      <c r="G19" s="125"/>
+      <c r="H19" s="126"/>
+      <c r="I19" s="126"/>
+      <c r="J19" s="126"/>
+      <c r="K19" s="127"/>
       <c r="L19" s="31"/>
       <c r="M19" s="31"/>
       <c r="N19" s="31"/>
@@ -12772,13 +12721,13 @@
       <c r="D21" s="31"/>
       <c r="E21" s="31"/>
       <c r="F21" s="33"/>
-      <c r="G21" s="72" t="s">
+      <c r="G21" s="125" t="s">
         <v>21</v>
       </c>
-      <c r="H21" s="73"/>
-      <c r="I21" s="73"/>
-      <c r="J21" s="73"/>
-      <c r="K21" s="74"/>
+      <c r="H21" s="126"/>
+      <c r="I21" s="126"/>
+      <c r="J21" s="126"/>
+      <c r="K21" s="127"/>
       <c r="L21" s="31"/>
       <c r="M21" s="31"/>
       <c r="N21" s="31"/>
@@ -13559,16 +13508,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A3:F4"/>
-    <mergeCell ref="G3:L4"/>
-    <mergeCell ref="M3:AC4"/>
-    <mergeCell ref="AD3:AE4"/>
-    <mergeCell ref="AF3:AG4"/>
-    <mergeCell ref="A1:AG1"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="G2:L2"/>
-    <mergeCell ref="M2:AC2"/>
-    <mergeCell ref="AF2:AG2"/>
     <mergeCell ref="G19:K19"/>
     <mergeCell ref="G21:K21"/>
     <mergeCell ref="G7:K7"/>
@@ -13577,6 +13516,16 @@
     <mergeCell ref="G13:K13"/>
     <mergeCell ref="G15:K15"/>
     <mergeCell ref="G17:K17"/>
+    <mergeCell ref="A1:AG1"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="G2:L2"/>
+    <mergeCell ref="M2:AC2"/>
+    <mergeCell ref="AF2:AG2"/>
+    <mergeCell ref="A3:F4"/>
+    <mergeCell ref="G3:L4"/>
+    <mergeCell ref="M3:AC4"/>
+    <mergeCell ref="AD3:AE4"/>
+    <mergeCell ref="AF3:AG4"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <printOptions horizontalCentered="1"/>
@@ -14116,7 +14065,7 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="30" customHeight="1">
-      <c r="A7" s="75" t="s">
+      <c r="A7" s="128" t="s">
         <v>56</v>
       </c>
       <c r="B7" s="38" t="s">
@@ -14134,7 +14083,7 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="30" customHeight="1">
-      <c r="A8" s="76"/>
+      <c r="A8" s="129"/>
       <c r="B8" s="38" t="s">
         <v>53</v>
       </c>

--- a/01_基本設計書/01_基本設計書/チーム2/基本設計書_基本情報管理.xlsx
+++ b/01_基本設計書/01_基本設計書/チーム2/基本設計書_基本情報管理.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\まとめる\6月の課題\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90891B7F-1083-467D-9275-B8AA54FCE940}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B13B1B1C-3301-4AFB-B266-0503F86DB236}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1920" yWindow="1920" windowWidth="13152" windowHeight="8952" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-15570" yWindow="-8250" windowWidth="15375" windowHeight="12495" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="2" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="131">
   <si>
     <t>基本設計書</t>
     <rPh sb="0" eb="2">
@@ -1363,29 +1363,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>新規登録時</t>
-    <rPh sb="0" eb="4">
-      <t>シンキトウロク</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>ジ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>既存データ修正時</t>
-    <rPh sb="0" eb="2">
-      <t>キゾン</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>シュウセイ</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>ジ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>株式会社アミストロング</t>
     <rPh sb="0" eb="4">
       <t>カブシキガイシャ</t>
@@ -1394,6 +1371,45 @@
   </si>
   <si>
     <t>尚科</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>新規登録時なので、修正ボタンを非活性</t>
+    <rPh sb="0" eb="2">
+      <t>シンキ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>シュウセイ</t>
+    </rPh>
+    <rPh sb="15" eb="18">
+      <t>ヒカッセイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>にしています。</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>修正時なの登録ボタンを非活性</t>
+    <rPh sb="0" eb="2">
+      <t>シュウセイ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="11" eb="14">
+      <t>ヒカッセイ</t>
+    </rPh>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -1896,6 +1912,15 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1938,25 +1963,22 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="7" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="7" applyBorder="1"/>
@@ -1989,12 +2011,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="177" fontId="15" fillId="0" borderId="1" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="7" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2207,15 +2223,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>30479</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>101844</xdr:rowOff>
+      <xdr:colOff>28574</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>48555</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>68580</xdr:rowOff>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2232,8 +2248,8 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm flipH="1">
-          <a:off x="3131819" y="1999224"/>
-          <a:ext cx="300016" cy="1566936"/>
+          <a:off x="3171824" y="2124075"/>
+          <a:ext cx="619126" cy="1476375"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -2360,117 +2376,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>201736</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>68580</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>49042</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>19929</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>270561</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>2623</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="17" name="AutoShape 13">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000011000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="4148896" y="2606040"/>
-          <a:ext cx="1478525" cy="414103"/>
-        </a:xfrm>
-        <a:prstGeom prst="flowChartDisplay">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-          </a:solidFill>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="22860" rIns="36576" bIns="0" anchor="t" upright="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr" rtl="0">
-            <a:lnSpc>
-              <a:spcPts val="1300"/>
-            </a:lnSpc>
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ Ｐゴシック"/>
-              <a:ea typeface="ＭＳ Ｐゴシック"/>
-            </a:rPr>
-            <a:t>基本情報更新</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr" rtl="0">
-            <a:lnSpc>
-              <a:spcPts val="1300"/>
-            </a:lnSpc>
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:latin typeface="ＭＳ Ｐゴシック"/>
-            <a:ea typeface="ＭＳ Ｐゴシック"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr" rtl="0">
-            <a:lnSpc>
-              <a:spcPts val="1300"/>
-            </a:lnSpc>
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:latin typeface="ＭＳ Ｐゴシック"/>
-            <a:ea typeface="ＭＳ Ｐゴシック"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>47138</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>95249</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>23739</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>187846</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>23739</xdr:rowOff>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2486,9 +2401,9 @@
         </xdr:cNvSpPr>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
-        <a:xfrm flipH="1">
-          <a:off x="2020718" y="1761099"/>
-          <a:ext cx="704588" cy="0"/>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="2049292" y="1772529"/>
+          <a:ext cx="1189207" cy="8646"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -2529,16 +2444,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>68825</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>257420</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>94063</xdr:rowOff>
+      <xdr:rowOff>69298</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2555,8 +2470,8 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="2819400" y="1577340"/>
-          <a:ext cx="1478525" cy="414103"/>
+          <a:off x="3333750" y="1562100"/>
+          <a:ext cx="1495670" cy="421723"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartDisplay">
           <a:avLst/>
@@ -2638,142 +2553,6 @@
             <a:latin typeface="ＭＳ Ｐゴシック"/>
             <a:ea typeface="ＭＳ Ｐゴシック"/>
           </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>7620</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="21" name="Line 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000015000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeShapeType="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="1973580" y="1897380"/>
-          <a:ext cx="2240280" cy="807720"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="dk1"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:round/>
-          <a:headEnd type="arrow" w="med" len="med"/>
-          <a:tailEnd type="arrow" w="med" len="med"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:endParaRPr lang="ja-JP" altLang="en-US"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>60960</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>60960</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>106680</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>22860</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="22" name="Line 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000016000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeShapeType="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm flipH="1">
-          <a:off x="3444240" y="3078480"/>
-          <a:ext cx="1173480" cy="1082040"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="dk1"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:round/>
-          <a:headEnd type="arrow" w="med" len="med"/>
-          <a:tailEnd type="arrow" w="med" len="med"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:endParaRPr lang="ja-JP" altLang="en-US"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -4758,72 +4537,72 @@
     </row>
     <row r="4" spans="1:176" ht="12.75" customHeight="1">
       <c r="A4" s="12"/>
-      <c r="B4" s="88" t="s">
+      <c r="B4" s="91" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="88"/>
-      <c r="D4" s="88"/>
-      <c r="E4" s="88"/>
-      <c r="F4" s="88"/>
-      <c r="G4" s="88"/>
-      <c r="H4" s="88"/>
-      <c r="I4" s="88"/>
-      <c r="J4" s="88"/>
-      <c r="K4" s="88"/>
-      <c r="L4" s="88"/>
-      <c r="M4" s="88"/>
-      <c r="N4" s="88"/>
-      <c r="O4" s="88"/>
-      <c r="P4" s="88"/>
-      <c r="Q4" s="88"/>
-      <c r="R4" s="88"/>
-      <c r="S4" s="88"/>
-      <c r="T4" s="88"/>
-      <c r="U4" s="88"/>
-      <c r="V4" s="88"/>
-      <c r="W4" s="88"/>
-      <c r="X4" s="88"/>
-      <c r="Y4" s="88"/>
-      <c r="Z4" s="88"/>
-      <c r="AA4" s="88"/>
-      <c r="AB4" s="88"/>
-      <c r="AC4" s="88"/>
-      <c r="AD4" s="88"/>
-      <c r="AE4" s="88"/>
+      <c r="C4" s="91"/>
+      <c r="D4" s="91"/>
+      <c r="E4" s="91"/>
+      <c r="F4" s="91"/>
+      <c r="G4" s="91"/>
+      <c r="H4" s="91"/>
+      <c r="I4" s="91"/>
+      <c r="J4" s="91"/>
+      <c r="K4" s="91"/>
+      <c r="L4" s="91"/>
+      <c r="M4" s="91"/>
+      <c r="N4" s="91"/>
+      <c r="O4" s="91"/>
+      <c r="P4" s="91"/>
+      <c r="Q4" s="91"/>
+      <c r="R4" s="91"/>
+      <c r="S4" s="91"/>
+      <c r="T4" s="91"/>
+      <c r="U4" s="91"/>
+      <c r="V4" s="91"/>
+      <c r="W4" s="91"/>
+      <c r="X4" s="91"/>
+      <c r="Y4" s="91"/>
+      <c r="Z4" s="91"/>
+      <c r="AA4" s="91"/>
+      <c r="AB4" s="91"/>
+      <c r="AC4" s="91"/>
+      <c r="AD4" s="91"/>
+      <c r="AE4" s="91"/>
       <c r="AF4" s="13"/>
     </row>
     <row r="5" spans="1:176" ht="12.75" customHeight="1">
       <c r="A5" s="12"/>
-      <c r="B5" s="88"/>
-      <c r="C5" s="88"/>
-      <c r="D5" s="88"/>
-      <c r="E5" s="88"/>
-      <c r="F5" s="88"/>
-      <c r="G5" s="88"/>
-      <c r="H5" s="88"/>
-      <c r="I5" s="88"/>
-      <c r="J5" s="88"/>
-      <c r="K5" s="88"/>
-      <c r="L5" s="88"/>
-      <c r="M5" s="88"/>
-      <c r="N5" s="88"/>
-      <c r="O5" s="88"/>
-      <c r="P5" s="88"/>
-      <c r="Q5" s="88"/>
-      <c r="R5" s="88"/>
-      <c r="S5" s="88"/>
-      <c r="T5" s="88"/>
-      <c r="U5" s="88"/>
-      <c r="V5" s="88"/>
-      <c r="W5" s="88"/>
-      <c r="X5" s="88"/>
-      <c r="Y5" s="88"/>
-      <c r="Z5" s="88"/>
-      <c r="AA5" s="88"/>
-      <c r="AB5" s="88"/>
-      <c r="AC5" s="88"/>
-      <c r="AD5" s="88"/>
-      <c r="AE5" s="88"/>
+      <c r="B5" s="91"/>
+      <c r="C5" s="91"/>
+      <c r="D5" s="91"/>
+      <c r="E5" s="91"/>
+      <c r="F5" s="91"/>
+      <c r="G5" s="91"/>
+      <c r="H5" s="91"/>
+      <c r="I5" s="91"/>
+      <c r="J5" s="91"/>
+      <c r="K5" s="91"/>
+      <c r="L5" s="91"/>
+      <c r="M5" s="91"/>
+      <c r="N5" s="91"/>
+      <c r="O5" s="91"/>
+      <c r="P5" s="91"/>
+      <c r="Q5" s="91"/>
+      <c r="R5" s="91"/>
+      <c r="S5" s="91"/>
+      <c r="T5" s="91"/>
+      <c r="U5" s="91"/>
+      <c r="V5" s="91"/>
+      <c r="W5" s="91"/>
+      <c r="X5" s="91"/>
+      <c r="Y5" s="91"/>
+      <c r="Z5" s="91"/>
+      <c r="AA5" s="91"/>
+      <c r="AB5" s="91"/>
+      <c r="AC5" s="91"/>
+      <c r="AD5" s="91"/>
+      <c r="AE5" s="91"/>
       <c r="AF5" s="13"/>
     </row>
     <row r="6" spans="1:176" ht="12.75" customHeight="1">
@@ -4995,122 +4774,122 @@
     </row>
     <row r="11" spans="1:176" ht="12">
       <c r="A11" s="12"/>
-      <c r="B11" s="89" t="s">
+      <c r="B11" s="92" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="90"/>
-      <c r="D11" s="90"/>
-      <c r="E11" s="90"/>
-      <c r="F11" s="91"/>
-      <c r="G11" s="89" t="s">
+      <c r="C11" s="93"/>
+      <c r="D11" s="93"/>
+      <c r="E11" s="93"/>
+      <c r="F11" s="94"/>
+      <c r="G11" s="92" t="s">
         <v>2</v>
       </c>
-      <c r="H11" s="90"/>
-      <c r="I11" s="90"/>
-      <c r="J11" s="90"/>
-      <c r="K11" s="90"/>
-      <c r="L11" s="91"/>
-      <c r="M11" s="89" t="s">
+      <c r="H11" s="93"/>
+      <c r="I11" s="93"/>
+      <c r="J11" s="93"/>
+      <c r="K11" s="93"/>
+      <c r="L11" s="94"/>
+      <c r="M11" s="92" t="s">
         <v>3</v>
       </c>
-      <c r="N11" s="90"/>
-      <c r="O11" s="90"/>
-      <c r="P11" s="90"/>
-      <c r="Q11" s="90"/>
-      <c r="R11" s="90"/>
-      <c r="S11" s="90"/>
-      <c r="T11" s="90"/>
-      <c r="U11" s="90"/>
-      <c r="V11" s="90"/>
-      <c r="W11" s="90"/>
-      <c r="X11" s="90"/>
-      <c r="Y11" s="90"/>
-      <c r="Z11" s="90"/>
-      <c r="AA11" s="91"/>
-      <c r="AB11" s="89" t="s">
+      <c r="N11" s="93"/>
+      <c r="O11" s="93"/>
+      <c r="P11" s="93"/>
+      <c r="Q11" s="93"/>
+      <c r="R11" s="93"/>
+      <c r="S11" s="93"/>
+      <c r="T11" s="93"/>
+      <c r="U11" s="93"/>
+      <c r="V11" s="93"/>
+      <c r="W11" s="93"/>
+      <c r="X11" s="93"/>
+      <c r="Y11" s="93"/>
+      <c r="Z11" s="93"/>
+      <c r="AA11" s="94"/>
+      <c r="AB11" s="92" t="s">
         <v>4</v>
       </c>
-      <c r="AC11" s="91"/>
-      <c r="AD11" s="89" t="s">
+      <c r="AC11" s="94"/>
+      <c r="AD11" s="92" t="s">
         <v>5</v>
       </c>
-      <c r="AE11" s="91"/>
+      <c r="AE11" s="94"/>
     </row>
     <row r="12" spans="1:176" ht="12">
       <c r="A12" s="12"/>
-      <c r="B12" s="92" t="s">
+      <c r="B12" s="95" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="93"/>
-      <c r="D12" s="93"/>
-      <c r="E12" s="93"/>
-      <c r="F12" s="94"/>
-      <c r="G12" s="92" t="s">
+      <c r="C12" s="96"/>
+      <c r="D12" s="96"/>
+      <c r="E12" s="96"/>
+      <c r="F12" s="97"/>
+      <c r="G12" s="95" t="s">
         <v>7</v>
       </c>
-      <c r="H12" s="93"/>
-      <c r="I12" s="93"/>
-      <c r="J12" s="93"/>
-      <c r="K12" s="93"/>
-      <c r="L12" s="94"/>
-      <c r="M12" s="98" t="s">
+      <c r="H12" s="96"/>
+      <c r="I12" s="96"/>
+      <c r="J12" s="96"/>
+      <c r="K12" s="96"/>
+      <c r="L12" s="97"/>
+      <c r="M12" s="101" t="s">
         <v>8</v>
       </c>
-      <c r="N12" s="93"/>
-      <c r="O12" s="93"/>
-      <c r="P12" s="93"/>
-      <c r="Q12" s="93"/>
-      <c r="R12" s="93"/>
-      <c r="S12" s="93"/>
-      <c r="T12" s="93"/>
-      <c r="U12" s="93"/>
-      <c r="V12" s="93"/>
-      <c r="W12" s="93"/>
-      <c r="X12" s="93"/>
-      <c r="Y12" s="93"/>
-      <c r="Z12" s="93"/>
-      <c r="AA12" s="94"/>
-      <c r="AB12" s="98" t="s">
-        <v>128</v>
-      </c>
-      <c r="AC12" s="99"/>
-      <c r="AD12" s="92" t="s">
+      <c r="N12" s="96"/>
+      <c r="O12" s="96"/>
+      <c r="P12" s="96"/>
+      <c r="Q12" s="96"/>
+      <c r="R12" s="96"/>
+      <c r="S12" s="96"/>
+      <c r="T12" s="96"/>
+      <c r="U12" s="96"/>
+      <c r="V12" s="96"/>
+      <c r="W12" s="96"/>
+      <c r="X12" s="96"/>
+      <c r="Y12" s="96"/>
+      <c r="Z12" s="96"/>
+      <c r="AA12" s="97"/>
+      <c r="AB12" s="101" t="s">
+        <v>126</v>
+      </c>
+      <c r="AC12" s="102"/>
+      <c r="AD12" s="95" t="s">
         <v>9</v>
       </c>
-      <c r="AE12" s="94"/>
+      <c r="AE12" s="97"/>
     </row>
     <row r="13" spans="1:176" ht="12">
       <c r="A13" s="12"/>
-      <c r="B13" s="95"/>
-      <c r="C13" s="96"/>
-      <c r="D13" s="96"/>
-      <c r="E13" s="96"/>
-      <c r="F13" s="97"/>
-      <c r="G13" s="95"/>
-      <c r="H13" s="96"/>
-      <c r="I13" s="96"/>
-      <c r="J13" s="96"/>
-      <c r="K13" s="96"/>
-      <c r="L13" s="97"/>
-      <c r="M13" s="95"/>
-      <c r="N13" s="96"/>
-      <c r="O13" s="96"/>
-      <c r="P13" s="96"/>
-      <c r="Q13" s="96"/>
-      <c r="R13" s="96"/>
-      <c r="S13" s="96"/>
-      <c r="T13" s="96"/>
-      <c r="U13" s="96"/>
-      <c r="V13" s="96"/>
-      <c r="W13" s="96"/>
-      <c r="X13" s="96"/>
-      <c r="Y13" s="96"/>
-      <c r="Z13" s="96"/>
-      <c r="AA13" s="97"/>
-      <c r="AB13" s="100"/>
-      <c r="AC13" s="101"/>
-      <c r="AD13" s="95"/>
-      <c r="AE13" s="97"/>
+      <c r="B13" s="98"/>
+      <c r="C13" s="99"/>
+      <c r="D13" s="99"/>
+      <c r="E13" s="99"/>
+      <c r="F13" s="100"/>
+      <c r="G13" s="98"/>
+      <c r="H13" s="99"/>
+      <c r="I13" s="99"/>
+      <c r="J13" s="99"/>
+      <c r="K13" s="99"/>
+      <c r="L13" s="100"/>
+      <c r="M13" s="98"/>
+      <c r="N13" s="99"/>
+      <c r="O13" s="99"/>
+      <c r="P13" s="99"/>
+      <c r="Q13" s="99"/>
+      <c r="R13" s="99"/>
+      <c r="S13" s="99"/>
+      <c r="T13" s="99"/>
+      <c r="U13" s="99"/>
+      <c r="V13" s="99"/>
+      <c r="W13" s="99"/>
+      <c r="X13" s="99"/>
+      <c r="Y13" s="99"/>
+      <c r="Z13" s="99"/>
+      <c r="AA13" s="100"/>
+      <c r="AB13" s="103"/>
+      <c r="AC13" s="104"/>
+      <c r="AD13" s="98"/>
+      <c r="AE13" s="100"/>
     </row>
     <row r="14" spans="1:176" ht="12.75" customHeight="1">
       <c r="A14" s="12"/>
@@ -5458,12 +5237,12 @@
       <c r="C24" s="86"/>
       <c r="D24" s="86"/>
       <c r="E24" s="87"/>
-      <c r="F24" s="102">
+      <c r="F24" s="88">
         <v>45083</v>
       </c>
-      <c r="G24" s="103"/>
-      <c r="H24" s="103"/>
-      <c r="I24" s="104"/>
+      <c r="G24" s="89"/>
+      <c r="H24" s="89"/>
+      <c r="I24" s="90"/>
       <c r="J24" s="85" t="s">
         <v>80</v>
       </c>
@@ -5498,10 +5277,10 @@
       <c r="C25" s="86"/>
       <c r="D25" s="86"/>
       <c r="E25" s="87"/>
-      <c r="F25" s="102"/>
-      <c r="G25" s="103"/>
-      <c r="H25" s="103"/>
-      <c r="I25" s="104"/>
+      <c r="F25" s="88"/>
+      <c r="G25" s="89"/>
+      <c r="H25" s="89"/>
+      <c r="I25" s="90"/>
       <c r="J25" s="85"/>
       <c r="K25" s="86"/>
       <c r="L25" s="86"/>
@@ -5532,10 +5311,10 @@
       <c r="C26" s="86"/>
       <c r="D26" s="86"/>
       <c r="E26" s="87"/>
-      <c r="F26" s="102"/>
-      <c r="G26" s="103"/>
-      <c r="H26" s="103"/>
-      <c r="I26" s="104"/>
+      <c r="F26" s="88"/>
+      <c r="G26" s="89"/>
+      <c r="H26" s="89"/>
+      <c r="I26" s="90"/>
       <c r="J26" s="85"/>
       <c r="K26" s="86"/>
       <c r="L26" s="86"/>
@@ -5566,10 +5345,10 @@
       <c r="C27" s="86"/>
       <c r="D27" s="86"/>
       <c r="E27" s="87"/>
-      <c r="F27" s="102"/>
-      <c r="G27" s="103"/>
-      <c r="H27" s="103"/>
-      <c r="I27" s="104"/>
+      <c r="F27" s="88"/>
+      <c r="G27" s="89"/>
+      <c r="H27" s="89"/>
+      <c r="I27" s="90"/>
       <c r="J27" s="85"/>
       <c r="K27" s="86"/>
       <c r="L27" s="86"/>
@@ -5600,10 +5379,10 @@
       <c r="C28" s="86"/>
       <c r="D28" s="86"/>
       <c r="E28" s="87"/>
-      <c r="F28" s="102"/>
-      <c r="G28" s="103"/>
-      <c r="H28" s="103"/>
-      <c r="I28" s="104"/>
+      <c r="F28" s="88"/>
+      <c r="G28" s="89"/>
+      <c r="H28" s="89"/>
+      <c r="I28" s="90"/>
       <c r="J28" s="85"/>
       <c r="K28" s="86"/>
       <c r="L28" s="86"/>
@@ -5634,10 +5413,10 @@
       <c r="C29" s="86"/>
       <c r="D29" s="86"/>
       <c r="E29" s="87"/>
-      <c r="F29" s="102"/>
-      <c r="G29" s="103"/>
-      <c r="H29" s="103"/>
-      <c r="I29" s="104"/>
+      <c r="F29" s="88"/>
+      <c r="G29" s="89"/>
+      <c r="H29" s="89"/>
+      <c r="I29" s="90"/>
       <c r="J29" s="85"/>
       <c r="K29" s="86"/>
       <c r="L29" s="86"/>
@@ -5668,10 +5447,10 @@
       <c r="C30" s="86"/>
       <c r="D30" s="86"/>
       <c r="E30" s="87"/>
-      <c r="F30" s="102"/>
-      <c r="G30" s="103"/>
-      <c r="H30" s="103"/>
-      <c r="I30" s="104"/>
+      <c r="F30" s="88"/>
+      <c r="G30" s="89"/>
+      <c r="H30" s="89"/>
+      <c r="I30" s="90"/>
       <c r="J30" s="85"/>
       <c r="K30" s="86"/>
       <c r="L30" s="86"/>
@@ -5702,10 +5481,10 @@
       <c r="C31" s="86"/>
       <c r="D31" s="86"/>
       <c r="E31" s="87"/>
-      <c r="F31" s="102"/>
-      <c r="G31" s="103"/>
-      <c r="H31" s="103"/>
-      <c r="I31" s="104"/>
+      <c r="F31" s="88"/>
+      <c r="G31" s="89"/>
+      <c r="H31" s="89"/>
+      <c r="I31" s="90"/>
       <c r="J31" s="85"/>
       <c r="K31" s="86"/>
       <c r="L31" s="86"/>
@@ -5736,10 +5515,10 @@
       <c r="C32" s="86"/>
       <c r="D32" s="86"/>
       <c r="E32" s="87"/>
-      <c r="F32" s="102"/>
-      <c r="G32" s="103"/>
-      <c r="H32" s="103"/>
-      <c r="I32" s="104"/>
+      <c r="F32" s="88"/>
+      <c r="G32" s="89"/>
+      <c r="H32" s="89"/>
+      <c r="I32" s="90"/>
       <c r="J32" s="85"/>
       <c r="K32" s="86"/>
       <c r="L32" s="86"/>
@@ -5770,10 +5549,10 @@
       <c r="C33" s="86"/>
       <c r="D33" s="86"/>
       <c r="E33" s="87"/>
-      <c r="F33" s="102"/>
-      <c r="G33" s="103"/>
-      <c r="H33" s="103"/>
-      <c r="I33" s="104"/>
+      <c r="F33" s="88"/>
+      <c r="G33" s="89"/>
+      <c r="H33" s="89"/>
+      <c r="I33" s="90"/>
       <c r="J33" s="85"/>
       <c r="K33" s="86"/>
       <c r="L33" s="86"/>
@@ -5804,10 +5583,10 @@
       <c r="C34" s="86"/>
       <c r="D34" s="86"/>
       <c r="E34" s="87"/>
-      <c r="F34" s="102"/>
-      <c r="G34" s="103"/>
-      <c r="H34" s="103"/>
-      <c r="I34" s="104"/>
+      <c r="F34" s="88"/>
+      <c r="G34" s="89"/>
+      <c r="H34" s="89"/>
+      <c r="I34" s="90"/>
       <c r="J34" s="85"/>
       <c r="K34" s="86"/>
       <c r="L34" s="86"/>
@@ -5838,10 +5617,10 @@
       <c r="C35" s="86"/>
       <c r="D35" s="86"/>
       <c r="E35" s="87"/>
-      <c r="F35" s="102"/>
-      <c r="G35" s="103"/>
-      <c r="H35" s="103"/>
-      <c r="I35" s="104"/>
+      <c r="F35" s="88"/>
+      <c r="G35" s="89"/>
+      <c r="H35" s="89"/>
+      <c r="I35" s="90"/>
       <c r="J35" s="85"/>
       <c r="K35" s="86"/>
       <c r="L35" s="86"/>
@@ -5872,10 +5651,10 @@
       <c r="C36" s="86"/>
       <c r="D36" s="86"/>
       <c r="E36" s="87"/>
-      <c r="F36" s="102"/>
-      <c r="G36" s="103"/>
-      <c r="H36" s="103"/>
-      <c r="I36" s="104"/>
+      <c r="F36" s="88"/>
+      <c r="G36" s="89"/>
+      <c r="H36" s="89"/>
+      <c r="I36" s="90"/>
       <c r="J36" s="85"/>
       <c r="K36" s="86"/>
       <c r="L36" s="86"/>
@@ -5906,10 +5685,10 @@
       <c r="C37" s="86"/>
       <c r="D37" s="86"/>
       <c r="E37" s="87"/>
-      <c r="F37" s="102"/>
-      <c r="G37" s="103"/>
-      <c r="H37" s="103"/>
-      <c r="I37" s="104"/>
+      <c r="F37" s="88"/>
+      <c r="G37" s="89"/>
+      <c r="H37" s="89"/>
+      <c r="I37" s="90"/>
       <c r="J37" s="85"/>
       <c r="K37" s="86"/>
       <c r="L37" s="86"/>
@@ -5940,10 +5719,10 @@
       <c r="C38" s="86"/>
       <c r="D38" s="86"/>
       <c r="E38" s="87"/>
-      <c r="F38" s="102"/>
-      <c r="G38" s="103"/>
-      <c r="H38" s="103"/>
-      <c r="I38" s="104"/>
+      <c r="F38" s="88"/>
+      <c r="G38" s="89"/>
+      <c r="H38" s="89"/>
+      <c r="I38" s="90"/>
       <c r="J38" s="85"/>
       <c r="K38" s="86"/>
       <c r="L38" s="86"/>
@@ -5974,10 +5753,10 @@
       <c r="C39" s="86"/>
       <c r="D39" s="86"/>
       <c r="E39" s="87"/>
-      <c r="F39" s="102"/>
-      <c r="G39" s="103"/>
-      <c r="H39" s="103"/>
-      <c r="I39" s="104"/>
+      <c r="F39" s="88"/>
+      <c r="G39" s="89"/>
+      <c r="H39" s="89"/>
+      <c r="I39" s="90"/>
       <c r="J39" s="85"/>
       <c r="K39" s="86"/>
       <c r="L39" s="86"/>
@@ -6008,10 +5787,10 @@
       <c r="C40" s="86"/>
       <c r="D40" s="86"/>
       <c r="E40" s="87"/>
-      <c r="F40" s="102"/>
-      <c r="G40" s="103"/>
-      <c r="H40" s="103"/>
-      <c r="I40" s="104"/>
+      <c r="F40" s="88"/>
+      <c r="G40" s="89"/>
+      <c r="H40" s="89"/>
+      <c r="I40" s="90"/>
       <c r="J40" s="85"/>
       <c r="K40" s="86"/>
       <c r="L40" s="86"/>
@@ -6072,74 +5851,6 @@
     </row>
   </sheetData>
   <mergeCells count="83">
-    <mergeCell ref="B40:E40"/>
-    <mergeCell ref="F40:I40"/>
-    <mergeCell ref="J40:AB40"/>
-    <mergeCell ref="AC40:AE40"/>
-    <mergeCell ref="B38:E38"/>
-    <mergeCell ref="F38:I38"/>
-    <mergeCell ref="J38:AB38"/>
-    <mergeCell ref="AC38:AE38"/>
-    <mergeCell ref="B39:E39"/>
-    <mergeCell ref="F39:I39"/>
-    <mergeCell ref="J39:AB39"/>
-    <mergeCell ref="AC39:AE39"/>
-    <mergeCell ref="B36:E36"/>
-    <mergeCell ref="F36:I36"/>
-    <mergeCell ref="J36:AB36"/>
-    <mergeCell ref="AC36:AE36"/>
-    <mergeCell ref="B37:E37"/>
-    <mergeCell ref="F37:I37"/>
-    <mergeCell ref="J37:AB37"/>
-    <mergeCell ref="AC37:AE37"/>
-    <mergeCell ref="B34:E34"/>
-    <mergeCell ref="F34:I34"/>
-    <mergeCell ref="J34:AB34"/>
-    <mergeCell ref="AC34:AE34"/>
-    <mergeCell ref="B35:E35"/>
-    <mergeCell ref="F35:I35"/>
-    <mergeCell ref="J35:AB35"/>
-    <mergeCell ref="AC35:AE35"/>
-    <mergeCell ref="B32:E32"/>
-    <mergeCell ref="F32:I32"/>
-    <mergeCell ref="J32:AB32"/>
-    <mergeCell ref="AC32:AE32"/>
-    <mergeCell ref="B33:E33"/>
-    <mergeCell ref="F33:I33"/>
-    <mergeCell ref="J33:AB33"/>
-    <mergeCell ref="AC33:AE33"/>
-    <mergeCell ref="B30:E30"/>
-    <mergeCell ref="F30:I30"/>
-    <mergeCell ref="J30:AB30"/>
-    <mergeCell ref="AC30:AE30"/>
-    <mergeCell ref="B31:E31"/>
-    <mergeCell ref="F31:I31"/>
-    <mergeCell ref="J31:AB31"/>
-    <mergeCell ref="AC31:AE31"/>
-    <mergeCell ref="B28:E28"/>
-    <mergeCell ref="F28:I28"/>
-    <mergeCell ref="J28:AB28"/>
-    <mergeCell ref="AC28:AE28"/>
-    <mergeCell ref="B29:E29"/>
-    <mergeCell ref="F29:I29"/>
-    <mergeCell ref="J29:AB29"/>
-    <mergeCell ref="AC29:AE29"/>
-    <mergeCell ref="B26:E26"/>
-    <mergeCell ref="F26:I26"/>
-    <mergeCell ref="J26:AB26"/>
-    <mergeCell ref="AC26:AE26"/>
-    <mergeCell ref="B27:E27"/>
-    <mergeCell ref="F27:I27"/>
-    <mergeCell ref="J27:AB27"/>
-    <mergeCell ref="AC27:AE27"/>
-    <mergeCell ref="B24:E24"/>
-    <mergeCell ref="F24:I24"/>
-    <mergeCell ref="J24:AB24"/>
-    <mergeCell ref="AC24:AE24"/>
-    <mergeCell ref="B25:E25"/>
-    <mergeCell ref="F25:I25"/>
-    <mergeCell ref="J25:AB25"/>
-    <mergeCell ref="AC25:AE25"/>
     <mergeCell ref="B23:E23"/>
     <mergeCell ref="F23:I23"/>
     <mergeCell ref="J23:AB23"/>
@@ -6155,6 +5866,74 @@
     <mergeCell ref="M12:AA13"/>
     <mergeCell ref="AB12:AC13"/>
     <mergeCell ref="AD12:AE13"/>
+    <mergeCell ref="B24:E24"/>
+    <mergeCell ref="F24:I24"/>
+    <mergeCell ref="J24:AB24"/>
+    <mergeCell ref="AC24:AE24"/>
+    <mergeCell ref="B25:E25"/>
+    <mergeCell ref="F25:I25"/>
+    <mergeCell ref="J25:AB25"/>
+    <mergeCell ref="AC25:AE25"/>
+    <mergeCell ref="B26:E26"/>
+    <mergeCell ref="F26:I26"/>
+    <mergeCell ref="J26:AB26"/>
+    <mergeCell ref="AC26:AE26"/>
+    <mergeCell ref="B27:E27"/>
+    <mergeCell ref="F27:I27"/>
+    <mergeCell ref="J27:AB27"/>
+    <mergeCell ref="AC27:AE27"/>
+    <mergeCell ref="B28:E28"/>
+    <mergeCell ref="F28:I28"/>
+    <mergeCell ref="J28:AB28"/>
+    <mergeCell ref="AC28:AE28"/>
+    <mergeCell ref="B29:E29"/>
+    <mergeCell ref="F29:I29"/>
+    <mergeCell ref="J29:AB29"/>
+    <mergeCell ref="AC29:AE29"/>
+    <mergeCell ref="B30:E30"/>
+    <mergeCell ref="F30:I30"/>
+    <mergeCell ref="J30:AB30"/>
+    <mergeCell ref="AC30:AE30"/>
+    <mergeCell ref="B31:E31"/>
+    <mergeCell ref="F31:I31"/>
+    <mergeCell ref="J31:AB31"/>
+    <mergeCell ref="AC31:AE31"/>
+    <mergeCell ref="B32:E32"/>
+    <mergeCell ref="F32:I32"/>
+    <mergeCell ref="J32:AB32"/>
+    <mergeCell ref="AC32:AE32"/>
+    <mergeCell ref="B33:E33"/>
+    <mergeCell ref="F33:I33"/>
+    <mergeCell ref="J33:AB33"/>
+    <mergeCell ref="AC33:AE33"/>
+    <mergeCell ref="B34:E34"/>
+    <mergeCell ref="F34:I34"/>
+    <mergeCell ref="J34:AB34"/>
+    <mergeCell ref="AC34:AE34"/>
+    <mergeCell ref="B35:E35"/>
+    <mergeCell ref="F35:I35"/>
+    <mergeCell ref="J35:AB35"/>
+    <mergeCell ref="AC35:AE35"/>
+    <mergeCell ref="B36:E36"/>
+    <mergeCell ref="F36:I36"/>
+    <mergeCell ref="J36:AB36"/>
+    <mergeCell ref="AC36:AE36"/>
+    <mergeCell ref="B37:E37"/>
+    <mergeCell ref="F37:I37"/>
+    <mergeCell ref="J37:AB37"/>
+    <mergeCell ref="AC37:AE37"/>
+    <mergeCell ref="B40:E40"/>
+    <mergeCell ref="F40:I40"/>
+    <mergeCell ref="J40:AB40"/>
+    <mergeCell ref="AC40:AE40"/>
+    <mergeCell ref="B38:E38"/>
+    <mergeCell ref="F38:I38"/>
+    <mergeCell ref="J38:AB38"/>
+    <mergeCell ref="AC38:AE38"/>
+    <mergeCell ref="B39:E39"/>
+    <mergeCell ref="F39:I39"/>
+    <mergeCell ref="J39:AB39"/>
+    <mergeCell ref="AC39:AE39"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <printOptions horizontalCentered="1"/>
@@ -6173,7 +5952,7 @@
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="K17" sqref="K17"/>
-      <selection pane="bottomLeft" activeCell="AD3" sqref="AD3:AE4"/>
+      <selection pane="bottomLeft" activeCell="P18" sqref="P18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.09765625" defaultRowHeight="12.75" customHeight="1"/>
@@ -6412,131 +6191,131 @@
       <c r="AG1" s="105"/>
     </row>
     <row r="2" spans="1:177" ht="12">
-      <c r="A2" s="89" t="s">
+      <c r="A2" s="92" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="90"/>
-      <c r="C2" s="90"/>
-      <c r="D2" s="90"/>
-      <c r="E2" s="90"/>
-      <c r="F2" s="91"/>
-      <c r="G2" s="89" t="s">
+      <c r="B2" s="93"/>
+      <c r="C2" s="93"/>
+      <c r="D2" s="93"/>
+      <c r="E2" s="93"/>
+      <c r="F2" s="94"/>
+      <c r="G2" s="92" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="90"/>
-      <c r="I2" s="90"/>
-      <c r="J2" s="90"/>
-      <c r="K2" s="90"/>
-      <c r="L2" s="91"/>
-      <c r="M2" s="89" t="s">
+      <c r="H2" s="93"/>
+      <c r="I2" s="93"/>
+      <c r="J2" s="93"/>
+      <c r="K2" s="93"/>
+      <c r="L2" s="94"/>
+      <c r="M2" s="92" t="s">
         <v>3</v>
       </c>
-      <c r="N2" s="90"/>
-      <c r="O2" s="90"/>
-      <c r="P2" s="90"/>
-      <c r="Q2" s="90"/>
-      <c r="R2" s="90"/>
-      <c r="S2" s="90"/>
-      <c r="T2" s="90"/>
-      <c r="U2" s="90"/>
-      <c r="V2" s="90"/>
-      <c r="W2" s="90"/>
-      <c r="X2" s="90"/>
-      <c r="Y2" s="90"/>
-      <c r="Z2" s="90"/>
-      <c r="AA2" s="90"/>
-      <c r="AB2" s="90"/>
-      <c r="AC2" s="91"/>
+      <c r="N2" s="93"/>
+      <c r="O2" s="93"/>
+      <c r="P2" s="93"/>
+      <c r="Q2" s="93"/>
+      <c r="R2" s="93"/>
+      <c r="S2" s="93"/>
+      <c r="T2" s="93"/>
+      <c r="U2" s="93"/>
+      <c r="V2" s="93"/>
+      <c r="W2" s="93"/>
+      <c r="X2" s="93"/>
+      <c r="Y2" s="93"/>
+      <c r="Z2" s="93"/>
+      <c r="AA2" s="93"/>
+      <c r="AB2" s="93"/>
+      <c r="AC2" s="94"/>
       <c r="AD2" s="20" t="s">
         <v>4</v>
       </c>
       <c r="AE2" s="21"/>
-      <c r="AF2" s="89" t="s">
+      <c r="AF2" s="92" t="s">
         <v>5</v>
       </c>
-      <c r="AG2" s="91"/>
+      <c r="AG2" s="94"/>
     </row>
     <row r="3" spans="1:177" ht="12">
-      <c r="A3" s="92" t="s">
+      <c r="A3" s="95" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="93"/>
-      <c r="C3" s="93"/>
-      <c r="D3" s="93"/>
-      <c r="E3" s="93"/>
-      <c r="F3" s="94"/>
-      <c r="G3" s="92" t="s">
+      <c r="B3" s="96"/>
+      <c r="C3" s="96"/>
+      <c r="D3" s="96"/>
+      <c r="E3" s="96"/>
+      <c r="F3" s="97"/>
+      <c r="G3" s="95" t="s">
         <v>17</v>
       </c>
-      <c r="H3" s="93"/>
-      <c r="I3" s="93"/>
-      <c r="J3" s="93"/>
-      <c r="K3" s="93"/>
-      <c r="L3" s="94"/>
-      <c r="M3" s="92" t="str">
+      <c r="H3" s="96"/>
+      <c r="I3" s="96"/>
+      <c r="J3" s="96"/>
+      <c r="K3" s="96"/>
+      <c r="L3" s="97"/>
+      <c r="M3" s="95" t="str">
         <f>表紙!M12</f>
         <v>社員情報登録更新</v>
       </c>
-      <c r="N3" s="93"/>
-      <c r="O3" s="93"/>
-      <c r="P3" s="93"/>
-      <c r="Q3" s="93"/>
-      <c r="R3" s="93"/>
-      <c r="S3" s="93"/>
-      <c r="T3" s="93"/>
-      <c r="U3" s="93"/>
-      <c r="V3" s="93"/>
-      <c r="W3" s="93"/>
-      <c r="X3" s="93"/>
-      <c r="Y3" s="93"/>
-      <c r="Z3" s="93"/>
-      <c r="AA3" s="93"/>
-      <c r="AB3" s="93"/>
-      <c r="AC3" s="94"/>
-      <c r="AD3" s="98" t="s">
-        <v>128</v>
-      </c>
-      <c r="AE3" s="99"/>
-      <c r="AF3" s="92" t="str">
+      <c r="N3" s="96"/>
+      <c r="O3" s="96"/>
+      <c r="P3" s="96"/>
+      <c r="Q3" s="96"/>
+      <c r="R3" s="96"/>
+      <c r="S3" s="96"/>
+      <c r="T3" s="96"/>
+      <c r="U3" s="96"/>
+      <c r="V3" s="96"/>
+      <c r="W3" s="96"/>
+      <c r="X3" s="96"/>
+      <c r="Y3" s="96"/>
+      <c r="Z3" s="96"/>
+      <c r="AA3" s="96"/>
+      <c r="AB3" s="96"/>
+      <c r="AC3" s="97"/>
+      <c r="AD3" s="101" t="s">
+        <v>126</v>
+      </c>
+      <c r="AE3" s="102"/>
+      <c r="AF3" s="95" t="str">
         <f>表紙!AD12</f>
         <v>施</v>
       </c>
-      <c r="AG3" s="94"/>
+      <c r="AG3" s="97"/>
     </row>
     <row r="4" spans="1:177" ht="12">
-      <c r="A4" s="95"/>
-      <c r="B4" s="96"/>
-      <c r="C4" s="96"/>
-      <c r="D4" s="96"/>
-      <c r="E4" s="96"/>
-      <c r="F4" s="97"/>
-      <c r="G4" s="95"/>
-      <c r="H4" s="96"/>
-      <c r="I4" s="96"/>
-      <c r="J4" s="96"/>
-      <c r="K4" s="96"/>
-      <c r="L4" s="97"/>
-      <c r="M4" s="95"/>
-      <c r="N4" s="96"/>
-      <c r="O4" s="96"/>
-      <c r="P4" s="96"/>
-      <c r="Q4" s="96"/>
-      <c r="R4" s="96"/>
-      <c r="S4" s="96"/>
-      <c r="T4" s="96"/>
-      <c r="U4" s="96"/>
-      <c r="V4" s="96"/>
-      <c r="W4" s="96"/>
-      <c r="X4" s="96"/>
-      <c r="Y4" s="96"/>
-      <c r="Z4" s="96"/>
-      <c r="AA4" s="96"/>
-      <c r="AB4" s="96"/>
-      <c r="AC4" s="97"/>
-      <c r="AD4" s="100"/>
-      <c r="AE4" s="101"/>
-      <c r="AF4" s="95"/>
-      <c r="AG4" s="97"/>
+      <c r="A4" s="98"/>
+      <c r="B4" s="99"/>
+      <c r="C4" s="99"/>
+      <c r="D4" s="99"/>
+      <c r="E4" s="99"/>
+      <c r="F4" s="100"/>
+      <c r="G4" s="98"/>
+      <c r="H4" s="99"/>
+      <c r="I4" s="99"/>
+      <c r="J4" s="99"/>
+      <c r="K4" s="99"/>
+      <c r="L4" s="100"/>
+      <c r="M4" s="98"/>
+      <c r="N4" s="99"/>
+      <c r="O4" s="99"/>
+      <c r="P4" s="99"/>
+      <c r="Q4" s="99"/>
+      <c r="R4" s="99"/>
+      <c r="S4" s="99"/>
+      <c r="T4" s="99"/>
+      <c r="U4" s="99"/>
+      <c r="V4" s="99"/>
+      <c r="W4" s="99"/>
+      <c r="X4" s="99"/>
+      <c r="Y4" s="99"/>
+      <c r="Z4" s="99"/>
+      <c r="AA4" s="99"/>
+      <c r="AB4" s="99"/>
+      <c r="AC4" s="100"/>
+      <c r="AD4" s="103"/>
+      <c r="AE4" s="104"/>
+      <c r="AF4" s="98"/>
+      <c r="AG4" s="100"/>
     </row>
     <row r="5" spans="1:177" s="11" customFormat="1" ht="12.75" customHeight="1">
       <c r="A5" s="22"/>
@@ -6861,9 +6640,7 @@
       <c r="E10" s="9"/>
       <c r="F10" s="9"/>
       <c r="G10" s="9"/>
-      <c r="H10" s="9" t="s">
-        <v>126</v>
-      </c>
+      <c r="H10" s="9"/>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
       <c r="K10" s="9"/>
@@ -7069,9 +6846,7 @@
       <c r="K16" s="9"/>
       <c r="L16" s="9"/>
       <c r="N16" s="9"/>
-      <c r="O16" s="9" t="s">
-        <v>127</v>
-      </c>
+      <c r="O16" s="9"/>
       <c r="Q16" s="9"/>
       <c r="R16" s="9"/>
       <c r="Z16" s="9"/>
@@ -7695,16 +7470,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A3:F4"/>
+    <mergeCell ref="G3:L4"/>
+    <mergeCell ref="M3:AC4"/>
+    <mergeCell ref="AD3:AE4"/>
+    <mergeCell ref="AF3:AG4"/>
     <mergeCell ref="A1:AG1"/>
     <mergeCell ref="A2:F2"/>
     <mergeCell ref="G2:L2"/>
     <mergeCell ref="M2:AC2"/>
     <mergeCell ref="AF2:AG2"/>
-    <mergeCell ref="A3:F4"/>
-    <mergeCell ref="G3:L4"/>
-    <mergeCell ref="M3:AC4"/>
-    <mergeCell ref="AD3:AE4"/>
-    <mergeCell ref="AF3:AG4"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <printOptions horizontalCentered="1"/>
@@ -7926,166 +7701,166 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:144" ht="12.75" customHeight="1">
-      <c r="A1" s="124" t="s">
+      <c r="A1" s="106" t="s">
         <v>83</v>
       </c>
-      <c r="B1" s="124"/>
-      <c r="C1" s="124"/>
-      <c r="D1" s="124"/>
-      <c r="E1" s="124"/>
-      <c r="F1" s="124"/>
-      <c r="G1" s="124"/>
-      <c r="H1" s="124"/>
-      <c r="I1" s="124"/>
-      <c r="J1" s="124"/>
-      <c r="K1" s="124"/>
-      <c r="L1" s="124"/>
-      <c r="M1" s="124"/>
-      <c r="N1" s="124"/>
-      <c r="O1" s="124"/>
-      <c r="P1" s="124"/>
-      <c r="Q1" s="124"/>
-      <c r="R1" s="124"/>
-      <c r="S1" s="124"/>
-      <c r="T1" s="124"/>
-      <c r="U1" s="124"/>
-      <c r="V1" s="124"/>
-      <c r="W1" s="124"/>
-      <c r="X1" s="124"/>
-      <c r="Y1" s="124"/>
-      <c r="Z1" s="124"/>
-      <c r="AA1" s="124"/>
-      <c r="AB1" s="124"/>
-      <c r="AC1" s="124"/>
-      <c r="AD1" s="124"/>
-      <c r="AE1" s="124"/>
-      <c r="AF1" s="124"/>
-      <c r="AG1" s="124"/>
+      <c r="B1" s="106"/>
+      <c r="C1" s="106"/>
+      <c r="D1" s="106"/>
+      <c r="E1" s="106"/>
+      <c r="F1" s="106"/>
+      <c r="G1" s="106"/>
+      <c r="H1" s="106"/>
+      <c r="I1" s="106"/>
+      <c r="J1" s="106"/>
+      <c r="K1" s="106"/>
+      <c r="L1" s="106"/>
+      <c r="M1" s="106"/>
+      <c r="N1" s="106"/>
+      <c r="O1" s="106"/>
+      <c r="P1" s="106"/>
+      <c r="Q1" s="106"/>
+      <c r="R1" s="106"/>
+      <c r="S1" s="106"/>
+      <c r="T1" s="106"/>
+      <c r="U1" s="106"/>
+      <c r="V1" s="106"/>
+      <c r="W1" s="106"/>
+      <c r="X1" s="106"/>
+      <c r="Y1" s="106"/>
+      <c r="Z1" s="106"/>
+      <c r="AA1" s="106"/>
+      <c r="AB1" s="106"/>
+      <c r="AC1" s="106"/>
+      <c r="AD1" s="106"/>
+      <c r="AE1" s="106"/>
+      <c r="AF1" s="106"/>
+      <c r="AG1" s="106"/>
     </row>
     <row r="2" spans="1:144" ht="12.75" customHeight="1">
-      <c r="A2" s="89" t="s">
+      <c r="A2" s="92" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="90"/>
-      <c r="C2" s="90"/>
-      <c r="D2" s="90"/>
-      <c r="E2" s="90"/>
-      <c r="F2" s="91"/>
-      <c r="G2" s="89" t="s">
+      <c r="B2" s="93"/>
+      <c r="C2" s="93"/>
+      <c r="D2" s="93"/>
+      <c r="E2" s="93"/>
+      <c r="F2" s="94"/>
+      <c r="G2" s="92" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="90"/>
-      <c r="I2" s="90"/>
-      <c r="J2" s="90"/>
-      <c r="K2" s="90"/>
-      <c r="L2" s="91"/>
-      <c r="M2" s="89" t="s">
+      <c r="H2" s="93"/>
+      <c r="I2" s="93"/>
+      <c r="J2" s="93"/>
+      <c r="K2" s="93"/>
+      <c r="L2" s="94"/>
+      <c r="M2" s="92" t="s">
         <v>3</v>
       </c>
-      <c r="N2" s="90"/>
-      <c r="O2" s="90"/>
-      <c r="P2" s="90"/>
-      <c r="Q2" s="90"/>
-      <c r="R2" s="90"/>
-      <c r="S2" s="90"/>
-      <c r="T2" s="90"/>
-      <c r="U2" s="90"/>
-      <c r="V2" s="90"/>
-      <c r="W2" s="90"/>
-      <c r="X2" s="90"/>
-      <c r="Y2" s="90"/>
-      <c r="Z2" s="90"/>
-      <c r="AA2" s="90"/>
-      <c r="AB2" s="90"/>
-      <c r="AC2" s="91"/>
+      <c r="N2" s="93"/>
+      <c r="O2" s="93"/>
+      <c r="P2" s="93"/>
+      <c r="Q2" s="93"/>
+      <c r="R2" s="93"/>
+      <c r="S2" s="93"/>
+      <c r="T2" s="93"/>
+      <c r="U2" s="93"/>
+      <c r="V2" s="93"/>
+      <c r="W2" s="93"/>
+      <c r="X2" s="93"/>
+      <c r="Y2" s="93"/>
+      <c r="Z2" s="93"/>
+      <c r="AA2" s="93"/>
+      <c r="AB2" s="93"/>
+      <c r="AC2" s="94"/>
       <c r="AD2" s="20" t="s">
         <v>4</v>
       </c>
       <c r="AE2" s="21"/>
-      <c r="AF2" s="89" t="s">
+      <c r="AF2" s="92" t="s">
         <v>5</v>
       </c>
-      <c r="AG2" s="91"/>
+      <c r="AG2" s="94"/>
     </row>
     <row r="3" spans="1:144" ht="12.75" customHeight="1">
-      <c r="A3" s="92" t="s">
+      <c r="A3" s="95" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="93"/>
-      <c r="C3" s="93"/>
-      <c r="D3" s="93"/>
-      <c r="E3" s="93"/>
-      <c r="F3" s="94"/>
-      <c r="G3" s="92" t="s">
+      <c r="B3" s="96"/>
+      <c r="C3" s="96"/>
+      <c r="D3" s="96"/>
+      <c r="E3" s="96"/>
+      <c r="F3" s="97"/>
+      <c r="G3" s="95" t="s">
         <v>17</v>
       </c>
-      <c r="H3" s="93"/>
-      <c r="I3" s="93"/>
-      <c r="J3" s="93"/>
-      <c r="K3" s="93"/>
-      <c r="L3" s="94"/>
-      <c r="M3" s="92" t="s">
+      <c r="H3" s="96"/>
+      <c r="I3" s="96"/>
+      <c r="J3" s="96"/>
+      <c r="K3" s="96"/>
+      <c r="L3" s="97"/>
+      <c r="M3" s="95" t="s">
         <v>121</v>
       </c>
-      <c r="N3" s="93"/>
-      <c r="O3" s="93"/>
-      <c r="P3" s="93"/>
-      <c r="Q3" s="93"/>
-      <c r="R3" s="93"/>
-      <c r="S3" s="93"/>
-      <c r="T3" s="93"/>
-      <c r="U3" s="93"/>
-      <c r="V3" s="93"/>
-      <c r="W3" s="93"/>
-      <c r="X3" s="93"/>
-      <c r="Y3" s="93"/>
-      <c r="Z3" s="93"/>
-      <c r="AA3" s="93"/>
-      <c r="AB3" s="93"/>
-      <c r="AC3" s="94"/>
-      <c r="AD3" s="92" t="s">
-        <v>129</v>
-      </c>
-      <c r="AE3" s="94"/>
-      <c r="AF3" s="92" t="s">
+      <c r="N3" s="96"/>
+      <c r="O3" s="96"/>
+      <c r="P3" s="96"/>
+      <c r="Q3" s="96"/>
+      <c r="R3" s="96"/>
+      <c r="S3" s="96"/>
+      <c r="T3" s="96"/>
+      <c r="U3" s="96"/>
+      <c r="V3" s="96"/>
+      <c r="W3" s="96"/>
+      <c r="X3" s="96"/>
+      <c r="Y3" s="96"/>
+      <c r="Z3" s="96"/>
+      <c r="AA3" s="96"/>
+      <c r="AB3" s="96"/>
+      <c r="AC3" s="97"/>
+      <c r="AD3" s="95" t="s">
+        <v>127</v>
+      </c>
+      <c r="AE3" s="97"/>
+      <c r="AF3" s="95" t="s">
         <v>119</v>
       </c>
-      <c r="AG3" s="94"/>
+      <c r="AG3" s="97"/>
     </row>
     <row r="4" spans="1:144" ht="12.75" customHeight="1">
-      <c r="A4" s="95"/>
-      <c r="B4" s="96"/>
-      <c r="C4" s="96"/>
-      <c r="D4" s="96"/>
-      <c r="E4" s="96"/>
-      <c r="F4" s="97"/>
-      <c r="G4" s="95"/>
-      <c r="H4" s="96"/>
-      <c r="I4" s="96"/>
-      <c r="J4" s="96"/>
-      <c r="K4" s="96"/>
-      <c r="L4" s="97"/>
-      <c r="M4" s="95"/>
-      <c r="N4" s="96"/>
-      <c r="O4" s="96"/>
-      <c r="P4" s="96"/>
-      <c r="Q4" s="96"/>
-      <c r="R4" s="96"/>
-      <c r="S4" s="96"/>
-      <c r="T4" s="96"/>
-      <c r="U4" s="96"/>
-      <c r="V4" s="96"/>
-      <c r="W4" s="96"/>
-      <c r="X4" s="96"/>
-      <c r="Y4" s="96"/>
-      <c r="Z4" s="96"/>
-      <c r="AA4" s="96"/>
-      <c r="AB4" s="96"/>
-      <c r="AC4" s="97"/>
-      <c r="AD4" s="95"/>
-      <c r="AE4" s="97"/>
-      <c r="AF4" s="95"/>
-      <c r="AG4" s="97"/>
+      <c r="A4" s="98"/>
+      <c r="B4" s="99"/>
+      <c r="C4" s="99"/>
+      <c r="D4" s="99"/>
+      <c r="E4" s="99"/>
+      <c r="F4" s="100"/>
+      <c r="G4" s="98"/>
+      <c r="H4" s="99"/>
+      <c r="I4" s="99"/>
+      <c r="J4" s="99"/>
+      <c r="K4" s="99"/>
+      <c r="L4" s="100"/>
+      <c r="M4" s="98"/>
+      <c r="N4" s="99"/>
+      <c r="O4" s="99"/>
+      <c r="P4" s="99"/>
+      <c r="Q4" s="99"/>
+      <c r="R4" s="99"/>
+      <c r="S4" s="99"/>
+      <c r="T4" s="99"/>
+      <c r="U4" s="99"/>
+      <c r="V4" s="99"/>
+      <c r="W4" s="99"/>
+      <c r="X4" s="99"/>
+      <c r="Y4" s="99"/>
+      <c r="Z4" s="99"/>
+      <c r="AA4" s="99"/>
+      <c r="AB4" s="99"/>
+      <c r="AC4" s="100"/>
+      <c r="AD4" s="98"/>
+      <c r="AE4" s="100"/>
+      <c r="AF4" s="98"/>
+      <c r="AG4" s="100"/>
     </row>
     <row r="5" spans="1:144" ht="12">
       <c r="A5" s="52"/>
@@ -8209,23 +7984,23 @@
       <c r="D8" s="56"/>
       <c r="E8" s="56"/>
       <c r="F8" s="56"/>
-      <c r="G8" s="123" t="s">
+      <c r="G8" s="107" t="s">
         <v>89</v>
       </c>
-      <c r="H8" s="123"/>
-      <c r="I8" s="123"/>
-      <c r="J8" s="123"/>
-      <c r="K8" s="123" t="s">
+      <c r="H8" s="107"/>
+      <c r="I8" s="107"/>
+      <c r="J8" s="107"/>
+      <c r="K8" s="107" t="s">
         <v>90</v>
       </c>
-      <c r="L8" s="123"/>
+      <c r="L8" s="107"/>
       <c r="M8" s="61"/>
-      <c r="N8" s="123" t="s">
+      <c r="N8" s="107" t="s">
         <v>89</v>
       </c>
-      <c r="O8" s="123"/>
-      <c r="P8" s="123"/>
-      <c r="Q8" s="123"/>
+      <c r="O8" s="107"/>
+      <c r="P8" s="107"/>
+      <c r="Q8" s="107"/>
       <c r="R8" s="56"/>
       <c r="S8" s="56"/>
       <c r="T8" s="56"/>
@@ -8508,49 +8283,49 @@
     </row>
     <row r="13" spans="1:144" ht="12.75" customHeight="1">
       <c r="A13" s="55"/>
-      <c r="B13" s="106" t="s">
+      <c r="B13" s="108" t="s">
         <v>95</v>
       </c>
-      <c r="C13" s="108"/>
-      <c r="D13" s="106" t="s">
+      <c r="C13" s="109"/>
+      <c r="D13" s="108" t="s">
         <v>96</v>
       </c>
-      <c r="E13" s="107"/>
-      <c r="F13" s="107"/>
-      <c r="G13" s="108"/>
-      <c r="H13" s="106" t="s">
+      <c r="E13" s="110"/>
+      <c r="F13" s="110"/>
+      <c r="G13" s="109"/>
+      <c r="H13" s="108" t="s">
         <v>88</v>
       </c>
-      <c r="I13" s="107"/>
-      <c r="J13" s="108"/>
-      <c r="K13" s="106" t="s">
+      <c r="I13" s="110"/>
+      <c r="J13" s="109"/>
+      <c r="K13" s="108" t="s">
         <v>97</v>
       </c>
-      <c r="L13" s="109"/>
-      <c r="M13" s="110"/>
-      <c r="N13" s="106" t="s">
+      <c r="L13" s="111"/>
+      <c r="M13" s="112"/>
+      <c r="N13" s="108" t="s">
         <v>98</v>
       </c>
-      <c r="O13" s="110"/>
-      <c r="P13" s="106" t="s">
+      <c r="O13" s="112"/>
+      <c r="P13" s="108" t="s">
         <v>99</v>
       </c>
-      <c r="Q13" s="107"/>
-      <c r="R13" s="108"/>
-      <c r="S13" s="106" t="s">
+      <c r="Q13" s="110"/>
+      <c r="R13" s="109"/>
+      <c r="S13" s="108" t="s">
         <v>86</v>
       </c>
-      <c r="T13" s="107"/>
-      <c r="U13" s="108"/>
-      <c r="V13" s="106" t="s">
+      <c r="T13" s="110"/>
+      <c r="U13" s="109"/>
+      <c r="V13" s="108" t="s">
         <v>100</v>
       </c>
-      <c r="W13" s="109"/>
-      <c r="X13" s="109"/>
-      <c r="Y13" s="109"/>
-      <c r="Z13" s="109"/>
-      <c r="AA13" s="109"/>
-      <c r="AB13" s="110"/>
+      <c r="W13" s="111"/>
+      <c r="X13" s="111"/>
+      <c r="Y13" s="111"/>
+      <c r="Z13" s="111"/>
+      <c r="AA13" s="111"/>
+      <c r="AB13" s="112"/>
       <c r="AC13" s="67"/>
       <c r="AD13" s="55"/>
       <c r="AG13" s="68"/>
@@ -8560,47 +8335,47 @@
     </row>
     <row r="14" spans="1:144" ht="12.75" customHeight="1">
       <c r="A14" s="55"/>
-      <c r="B14" s="111"/>
-      <c r="C14" s="112"/>
-      <c r="D14" s="113" t="s">
+      <c r="B14" s="113"/>
+      <c r="C14" s="114"/>
+      <c r="D14" s="115" t="s">
         <v>102</v>
       </c>
-      <c r="E14" s="114"/>
-      <c r="F14" s="114"/>
-      <c r="G14" s="115"/>
-      <c r="H14" s="116" t="s">
+      <c r="E14" s="116"/>
+      <c r="F14" s="116"/>
+      <c r="G14" s="117"/>
+      <c r="H14" s="118" t="s">
         <v>89</v>
       </c>
-      <c r="I14" s="117"/>
-      <c r="J14" s="118"/>
+      <c r="I14" s="119"/>
+      <c r="J14" s="120"/>
       <c r="K14" s="69" t="s">
         <v>103</v>
       </c>
       <c r="L14" s="56"/>
       <c r="M14" s="70"/>
-      <c r="N14" s="119" t="s">
+      <c r="N14" s="121" t="s">
         <v>104</v>
       </c>
-      <c r="O14" s="120"/>
-      <c r="P14" s="119" t="s">
+      <c r="O14" s="122"/>
+      <c r="P14" s="121" t="s">
         <v>104</v>
       </c>
-      <c r="Q14" s="121"/>
-      <c r="R14" s="120"/>
-      <c r="S14" s="119" t="s">
+      <c r="Q14" s="123"/>
+      <c r="R14" s="122"/>
+      <c r="S14" s="121" t="s">
         <v>105</v>
       </c>
-      <c r="T14" s="121"/>
-      <c r="U14" s="120"/>
-      <c r="V14" s="122" t="s">
+      <c r="T14" s="123"/>
+      <c r="U14" s="122"/>
+      <c r="V14" s="124" t="s">
         <v>106</v>
       </c>
-      <c r="W14" s="114"/>
-      <c r="X14" s="114"/>
-      <c r="Y14" s="114"/>
-      <c r="Z14" s="114"/>
-      <c r="AA14" s="114"/>
-      <c r="AB14" s="115"/>
+      <c r="W14" s="116"/>
+      <c r="X14" s="116"/>
+      <c r="Y14" s="116"/>
+      <c r="Z14" s="116"/>
+      <c r="AA14" s="116"/>
+      <c r="AB14" s="117"/>
       <c r="AC14" s="71" t="s">
         <v>107</v>
       </c>
@@ -9603,16 +9378,15 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="A3:F4"/>
-    <mergeCell ref="G3:L4"/>
-    <mergeCell ref="M3:AC4"/>
-    <mergeCell ref="AD3:AE4"/>
-    <mergeCell ref="AF3:AG4"/>
-    <mergeCell ref="A1:AG1"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="G2:L2"/>
-    <mergeCell ref="M2:AC2"/>
-    <mergeCell ref="AF2:AG2"/>
+    <mergeCell ref="S13:U13"/>
+    <mergeCell ref="V13:AB13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:G14"/>
+    <mergeCell ref="H14:J14"/>
+    <mergeCell ref="N14:O14"/>
+    <mergeCell ref="P14:R14"/>
+    <mergeCell ref="S14:U14"/>
+    <mergeCell ref="V14:AB14"/>
     <mergeCell ref="G8:J8"/>
     <mergeCell ref="K8:L8"/>
     <mergeCell ref="N8:Q8"/>
@@ -9622,15 +9396,16 @@
     <mergeCell ref="K13:M13"/>
     <mergeCell ref="N13:O13"/>
     <mergeCell ref="P13:R13"/>
-    <mergeCell ref="S13:U13"/>
-    <mergeCell ref="V13:AB13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:G14"/>
-    <mergeCell ref="H14:J14"/>
-    <mergeCell ref="N14:O14"/>
-    <mergeCell ref="P14:R14"/>
-    <mergeCell ref="S14:U14"/>
-    <mergeCell ref="V14:AB14"/>
+    <mergeCell ref="A1:AG1"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="G2:L2"/>
+    <mergeCell ref="M2:AC2"/>
+    <mergeCell ref="AF2:AG2"/>
+    <mergeCell ref="A3:F4"/>
+    <mergeCell ref="G3:L4"/>
+    <mergeCell ref="M3:AC4"/>
+    <mergeCell ref="AD3:AE4"/>
+    <mergeCell ref="AF3:AG4"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <printOptions horizontalCentered="1"/>
@@ -9676,10 +9451,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B9EC3DB-0E4E-4BFE-9CF1-8653EBB03284}">
   <dimension ref="A1:FU44"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView topLeftCell="O1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="K17" sqref="K17"/>
-      <selection pane="bottomLeft" activeCell="AD3" sqref="AD3:AE4"/>
+      <selection pane="bottomLeft" activeCell="AJ26" sqref="AJ26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.09765625" defaultRowHeight="12.75" customHeight="1"/>
@@ -9918,130 +9693,130 @@
       <c r="AG1" s="105"/>
     </row>
     <row r="2" spans="1:177" ht="12">
-      <c r="A2" s="89" t="s">
+      <c r="A2" s="92" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="90"/>
-      <c r="C2" s="90"/>
-      <c r="D2" s="90"/>
-      <c r="E2" s="90"/>
-      <c r="F2" s="91"/>
-      <c r="G2" s="89" t="s">
+      <c r="B2" s="93"/>
+      <c r="C2" s="93"/>
+      <c r="D2" s="93"/>
+      <c r="E2" s="93"/>
+      <c r="F2" s="94"/>
+      <c r="G2" s="92" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="90"/>
-      <c r="I2" s="90"/>
-      <c r="J2" s="90"/>
-      <c r="K2" s="90"/>
-      <c r="L2" s="91"/>
-      <c r="M2" s="89" t="s">
+      <c r="H2" s="93"/>
+      <c r="I2" s="93"/>
+      <c r="J2" s="93"/>
+      <c r="K2" s="93"/>
+      <c r="L2" s="94"/>
+      <c r="M2" s="92" t="s">
         <v>3</v>
       </c>
-      <c r="N2" s="90"/>
-      <c r="O2" s="90"/>
-      <c r="P2" s="90"/>
-      <c r="Q2" s="90"/>
-      <c r="R2" s="90"/>
-      <c r="S2" s="90"/>
-      <c r="T2" s="90"/>
-      <c r="U2" s="90"/>
-      <c r="V2" s="90"/>
-      <c r="W2" s="90"/>
-      <c r="X2" s="90"/>
-      <c r="Y2" s="90"/>
-      <c r="Z2" s="90"/>
-      <c r="AA2" s="90"/>
-      <c r="AB2" s="90"/>
-      <c r="AC2" s="91"/>
+      <c r="N2" s="93"/>
+      <c r="O2" s="93"/>
+      <c r="P2" s="93"/>
+      <c r="Q2" s="93"/>
+      <c r="R2" s="93"/>
+      <c r="S2" s="93"/>
+      <c r="T2" s="93"/>
+      <c r="U2" s="93"/>
+      <c r="V2" s="93"/>
+      <c r="W2" s="93"/>
+      <c r="X2" s="93"/>
+      <c r="Y2" s="93"/>
+      <c r="Z2" s="93"/>
+      <c r="AA2" s="93"/>
+      <c r="AB2" s="93"/>
+      <c r="AC2" s="94"/>
       <c r="AD2" s="20" t="s">
         <v>4</v>
       </c>
       <c r="AE2" s="21"/>
-      <c r="AF2" s="89" t="s">
+      <c r="AF2" s="92" t="s">
         <v>5</v>
       </c>
-      <c r="AG2" s="91"/>
+      <c r="AG2" s="94"/>
     </row>
     <row r="3" spans="1:177" ht="12">
-      <c r="A3" s="92" t="s">
+      <c r="A3" s="95" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="93"/>
-      <c r="C3" s="93"/>
-      <c r="D3" s="93"/>
-      <c r="E3" s="93"/>
-      <c r="F3" s="94"/>
-      <c r="G3" s="92" t="s">
+      <c r="B3" s="96"/>
+      <c r="C3" s="96"/>
+      <c r="D3" s="96"/>
+      <c r="E3" s="96"/>
+      <c r="F3" s="97"/>
+      <c r="G3" s="95" t="s">
         <v>17</v>
       </c>
-      <c r="H3" s="93"/>
-      <c r="I3" s="93"/>
-      <c r="J3" s="93"/>
-      <c r="K3" s="93"/>
-      <c r="L3" s="94"/>
-      <c r="M3" s="92" t="s">
+      <c r="H3" s="96"/>
+      <c r="I3" s="96"/>
+      <c r="J3" s="96"/>
+      <c r="K3" s="96"/>
+      <c r="L3" s="97"/>
+      <c r="M3" s="95" t="s">
         <v>124</v>
       </c>
-      <c r="N3" s="93"/>
-      <c r="O3" s="93"/>
-      <c r="P3" s="93"/>
-      <c r="Q3" s="93"/>
-      <c r="R3" s="93"/>
-      <c r="S3" s="93"/>
-      <c r="T3" s="93"/>
-      <c r="U3" s="93"/>
-      <c r="V3" s="93"/>
-      <c r="W3" s="93"/>
-      <c r="X3" s="93"/>
-      <c r="Y3" s="93"/>
-      <c r="Z3" s="93"/>
-      <c r="AA3" s="93"/>
-      <c r="AB3" s="93"/>
-      <c r="AC3" s="94"/>
-      <c r="AD3" s="98" t="s">
-        <v>128</v>
-      </c>
-      <c r="AE3" s="99"/>
-      <c r="AF3" s="92" t="str">
+      <c r="N3" s="96"/>
+      <c r="O3" s="96"/>
+      <c r="P3" s="96"/>
+      <c r="Q3" s="96"/>
+      <c r="R3" s="96"/>
+      <c r="S3" s="96"/>
+      <c r="T3" s="96"/>
+      <c r="U3" s="96"/>
+      <c r="V3" s="96"/>
+      <c r="W3" s="96"/>
+      <c r="X3" s="96"/>
+      <c r="Y3" s="96"/>
+      <c r="Z3" s="96"/>
+      <c r="AA3" s="96"/>
+      <c r="AB3" s="96"/>
+      <c r="AC3" s="97"/>
+      <c r="AD3" s="101" t="s">
+        <v>126</v>
+      </c>
+      <c r="AE3" s="102"/>
+      <c r="AF3" s="95" t="str">
         <f>表紙!AD12</f>
         <v>施</v>
       </c>
-      <c r="AG3" s="94"/>
+      <c r="AG3" s="97"/>
     </row>
     <row r="4" spans="1:177" ht="12">
-      <c r="A4" s="95"/>
-      <c r="B4" s="96"/>
-      <c r="C4" s="96"/>
-      <c r="D4" s="96"/>
-      <c r="E4" s="96"/>
-      <c r="F4" s="97"/>
-      <c r="G4" s="95"/>
-      <c r="H4" s="96"/>
-      <c r="I4" s="96"/>
-      <c r="J4" s="96"/>
-      <c r="K4" s="96"/>
-      <c r="L4" s="97"/>
-      <c r="M4" s="95"/>
-      <c r="N4" s="96"/>
-      <c r="O4" s="96"/>
-      <c r="P4" s="96"/>
-      <c r="Q4" s="96"/>
-      <c r="R4" s="96"/>
-      <c r="S4" s="96"/>
-      <c r="T4" s="96"/>
-      <c r="U4" s="96"/>
-      <c r="V4" s="96"/>
-      <c r="W4" s="96"/>
-      <c r="X4" s="96"/>
-      <c r="Y4" s="96"/>
-      <c r="Z4" s="96"/>
-      <c r="AA4" s="96"/>
-      <c r="AB4" s="96"/>
-      <c r="AC4" s="97"/>
-      <c r="AD4" s="100"/>
-      <c r="AE4" s="101"/>
-      <c r="AF4" s="95"/>
-      <c r="AG4" s="97"/>
+      <c r="A4" s="98"/>
+      <c r="B4" s="99"/>
+      <c r="C4" s="99"/>
+      <c r="D4" s="99"/>
+      <c r="E4" s="99"/>
+      <c r="F4" s="100"/>
+      <c r="G4" s="98"/>
+      <c r="H4" s="99"/>
+      <c r="I4" s="99"/>
+      <c r="J4" s="99"/>
+      <c r="K4" s="99"/>
+      <c r="L4" s="100"/>
+      <c r="M4" s="98"/>
+      <c r="N4" s="99"/>
+      <c r="O4" s="99"/>
+      <c r="P4" s="99"/>
+      <c r="Q4" s="99"/>
+      <c r="R4" s="99"/>
+      <c r="S4" s="99"/>
+      <c r="T4" s="99"/>
+      <c r="U4" s="99"/>
+      <c r="V4" s="99"/>
+      <c r="W4" s="99"/>
+      <c r="X4" s="99"/>
+      <c r="Y4" s="99"/>
+      <c r="Z4" s="99"/>
+      <c r="AA4" s="99"/>
+      <c r="AB4" s="99"/>
+      <c r="AC4" s="100"/>
+      <c r="AD4" s="103"/>
+      <c r="AE4" s="104"/>
+      <c r="AF4" s="98"/>
+      <c r="AG4" s="100"/>
     </row>
     <row r="5" spans="1:177" s="11" customFormat="1" ht="12.75" customHeight="1">
       <c r="A5" s="22"/>
@@ -10956,6 +10731,9 @@
       <c r="AC25" s="31"/>
       <c r="AD25" s="9"/>
       <c r="AG25" s="34"/>
+      <c r="AJ25" s="2" t="s">
+        <v>128</v>
+      </c>
     </row>
     <row r="26" spans="1:36" ht="12.75" customHeight="1">
       <c r="A26" s="12"/>
@@ -10989,6 +10767,9 @@
       <c r="AC26" s="31"/>
       <c r="AD26" s="9"/>
       <c r="AG26" s="34"/>
+      <c r="AJ26" s="2" t="s">
+        <v>129</v>
+      </c>
     </row>
     <row r="27" spans="1:36" ht="12.75" customHeight="1">
       <c r="A27" s="12"/>
@@ -11575,16 +11356,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A3:F4"/>
-    <mergeCell ref="G3:L4"/>
-    <mergeCell ref="M3:AC4"/>
-    <mergeCell ref="AD3:AE4"/>
-    <mergeCell ref="AF3:AG4"/>
-    <mergeCell ref="A1:AG1"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="G2:L2"/>
-    <mergeCell ref="M2:AC2"/>
-    <mergeCell ref="AF2:AG2"/>
     <mergeCell ref="G19:K19"/>
     <mergeCell ref="G21:K21"/>
     <mergeCell ref="G7:K7"/>
@@ -11593,6 +11364,16 @@
     <mergeCell ref="G13:K13"/>
     <mergeCell ref="G15:K15"/>
     <mergeCell ref="G17:K17"/>
+    <mergeCell ref="A1:AG1"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="G2:L2"/>
+    <mergeCell ref="M2:AC2"/>
+    <mergeCell ref="AF2:AG2"/>
+    <mergeCell ref="A3:F4"/>
+    <mergeCell ref="G3:L4"/>
+    <mergeCell ref="M3:AC4"/>
+    <mergeCell ref="AD3:AE4"/>
+    <mergeCell ref="AF3:AG4"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <printOptions horizontalCentered="1"/>
@@ -11609,10 +11390,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01313B9F-A745-4ECE-82B5-CB6D02294F61}">
   <dimension ref="A1:FU44"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView topLeftCell="L1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="K17" sqref="K17"/>
-      <selection pane="bottomLeft" activeCell="M3" sqref="M3:AC4"/>
+      <selection pane="bottomLeft" activeCell="AJ25" sqref="AI25:AJ26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.09765625" defaultRowHeight="12.75" customHeight="1"/>
@@ -11851,130 +11632,130 @@
       <c r="AG1" s="105"/>
     </row>
     <row r="2" spans="1:177" ht="12">
-      <c r="A2" s="89" t="s">
+      <c r="A2" s="92" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="90"/>
-      <c r="C2" s="90"/>
-      <c r="D2" s="90"/>
-      <c r="E2" s="90"/>
-      <c r="F2" s="91"/>
-      <c r="G2" s="89" t="s">
+      <c r="B2" s="93"/>
+      <c r="C2" s="93"/>
+      <c r="D2" s="93"/>
+      <c r="E2" s="93"/>
+      <c r="F2" s="94"/>
+      <c r="G2" s="92" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="90"/>
-      <c r="I2" s="90"/>
-      <c r="J2" s="90"/>
-      <c r="K2" s="90"/>
-      <c r="L2" s="91"/>
-      <c r="M2" s="89" t="s">
+      <c r="H2" s="93"/>
+      <c r="I2" s="93"/>
+      <c r="J2" s="93"/>
+      <c r="K2" s="93"/>
+      <c r="L2" s="94"/>
+      <c r="M2" s="92" t="s">
         <v>3</v>
       </c>
-      <c r="N2" s="90"/>
-      <c r="O2" s="90"/>
-      <c r="P2" s="90"/>
-      <c r="Q2" s="90"/>
-      <c r="R2" s="90"/>
-      <c r="S2" s="90"/>
-      <c r="T2" s="90"/>
-      <c r="U2" s="90"/>
-      <c r="V2" s="90"/>
-      <c r="W2" s="90"/>
-      <c r="X2" s="90"/>
-      <c r="Y2" s="90"/>
-      <c r="Z2" s="90"/>
-      <c r="AA2" s="90"/>
-      <c r="AB2" s="90"/>
-      <c r="AC2" s="91"/>
+      <c r="N2" s="93"/>
+      <c r="O2" s="93"/>
+      <c r="P2" s="93"/>
+      <c r="Q2" s="93"/>
+      <c r="R2" s="93"/>
+      <c r="S2" s="93"/>
+      <c r="T2" s="93"/>
+      <c r="U2" s="93"/>
+      <c r="V2" s="93"/>
+      <c r="W2" s="93"/>
+      <c r="X2" s="93"/>
+      <c r="Y2" s="93"/>
+      <c r="Z2" s="93"/>
+      <c r="AA2" s="93"/>
+      <c r="AB2" s="93"/>
+      <c r="AC2" s="94"/>
       <c r="AD2" s="20" t="s">
         <v>4</v>
       </c>
       <c r="AE2" s="21"/>
-      <c r="AF2" s="89" t="s">
+      <c r="AF2" s="92" t="s">
         <v>5</v>
       </c>
-      <c r="AG2" s="91"/>
+      <c r="AG2" s="94"/>
     </row>
     <row r="3" spans="1:177" ht="12">
-      <c r="A3" s="92" t="s">
+      <c r="A3" s="95" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="93"/>
-      <c r="C3" s="93"/>
-      <c r="D3" s="93"/>
-      <c r="E3" s="93"/>
-      <c r="F3" s="94"/>
-      <c r="G3" s="92" t="s">
+      <c r="B3" s="96"/>
+      <c r="C3" s="96"/>
+      <c r="D3" s="96"/>
+      <c r="E3" s="96"/>
+      <c r="F3" s="97"/>
+      <c r="G3" s="95" t="s">
         <v>17</v>
       </c>
-      <c r="H3" s="93"/>
-      <c r="I3" s="93"/>
-      <c r="J3" s="93"/>
-      <c r="K3" s="93"/>
-      <c r="L3" s="94"/>
-      <c r="M3" s="92" t="s">
+      <c r="H3" s="96"/>
+      <c r="I3" s="96"/>
+      <c r="J3" s="96"/>
+      <c r="K3" s="96"/>
+      <c r="L3" s="97"/>
+      <c r="M3" s="95" t="s">
         <v>125</v>
       </c>
-      <c r="N3" s="93"/>
-      <c r="O3" s="93"/>
-      <c r="P3" s="93"/>
-      <c r="Q3" s="93"/>
-      <c r="R3" s="93"/>
-      <c r="S3" s="93"/>
-      <c r="T3" s="93"/>
-      <c r="U3" s="93"/>
-      <c r="V3" s="93"/>
-      <c r="W3" s="93"/>
-      <c r="X3" s="93"/>
-      <c r="Y3" s="93"/>
-      <c r="Z3" s="93"/>
-      <c r="AA3" s="93"/>
-      <c r="AB3" s="93"/>
-      <c r="AC3" s="94"/>
-      <c r="AD3" s="98" t="s">
-        <v>128</v>
-      </c>
-      <c r="AE3" s="99"/>
-      <c r="AF3" s="92" t="str">
+      <c r="N3" s="96"/>
+      <c r="O3" s="96"/>
+      <c r="P3" s="96"/>
+      <c r="Q3" s="96"/>
+      <c r="R3" s="96"/>
+      <c r="S3" s="96"/>
+      <c r="T3" s="96"/>
+      <c r="U3" s="96"/>
+      <c r="V3" s="96"/>
+      <c r="W3" s="96"/>
+      <c r="X3" s="96"/>
+      <c r="Y3" s="96"/>
+      <c r="Z3" s="96"/>
+      <c r="AA3" s="96"/>
+      <c r="AB3" s="96"/>
+      <c r="AC3" s="97"/>
+      <c r="AD3" s="101" t="s">
+        <v>126</v>
+      </c>
+      <c r="AE3" s="102"/>
+      <c r="AF3" s="95" t="str">
         <f>表紙!AD12</f>
         <v>施</v>
       </c>
-      <c r="AG3" s="94"/>
+      <c r="AG3" s="97"/>
     </row>
     <row r="4" spans="1:177" ht="12">
-      <c r="A4" s="95"/>
-      <c r="B4" s="96"/>
-      <c r="C4" s="96"/>
-      <c r="D4" s="96"/>
-      <c r="E4" s="96"/>
-      <c r="F4" s="97"/>
-      <c r="G4" s="95"/>
-      <c r="H4" s="96"/>
-      <c r="I4" s="96"/>
-      <c r="J4" s="96"/>
-      <c r="K4" s="96"/>
-      <c r="L4" s="97"/>
-      <c r="M4" s="95"/>
-      <c r="N4" s="96"/>
-      <c r="O4" s="96"/>
-      <c r="P4" s="96"/>
-      <c r="Q4" s="96"/>
-      <c r="R4" s="96"/>
-      <c r="S4" s="96"/>
-      <c r="T4" s="96"/>
-      <c r="U4" s="96"/>
-      <c r="V4" s="96"/>
-      <c r="W4" s="96"/>
-      <c r="X4" s="96"/>
-      <c r="Y4" s="96"/>
-      <c r="Z4" s="96"/>
-      <c r="AA4" s="96"/>
-      <c r="AB4" s="96"/>
-      <c r="AC4" s="97"/>
-      <c r="AD4" s="100"/>
-      <c r="AE4" s="101"/>
-      <c r="AF4" s="95"/>
-      <c r="AG4" s="97"/>
+      <c r="A4" s="98"/>
+      <c r="B4" s="99"/>
+      <c r="C4" s="99"/>
+      <c r="D4" s="99"/>
+      <c r="E4" s="99"/>
+      <c r="F4" s="100"/>
+      <c r="G4" s="98"/>
+      <c r="H4" s="99"/>
+      <c r="I4" s="99"/>
+      <c r="J4" s="99"/>
+      <c r="K4" s="99"/>
+      <c r="L4" s="100"/>
+      <c r="M4" s="98"/>
+      <c r="N4" s="99"/>
+      <c r="O4" s="99"/>
+      <c r="P4" s="99"/>
+      <c r="Q4" s="99"/>
+      <c r="R4" s="99"/>
+      <c r="S4" s="99"/>
+      <c r="T4" s="99"/>
+      <c r="U4" s="99"/>
+      <c r="V4" s="99"/>
+      <c r="W4" s="99"/>
+      <c r="X4" s="99"/>
+      <c r="Y4" s="99"/>
+      <c r="Z4" s="99"/>
+      <c r="AA4" s="99"/>
+      <c r="AB4" s="99"/>
+      <c r="AC4" s="100"/>
+      <c r="AD4" s="103"/>
+      <c r="AE4" s="104"/>
+      <c r="AF4" s="98"/>
+      <c r="AG4" s="100"/>
     </row>
     <row r="5" spans="1:177" s="11" customFormat="1" ht="12.75" customHeight="1">
       <c r="A5" s="22"/>
@@ -12889,6 +12670,9 @@
       <c r="AC25" s="31"/>
       <c r="AD25" s="9"/>
       <c r="AG25" s="34"/>
+      <c r="AJ25" s="2" t="s">
+        <v>130</v>
+      </c>
     </row>
     <row r="26" spans="1:36" ht="12.75" customHeight="1">
       <c r="A26" s="12"/>
@@ -12922,6 +12706,9 @@
       <c r="AC26" s="31"/>
       <c r="AD26" s="9"/>
       <c r="AG26" s="34"/>
+      <c r="AJ26" s="2" t="s">
+        <v>129</v>
+      </c>
     </row>
     <row r="27" spans="1:36" ht="12.75" customHeight="1">
       <c r="A27" s="12"/>
@@ -13508,6 +13295,16 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A3:F4"/>
+    <mergeCell ref="G3:L4"/>
+    <mergeCell ref="M3:AC4"/>
+    <mergeCell ref="AD3:AE4"/>
+    <mergeCell ref="AF3:AG4"/>
+    <mergeCell ref="A1:AG1"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="G2:L2"/>
+    <mergeCell ref="M2:AC2"/>
+    <mergeCell ref="AF2:AG2"/>
     <mergeCell ref="G19:K19"/>
     <mergeCell ref="G21:K21"/>
     <mergeCell ref="G7:K7"/>
@@ -13516,16 +13313,6 @@
     <mergeCell ref="G13:K13"/>
     <mergeCell ref="G15:K15"/>
     <mergeCell ref="G17:K17"/>
-    <mergeCell ref="A1:AG1"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="G2:L2"/>
-    <mergeCell ref="M2:AC2"/>
-    <mergeCell ref="AF2:AG2"/>
-    <mergeCell ref="A3:F4"/>
-    <mergeCell ref="G3:L4"/>
-    <mergeCell ref="M3:AC4"/>
-    <mergeCell ref="AD3:AE4"/>
-    <mergeCell ref="AF3:AG4"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <printOptions horizontalCentered="1"/>
